--- a/Diagramas/Casos de usos/Fichas Casos de usos editado .xlsx
+++ b/Diagramas/Casos de usos/Fichas Casos de usos editado .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Editados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\2061250_IdHand\Diagramas\Casos de usos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,21 +305,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inisiar sesión</t>
-    </r>
-  </si>
-  <si>
     <t>HU2</t>
   </si>
   <si>
@@ -1194,6 +1179,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  Seleccionar padecimiento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iniciar sesión</t>
     </r>
   </si>
 </sst>
@@ -1445,19 +1445,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1484,6 +1472,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1496,16 +1487,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1531,6 +1528,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1558,15 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2931,7 +2931,7 @@
   <dimension ref="B2:AG196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB112" sqref="AB112:AE126"/>
+      <selection activeCell="L3" sqref="L3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,52 +2949,52 @@
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="38" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="35"/>
+      <c r="S3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="38" t="s">
+      <c r="T3" s="37"/>
+      <c r="V3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="21"/>
-      <c r="V3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="21"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="37"/>
     </row>
     <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -3002,41 +3002,41 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="16"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="21"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="37"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="21"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="37"/>
     </row>
     <row r="5" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -3044,35 +3044,35 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="4"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
+      <c r="Q5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="41"/>
+      <c r="AA5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="40"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -3080,29 +3080,29 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="14"/>
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="44"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="43"/>
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="43"/>
     </row>
     <row r="7" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -3110,29 +3110,29 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="14"/>
       <c r="L7" s="4"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="43"/>
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="44"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="43"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -3140,29 +3140,29 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="14"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="43"/>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="43"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -3170,29 +3170,29 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="14"/>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="44"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="43"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="44"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="43"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -3200,29 +3200,29 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="14"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="44"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="43"/>
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="44"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="43"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -3230,29 +3230,29 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="14"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="44"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="43"/>
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="44"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="43"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -3260,29 +3260,29 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="14"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46"/>
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="47"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
@@ -3290,35 +3290,35 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="14"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="Q13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="25"/>
+      <c r="AA13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="21"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -3326,29 +3326,29 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="14"/>
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
       <c r="V14" s="4"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="28"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="24"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -3356,29 +3356,29 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="14"/>
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="28"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="24"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
@@ -3386,29 +3386,29 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="14"/>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="28"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="24"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -3416,29 +3416,29 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="14"/>
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="24"/>
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="28"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="24"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
@@ -3446,29 +3446,29 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="24"/>
       <c r="V18" s="4"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="28"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="24"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
@@ -3476,29 +3476,29 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="14"/>
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="28"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="24"/>
       <c r="V19" s="4"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="28"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="24"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -3506,29 +3506,29 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="14"/>
       <c r="L20" s="4"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="24"/>
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="28"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="24"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -3536,29 +3536,29 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="14"/>
       <c r="L21" s="4"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="24"/>
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="28"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="24"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -3566,29 +3566,29 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="14"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="24"/>
       <c r="V22" s="4"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="28"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="24"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -3596,29 +3596,29 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="14"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="28"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="24"/>
       <c r="V23" s="4"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="28"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="24"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -3626,29 +3626,29 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="14"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="24"/>
       <c r="V24" s="4"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="28"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="24"/>
     </row>
     <row r="25" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -3656,29 +3656,29 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="9"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="28"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="24"/>
       <c r="V25" s="8"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="28"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="24"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -3686,29 +3686,29 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="9"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="24"/>
       <c r="V26" s="8"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="28"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="24"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
@@ -3716,137 +3716,137 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="9"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="27"/>
       <c r="V27" s="11"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="31"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="27"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="39" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="33" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="30" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="23" t="s">
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="33" t="s">
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="23" t="s">
+      <c r="V28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="23" t="s">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="33" t="s">
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="34"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="34"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="31"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="31"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="35"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="35"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="32"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="32"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
@@ -3885,52 +3885,52 @@
       <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="57" t="s">
+      <c r="B36" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="21"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="37"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="37"/>
+      <c r="S36" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" s="37"/>
+      <c r="V36" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T36" s="21"/>
-      <c r="V36" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD36" s="21"/>
+      <c r="AD36" s="37"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
@@ -3938,41 +3938,41 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="22" t="s">
+      <c r="H37" s="35"/>
+      <c r="I37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="5"/>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="22" t="s">
+      <c r="R37" s="37"/>
+      <c r="S37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T37" s="21"/>
+      <c r="T37" s="37"/>
       <c r="V37" s="1"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="19" t="s">
+      <c r="AA37" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="22" t="s">
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="21"/>
+      <c r="AD37" s="37"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
@@ -3980,35 +3980,35 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="G38" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="5"/>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
+      <c r="Q38" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="40"/>
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB38" s="49"/>
-      <c r="AC38" s="49"/>
-      <c r="AD38" s="50"/>
+      <c r="AA38" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="53"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -4016,29 +4016,29 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="5"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="44"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="43"/>
       <c r="V39" s="4"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="53"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="56"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
@@ -4046,29 +4046,29 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="5"/>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="44"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
       <c r="V40" s="4"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="53"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="56"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
@@ -4076,29 +4076,29 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="5"/>
       <c r="L41" s="4"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="44"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="43"/>
       <c r="V41" s="4"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="53"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="56"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
@@ -4106,29 +4106,29 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="5"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="44"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="43"/>
       <c r="V42" s="4"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="53"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="56"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
@@ -4136,29 +4136,29 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="5"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="44"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="43"/>
       <c r="V43" s="4"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="53"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="56"/>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
@@ -4166,29 +4166,29 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="5"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="44"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="43"/>
       <c r="V44" s="4"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="53"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="56"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
@@ -4196,29 +4196,29 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="5"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="47"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="46"/>
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="56"/>
+      <c r="AA45" s="57"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="59"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
@@ -4226,35 +4226,35 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
+      <c r="G46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="5"/>
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="25"/>
+      <c r="Q46" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="21"/>
       <c r="V46" s="4"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="25"/>
+      <c r="AA46" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="21"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
@@ -4262,29 +4262,29 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="5"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="28"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="24"/>
       <c r="V47" s="4"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="28"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="24"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
@@ -4292,29 +4292,29 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
       <c r="K48" s="5"/>
       <c r="L48" s="4"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="28"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="24"/>
       <c r="V48" s="4"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="28"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="24"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
@@ -4322,29 +4322,29 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
       <c r="K49" s="5"/>
       <c r="L49" s="4"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="28"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="24"/>
       <c r="V49" s="4"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="28"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="24"/>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
@@ -4352,29 +4352,29 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="44"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
       <c r="K50" s="5"/>
       <c r="L50" s="4"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="28"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="24"/>
       <c r="V50" s="4"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="28"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="24"/>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
@@ -4382,29 +4382,29 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="44"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
       <c r="K51" s="5"/>
       <c r="L51" s="4"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="28"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="24"/>
       <c r="V51" s="4"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="28"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="24"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
@@ -4412,28 +4412,28 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="44"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
       <c r="L52" s="4"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="28"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="24"/>
       <c r="V52" s="4"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="28"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="24"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
@@ -4441,28 +4441,28 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="44"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
       <c r="L53" s="4"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="28"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="24"/>
       <c r="V53" s="4"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="28"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="24"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
@@ -4470,28 +4470,28 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="44"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
       <c r="L54" s="4"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="28"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="24"/>
       <c r="V54" s="4"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="28"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="24"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -4499,28 +4499,28 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="44"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
       <c r="L55" s="4"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="28"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="24"/>
       <c r="V55" s="4"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="28"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="24"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
@@ -4528,28 +4528,28 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
       <c r="L56" s="4"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="28"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="24"/>
       <c r="V56" s="4"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="28"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="24"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
@@ -4557,28 +4557,28 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
       <c r="L57" s="4"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="6"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="28"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="24"/>
       <c r="V57" s="4"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="6"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="28"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="24"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
@@ -4586,28 +4586,28 @@
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="44"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
       <c r="L58" s="8"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="28"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="24"/>
       <c r="V58" s="8"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="10"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="28"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="24"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
@@ -4615,28 +4615,28 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="44"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
       <c r="L59" s="8"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="28"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="24"/>
       <c r="V59" s="8"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="10"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="28"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="24"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
@@ -4644,133 +4644,133 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="47"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="46"/>
       <c r="L60" s="11"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="13"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="27"/>
       <c r="V60" s="11"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
       <c r="Z60" s="13"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="31"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="27"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="23" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="33" t="s">
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="23" t="s">
+      <c r="L61" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="23" t="s">
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R61" s="24"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="33" t="s">
+      <c r="R61" s="20"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V61" s="23" t="s">
+      <c r="V61" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W61" s="24"/>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="23" t="s">
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="25"/>
-      <c r="AD61" s="33" t="s">
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="34"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="34"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="32"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="34"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="31"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="31"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="31"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="35"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="35"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="31"/>
-      <c r="AD63" s="35"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="32"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="32"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="26"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="32"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Q64" s="15"/>
@@ -4778,51 +4778,51 @@
       <c r="S64" s="15"/>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="38" t="s">
+      <c r="B69" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="21"/>
-      <c r="L69" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="57" t="s">
+      <c r="H69" s="35"/>
+      <c r="I69" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="37"/>
+      <c r="L69" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="R69" s="58"/>
-      <c r="S69" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="T69" s="21"/>
-      <c r="V69" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="57" t="s">
+      <c r="R69" s="49"/>
+      <c r="S69" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="T69" s="37"/>
+      <c r="V69" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AB69" s="58"/>
-      <c r="AC69" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD69" s="21"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD69" s="37"/>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
@@ -4830,40 +4830,40 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="36" t="s">
+      <c r="G70" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J70" s="21"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="37"/>
       <c r="L70" s="1"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="36" t="s">
+      <c r="Q70" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R70" s="37"/>
-      <c r="S70" s="22" t="s">
+      <c r="R70" s="35"/>
+      <c r="S70" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T70" s="21"/>
+      <c r="T70" s="37"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="3"/>
-      <c r="AA70" s="36" t="s">
+      <c r="AA70" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AB70" s="37"/>
-      <c r="AC70" s="22" t="s">
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AD70" s="21"/>
+      <c r="AD70" s="37"/>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
@@ -4871,34 +4871,34 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="41"/>
+      <c r="G71" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="40"/>
       <c r="L71" s="4"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
-      <c r="Q71" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="41"/>
+      <c r="Q71" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="40"/>
       <c r="V71" s="4"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB71" s="40"/>
-      <c r="AC71" s="40"/>
-      <c r="AD71" s="41"/>
+      <c r="AA71" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB71" s="39"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="40"/>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
@@ -4906,28 +4906,28 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="44"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
       <c r="L72" s="4"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="44"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="43"/>
       <c r="V72" s="4"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="42"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="44"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="43"/>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
@@ -4935,28 +4935,28 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="44"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
       <c r="L73" s="4"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="44"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="43"/>
       <c r="V73" s="4"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="42"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="44"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="43"/>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
@@ -4964,28 +4964,28 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="44"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="43"/>
       <c r="L74" s="4"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="44"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="43"/>
       <c r="V74" s="4"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="42"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="44"/>
+      <c r="AA74" s="41"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="43"/>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
@@ -4993,28 +4993,28 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="44"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="43"/>
       <c r="L75" s="4"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="44"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="43"/>
       <c r="V75" s="4"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="42"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="44"/>
+      <c r="AA75" s="41"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="43"/>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
@@ -5022,28 +5022,28 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="44"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
       <c r="L76" s="4"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="44"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="43"/>
       <c r="V76" s="4"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="42"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-      <c r="AD76" s="44"/>
+      <c r="AA76" s="41"/>
+      <c r="AB76" s="42"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="43"/>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
@@ -5051,28 +5051,28 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="44"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="43"/>
       <c r="L77" s="4"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="44"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="43"/>
       <c r="V77" s="4"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="42"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="44"/>
+      <c r="AA77" s="41"/>
+      <c r="AB77" s="42"/>
+      <c r="AC77" s="42"/>
+      <c r="AD77" s="43"/>
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
@@ -5080,28 +5080,28 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="47"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="46"/>
       <c r="L78" s="4"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="45"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="47"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="46"/>
       <c r="V78" s="4"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="45"/>
-      <c r="AB78" s="46"/>
-      <c r="AC78" s="46"/>
-      <c r="AD78" s="47"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="46"/>
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
@@ -5109,34 +5109,34 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="25"/>
+      <c r="G79" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
       <c r="L79" s="4"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="41"/>
+      <c r="Q79" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="40"/>
       <c r="V79" s="4"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB79" s="40"/>
-      <c r="AC79" s="40"/>
-      <c r="AD79" s="41"/>
+      <c r="AA79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="40"/>
     </row>
     <row r="80" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
@@ -5144,28 +5144,28 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="28"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="24"/>
       <c r="L80" s="4"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="44"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="43"/>
       <c r="V80" s="4"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-      <c r="AA80" s="42"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="44"/>
+      <c r="AA80" s="41"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="43"/>
     </row>
     <row r="81" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
@@ -5173,28 +5173,28 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="28"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="24"/>
       <c r="L81" s="4"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="44"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="43"/>
       <c r="V81" s="4"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
-      <c r="AA81" s="42"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="44"/>
+      <c r="AA81" s="41"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="43"/>
     </row>
     <row r="82" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
@@ -5202,28 +5202,28 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="28"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="24"/>
       <c r="L82" s="4"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="43"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="44"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="43"/>
       <c r="V82" s="4"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-      <c r="AA82" s="42"/>
-      <c r="AB82" s="43"/>
-      <c r="AC82" s="43"/>
-      <c r="AD82" s="44"/>
+      <c r="AA82" s="41"/>
+      <c r="AB82" s="42"/>
+      <c r="AC82" s="42"/>
+      <c r="AD82" s="43"/>
     </row>
     <row r="83" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
@@ -5231,28 +5231,28 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="28"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="24"/>
       <c r="L83" s="4"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="43"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="44"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="43"/>
       <c r="V83" s="4"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
-      <c r="AA83" s="42"/>
-      <c r="AB83" s="43"/>
-      <c r="AC83" s="43"/>
-      <c r="AD83" s="44"/>
+      <c r="AA83" s="41"/>
+      <c r="AB83" s="42"/>
+      <c r="AC83" s="42"/>
+      <c r="AD83" s="43"/>
     </row>
     <row r="84" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
@@ -5260,28 +5260,28 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="28"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="24"/>
       <c r="L84" s="4"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="43"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="44"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="43"/>
       <c r="V84" s="4"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
-      <c r="AA84" s="42"/>
-      <c r="AB84" s="43"/>
-      <c r="AC84" s="43"/>
-      <c r="AD84" s="44"/>
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="42"/>
+      <c r="AC84" s="42"/>
+      <c r="AD84" s="43"/>
     </row>
     <row r="85" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
@@ -5289,28 +5289,28 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="28"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="24"/>
       <c r="L85" s="4"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="43"/>
-      <c r="S85" s="43"/>
-      <c r="T85" s="44"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="43"/>
       <c r="V85" s="4"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
-      <c r="AA85" s="42"/>
-      <c r="AB85" s="43"/>
-      <c r="AC85" s="43"/>
-      <c r="AD85" s="44"/>
+      <c r="AA85" s="41"/>
+      <c r="AB85" s="42"/>
+      <c r="AC85" s="42"/>
+      <c r="AD85" s="43"/>
     </row>
     <row r="86" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
@@ -5318,28 +5318,28 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="28"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
       <c r="L86" s="4"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="42"/>
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="44"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="42"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="43"/>
       <c r="V86" s="4"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
-      <c r="AA86" s="42"/>
-      <c r="AB86" s="43"/>
-      <c r="AC86" s="43"/>
-      <c r="AD86" s="44"/>
+      <c r="AA86" s="41"/>
+      <c r="AB86" s="42"/>
+      <c r="AC86" s="42"/>
+      <c r="AD86" s="43"/>
     </row>
     <row r="87" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
@@ -5347,28 +5347,28 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="28"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="24"/>
       <c r="L87" s="4"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
-      <c r="Q87" s="42"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="44"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="43"/>
       <c r="V87" s="4"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
-      <c r="AA87" s="42"/>
-      <c r="AB87" s="43"/>
-      <c r="AC87" s="43"/>
-      <c r="AD87" s="44"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="42"/>
+      <c r="AC87" s="42"/>
+      <c r="AD87" s="43"/>
     </row>
     <row r="88" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
@@ -5376,28 +5376,28 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="28"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="24"/>
       <c r="L88" s="4"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="44"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="43"/>
       <c r="V88" s="4"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
-      <c r="AA88" s="42"/>
-      <c r="AB88" s="43"/>
-      <c r="AC88" s="43"/>
-      <c r="AD88" s="44"/>
+      <c r="AA88" s="41"/>
+      <c r="AB88" s="42"/>
+      <c r="AC88" s="42"/>
+      <c r="AD88" s="43"/>
     </row>
     <row r="89" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
@@ -5405,28 +5405,28 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="28"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="24"/>
       <c r="L89" s="4"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
-      <c r="Q89" s="42"/>
-      <c r="R89" s="43"/>
-      <c r="S89" s="43"/>
-      <c r="T89" s="44"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="43"/>
       <c r="V89" s="4"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
-      <c r="AA89" s="42"/>
-      <c r="AB89" s="43"/>
-      <c r="AC89" s="43"/>
-      <c r="AD89" s="44"/>
+      <c r="AA89" s="41"/>
+      <c r="AB89" s="42"/>
+      <c r="AC89" s="42"/>
+      <c r="AD89" s="43"/>
     </row>
     <row r="90" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
@@ -5434,28 +5434,28 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="28"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="24"/>
       <c r="L90" s="4"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="6"/>
-      <c r="Q90" s="42"/>
-      <c r="R90" s="43"/>
-      <c r="S90" s="43"/>
-      <c r="T90" s="44"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="43"/>
       <c r="V90" s="4"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="6"/>
-      <c r="AA90" s="42"/>
-      <c r="AB90" s="43"/>
-      <c r="AC90" s="43"/>
-      <c r="AD90" s="44"/>
+      <c r="AA90" s="41"/>
+      <c r="AB90" s="42"/>
+      <c r="AC90" s="42"/>
+      <c r="AD90" s="43"/>
     </row>
     <row r="91" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
@@ -5463,28 +5463,28 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="24"/>
       <c r="L91" s="8"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="42"/>
-      <c r="R91" s="43"/>
-      <c r="S91" s="43"/>
-      <c r="T91" s="44"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="43"/>
       <c r="V91" s="8"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="10"/>
-      <c r="AA91" s="42"/>
-      <c r="AB91" s="43"/>
-      <c r="AC91" s="43"/>
-      <c r="AD91" s="44"/>
+      <c r="AA91" s="41"/>
+      <c r="AB91" s="42"/>
+      <c r="AC91" s="42"/>
+      <c r="AD91" s="43"/>
     </row>
     <row r="92" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
@@ -5492,28 +5492,28 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="28"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="24"/>
       <c r="L92" s="8"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="42"/>
-      <c r="R92" s="43"/>
-      <c r="S92" s="43"/>
-      <c r="T92" s="44"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="43"/>
       <c r="V92" s="8"/>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="10"/>
-      <c r="AA92" s="42"/>
-      <c r="AB92" s="43"/>
-      <c r="AC92" s="43"/>
-      <c r="AD92" s="44"/>
+      <c r="AA92" s="41"/>
+      <c r="AB92" s="42"/>
+      <c r="AC92" s="42"/>
+      <c r="AD92" s="43"/>
     </row>
     <row r="93" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
@@ -5521,181 +5521,181 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="13"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="27"/>
       <c r="L93" s="11"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
       <c r="P93" s="13"/>
-      <c r="Q93" s="45"/>
-      <c r="R93" s="46"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="47"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="46"/>
       <c r="V93" s="11"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
       <c r="Z93" s="13"/>
-      <c r="AA93" s="45"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="46"/>
-      <c r="AD93" s="47"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="45"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="46"/>
     </row>
     <row r="94" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="23" t="s">
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="24"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="33" t="s">
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="23" t="s">
+      <c r="L94" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="23" t="s">
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R94" s="24"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="33" t="s">
+      <c r="R94" s="20"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V94" s="23" t="s">
+      <c r="V94" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="24"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="25"/>
-      <c r="AA94" s="23" t="s">
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AB94" s="24"/>
-      <c r="AC94" s="25"/>
-      <c r="AD94" s="33" t="s">
+      <c r="AB94" s="20"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="34"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="34"/>
-      <c r="V95" s="26"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="32"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="34"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="31"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="31"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="23"/>
+      <c r="X95" s="23"/>
+      <c r="Y95" s="23"/>
+      <c r="Z95" s="24"/>
+      <c r="AA95" s="22"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="24"/>
+      <c r="AD95" s="31"/>
     </row>
     <row r="96" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B96" s="29"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="35"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="30"/>
-      <c r="S96" s="31"/>
-      <c r="T96" s="35"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="30"/>
-      <c r="X96" s="30"/>
-      <c r="Y96" s="30"/>
-      <c r="Z96" s="31"/>
-      <c r="AA96" s="29"/>
-      <c r="AB96" s="30"/>
-      <c r="AC96" s="31"/>
-      <c r="AD96" s="35"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="32"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="32"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="26"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="32"/>
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="57" t="s">
+      <c r="B102" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H102" s="58"/>
-      <c r="I102" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J102" s="21"/>
-      <c r="L102" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="57" t="s">
+      <c r="H102" s="49"/>
+      <c r="I102" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="37"/>
+      <c r="L102" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M102" s="47"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="R102" s="58"/>
-      <c r="S102" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="T102" s="21"/>
-      <c r="V102" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="W102" s="59"/>
-      <c r="X102" s="59"/>
-      <c r="Y102" s="59"/>
-      <c r="Z102" s="59"/>
-      <c r="AA102" s="37"/>
-      <c r="AB102" s="22" t="s">
+      <c r="R102" s="49"/>
+      <c r="S102" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T102" s="37"/>
+      <c r="V102" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="W102" s="34"/>
+      <c r="X102" s="34"/>
+      <c r="Y102" s="34"/>
+      <c r="Z102" s="34"/>
+      <c r="AA102" s="35"/>
+      <c r="AB102" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AC102" s="21"/>
-      <c r="AD102" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE102" s="21"/>
+      <c r="AC102" s="37"/>
+      <c r="AD102" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE102" s="37"/>
       <c r="AF102" s="9"/>
     </row>
     <row r="103" spans="2:32" x14ac:dyDescent="0.25">
@@ -5704,41 +5704,41 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="36" t="s">
+      <c r="G103" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="37"/>
-      <c r="I103" s="22" t="s">
+      <c r="H103" s="35"/>
+      <c r="I103" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="21"/>
+      <c r="J103" s="37"/>
       <c r="L103" s="1"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="36" t="s">
+      <c r="Q103" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R103" s="37"/>
-      <c r="S103" s="22" t="s">
+      <c r="R103" s="35"/>
+      <c r="S103" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T103" s="21"/>
+      <c r="T103" s="37"/>
       <c r="V103" s="1"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
-      <c r="AB103" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="22" t="s">
+      <c r="AB103" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC103" s="37"/>
+      <c r="AD103" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AE103" s="21"/>
+      <c r="AE103" s="37"/>
       <c r="AF103" s="9"/>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.25">
@@ -5747,35 +5747,35 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="41"/>
+      <c r="G104" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="40"/>
       <c r="L104" s="4"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
-      <c r="Q104" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="R104" s="40"/>
-      <c r="S104" s="40"/>
-      <c r="T104" s="41"/>
+      <c r="Q104" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R104" s="39"/>
+      <c r="S104" s="39"/>
+      <c r="T104" s="40"/>
       <c r="V104" s="4"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
-      <c r="AB104" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
-      <c r="AE104" s="25"/>
+      <c r="AB104" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="20"/>
+      <c r="AE104" s="21"/>
       <c r="AF104" s="9"/>
     </row>
     <row r="105" spans="2:32" x14ac:dyDescent="0.25">
@@ -5784,29 +5784,29 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="44"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="43"/>
       <c r="L105" s="4"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
-      <c r="Q105" s="42"/>
-      <c r="R105" s="43"/>
-      <c r="S105" s="43"/>
-      <c r="T105" s="44"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="43"/>
       <c r="V105" s="4"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
-      <c r="AB105" s="26"/>
-      <c r="AC105" s="27"/>
-      <c r="AD105" s="27"/>
-      <c r="AE105" s="28"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="23"/>
+      <c r="AE105" s="24"/>
       <c r="AF105" s="9"/>
     </row>
     <row r="106" spans="2:32" x14ac:dyDescent="0.25">
@@ -5815,29 +5815,29 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="44"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="43"/>
       <c r="L106" s="4"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
-      <c r="Q106" s="42"/>
-      <c r="R106" s="43"/>
-      <c r="S106" s="43"/>
-      <c r="T106" s="44"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="43"/>
       <c r="V106" s="4"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="27"/>
-      <c r="AD106" s="27"/>
-      <c r="AE106" s="28"/>
+      <c r="AB106" s="22"/>
+      <c r="AC106" s="23"/>
+      <c r="AD106" s="23"/>
+      <c r="AE106" s="24"/>
       <c r="AF106" s="9"/>
     </row>
     <row r="107" spans="2:32" x14ac:dyDescent="0.25">
@@ -5846,29 +5846,29 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="44"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="43"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="43"/>
-      <c r="S107" s="43"/>
-      <c r="T107" s="44"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="43"/>
       <c r="V107" s="4"/>
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="27"/>
-      <c r="AD107" s="27"/>
-      <c r="AE107" s="28"/>
+      <c r="AB107" s="22"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="23"/>
+      <c r="AE107" s="24"/>
       <c r="AF107" s="9"/>
     </row>
     <row r="108" spans="2:32" x14ac:dyDescent="0.25">
@@ -5877,29 +5877,29 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="44"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="43"/>
       <c r="L108" s="4"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
-      <c r="Q108" s="42"/>
-      <c r="R108" s="43"/>
-      <c r="S108" s="43"/>
-      <c r="T108" s="44"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="43"/>
       <c r="V108" s="4"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="28"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23"/>
+      <c r="AE108" s="24"/>
       <c r="AF108" s="9"/>
     </row>
     <row r="109" spans="2:32" x14ac:dyDescent="0.25">
@@ -5908,29 +5908,29 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="44"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="43"/>
       <c r="L109" s="4"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
-      <c r="Q109" s="42"/>
-      <c r="R109" s="43"/>
-      <c r="S109" s="43"/>
-      <c r="T109" s="44"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="43"/>
       <c r="V109" s="4"/>
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-      <c r="AB109" s="26"/>
-      <c r="AC109" s="27"/>
-      <c r="AD109" s="27"/>
-      <c r="AE109" s="28"/>
+      <c r="AB109" s="22"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="24"/>
       <c r="AF109" s="9"/>
     </row>
     <row r="110" spans="2:32" x14ac:dyDescent="0.25">
@@ -5939,29 +5939,29 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="44"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="43"/>
       <c r="L110" s="4"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
-      <c r="Q110" s="42"/>
-      <c r="R110" s="43"/>
-      <c r="S110" s="43"/>
-      <c r="T110" s="44"/>
+      <c r="Q110" s="41"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="43"/>
       <c r="V110" s="4"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
-      <c r="AB110" s="26"/>
-      <c r="AC110" s="27"/>
-      <c r="AD110" s="27"/>
-      <c r="AE110" s="28"/>
+      <c r="AB110" s="22"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="23"/>
+      <c r="AE110" s="24"/>
       <c r="AF110" s="9"/>
     </row>
     <row r="111" spans="2:32" x14ac:dyDescent="0.25">
@@ -5970,29 +5970,29 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="47"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="46"/>
       <c r="L111" s="4"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
-      <c r="Q111" s="45"/>
-      <c r="R111" s="46"/>
-      <c r="S111" s="46"/>
-      <c r="T111" s="47"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="46"/>
       <c r="V111" s="4"/>
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="6"/>
-      <c r="AB111" s="29"/>
-      <c r="AC111" s="30"/>
-      <c r="AD111" s="30"/>
-      <c r="AE111" s="31"/>
+      <c r="AB111" s="25"/>
+      <c r="AC111" s="26"/>
+      <c r="AD111" s="26"/>
+      <c r="AE111" s="27"/>
       <c r="AF111" s="9"/>
     </row>
     <row r="112" spans="2:32" x14ac:dyDescent="0.25">
@@ -6001,35 +6001,35 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="41"/>
+      <c r="G112" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="40"/>
       <c r="L112" s="4"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
-      <c r="Q112" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="R112" s="40"/>
-      <c r="S112" s="40"/>
-      <c r="T112" s="41"/>
+      <c r="Q112" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+      <c r="T112" s="40"/>
       <c r="V112" s="4"/>
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC112" s="24"/>
-      <c r="AD112" s="24"/>
-      <c r="AE112" s="25"/>
+      <c r="AB112" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="21"/>
       <c r="AF112" s="9"/>
     </row>
     <row r="113" spans="2:32" x14ac:dyDescent="0.25">
@@ -6038,29 +6038,29 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="44"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="43"/>
       <c r="L113" s="4"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="43"/>
-      <c r="S113" s="43"/>
-      <c r="T113" s="44"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
+      <c r="T113" s="43"/>
       <c r="V113" s="4"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="27"/>
-      <c r="AE113" s="28"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="23"/>
+      <c r="AE113" s="24"/>
       <c r="AF113" s="9"/>
     </row>
     <row r="114" spans="2:32" x14ac:dyDescent="0.25">
@@ -6069,29 +6069,29 @@
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="44"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="43"/>
       <c r="L114" s="4"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
-      <c r="Q114" s="42"/>
-      <c r="R114" s="43"/>
-      <c r="S114" s="43"/>
-      <c r="T114" s="44"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="42"/>
+      <c r="S114" s="42"/>
+      <c r="T114" s="43"/>
       <c r="V114" s="4"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
-      <c r="AB114" s="26"/>
-      <c r="AC114" s="27"/>
-      <c r="AD114" s="27"/>
-      <c r="AE114" s="28"/>
+      <c r="AB114" s="22"/>
+      <c r="AC114" s="23"/>
+      <c r="AD114" s="23"/>
+      <c r="AE114" s="24"/>
       <c r="AF114" s="9"/>
     </row>
     <row r="115" spans="2:32" x14ac:dyDescent="0.25">
@@ -6100,29 +6100,29 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="44"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="43"/>
       <c r="L115" s="4"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
-      <c r="Q115" s="42"/>
-      <c r="R115" s="43"/>
-      <c r="S115" s="43"/>
-      <c r="T115" s="44"/>
+      <c r="Q115" s="41"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="42"/>
+      <c r="T115" s="43"/>
       <c r="V115" s="4"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="27"/>
-      <c r="AD115" s="27"/>
-      <c r="AE115" s="28"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="23"/>
+      <c r="AD115" s="23"/>
+      <c r="AE115" s="24"/>
       <c r="AF115" s="9"/>
     </row>
     <row r="116" spans="2:32" x14ac:dyDescent="0.25">
@@ -6131,29 +6131,29 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="44"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="43"/>
       <c r="L116" s="4"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="43"/>
-      <c r="S116" s="43"/>
-      <c r="T116" s="44"/>
+      <c r="Q116" s="41"/>
+      <c r="R116" s="42"/>
+      <c r="S116" s="42"/>
+      <c r="T116" s="43"/>
       <c r="V116" s="4"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
-      <c r="AB116" s="26"/>
-      <c r="AC116" s="27"/>
-      <c r="AD116" s="27"/>
-      <c r="AE116" s="28"/>
+      <c r="AB116" s="22"/>
+      <c r="AC116" s="23"/>
+      <c r="AD116" s="23"/>
+      <c r="AE116" s="24"/>
       <c r="AF116" s="9"/>
     </row>
     <row r="117" spans="2:32" x14ac:dyDescent="0.25">
@@ -6162,29 +6162,29 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="44"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="43"/>
       <c r="L117" s="4"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="43"/>
-      <c r="S117" s="43"/>
-      <c r="T117" s="44"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="42"/>
+      <c r="T117" s="43"/>
       <c r="V117" s="4"/>
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27"/>
-      <c r="AE117" s="28"/>
+      <c r="AB117" s="22"/>
+      <c r="AC117" s="23"/>
+      <c r="AD117" s="23"/>
+      <c r="AE117" s="24"/>
       <c r="AF117" s="9"/>
     </row>
     <row r="118" spans="2:32" x14ac:dyDescent="0.25">
@@ -6193,29 +6193,29 @@
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="44"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="43"/>
       <c r="L118" s="4"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
-      <c r="Q118" s="42"/>
-      <c r="R118" s="43"/>
-      <c r="S118" s="43"/>
-      <c r="T118" s="44"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="42"/>
+      <c r="T118" s="43"/>
       <c r="V118" s="4"/>
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
-      <c r="AB118" s="26"/>
-      <c r="AC118" s="27"/>
-      <c r="AD118" s="27"/>
-      <c r="AE118" s="28"/>
+      <c r="AB118" s="22"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="23"/>
+      <c r="AE118" s="24"/>
       <c r="AF118" s="9"/>
     </row>
     <row r="119" spans="2:32" x14ac:dyDescent="0.25">
@@ -6224,29 +6224,29 @@
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="44"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="43"/>
       <c r="L119" s="4"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="43"/>
-      <c r="S119" s="43"/>
-      <c r="T119" s="44"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="43"/>
       <c r="V119" s="4"/>
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
-      <c r="AB119" s="26"/>
-      <c r="AC119" s="27"/>
-      <c r="AD119" s="27"/>
-      <c r="AE119" s="28"/>
+      <c r="AB119" s="22"/>
+      <c r="AC119" s="23"/>
+      <c r="AD119" s="23"/>
+      <c r="AE119" s="24"/>
       <c r="AF119" s="9"/>
     </row>
     <row r="120" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6255,29 +6255,29 @@
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="44"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="43"/>
       <c r="L120" s="4"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
-      <c r="Q120" s="42"/>
-      <c r="R120" s="43"/>
-      <c r="S120" s="43"/>
-      <c r="T120" s="44"/>
+      <c r="Q120" s="41"/>
+      <c r="R120" s="42"/>
+      <c r="S120" s="42"/>
+      <c r="T120" s="43"/>
       <c r="V120" s="4"/>
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
-      <c r="AB120" s="26"/>
-      <c r="AC120" s="27"/>
-      <c r="AD120" s="27"/>
-      <c r="AE120" s="28"/>
+      <c r="AB120" s="22"/>
+      <c r="AC120" s="23"/>
+      <c r="AD120" s="23"/>
+      <c r="AE120" s="24"/>
       <c r="AF120" s="9"/>
     </row>
     <row r="121" spans="2:32" x14ac:dyDescent="0.25">
@@ -6286,29 +6286,29 @@
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="44"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="43"/>
       <c r="L121" s="4"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
-      <c r="Q121" s="42"/>
-      <c r="R121" s="43"/>
-      <c r="S121" s="43"/>
-      <c r="T121" s="44"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="42"/>
+      <c r="S121" s="42"/>
+      <c r="T121" s="43"/>
       <c r="V121" s="4"/>
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
-      <c r="AB121" s="26"/>
-      <c r="AC121" s="27"/>
-      <c r="AD121" s="27"/>
-      <c r="AE121" s="28"/>
+      <c r="AB121" s="22"/>
+      <c r="AC121" s="23"/>
+      <c r="AD121" s="23"/>
+      <c r="AE121" s="24"/>
       <c r="AF121" s="9"/>
     </row>
     <row r="122" spans="2:32" x14ac:dyDescent="0.25">
@@ -6317,29 +6317,29 @@
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="44"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="43"/>
       <c r="L122" s="4"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
-      <c r="Q122" s="42"/>
-      <c r="R122" s="43"/>
-      <c r="S122" s="43"/>
-      <c r="T122" s="44"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="42"/>
+      <c r="S122" s="42"/>
+      <c r="T122" s="43"/>
       <c r="V122" s="4"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
-      <c r="AB122" s="26"/>
-      <c r="AC122" s="27"/>
-      <c r="AD122" s="27"/>
-      <c r="AE122" s="28"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="23"/>
+      <c r="AE122" s="24"/>
       <c r="AF122" s="9"/>
     </row>
     <row r="123" spans="2:32" x14ac:dyDescent="0.25">
@@ -6348,29 +6348,29 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="44"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="43"/>
       <c r="L123" s="4"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="6"/>
-      <c r="Q123" s="42"/>
-      <c r="R123" s="43"/>
-      <c r="S123" s="43"/>
-      <c r="T123" s="44"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="42"/>
+      <c r="S123" s="42"/>
+      <c r="T123" s="43"/>
       <c r="V123" s="4"/>
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
-      <c r="AB123" s="26"/>
-      <c r="AC123" s="27"/>
-      <c r="AD123" s="27"/>
-      <c r="AE123" s="28"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="23"/>
+      <c r="AD123" s="23"/>
+      <c r="AE123" s="24"/>
       <c r="AF123" s="9"/>
     </row>
     <row r="124" spans="2:32" x14ac:dyDescent="0.25">
@@ -6379,29 +6379,29 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="44"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="43"/>
       <c r="L124" s="8"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="42"/>
-      <c r="R124" s="43"/>
-      <c r="S124" s="43"/>
-      <c r="T124" s="44"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="42"/>
+      <c r="S124" s="42"/>
+      <c r="T124" s="43"/>
       <c r="V124" s="4"/>
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
-      <c r="AB124" s="26"/>
-      <c r="AC124" s="27"/>
-      <c r="AD124" s="27"/>
-      <c r="AE124" s="28"/>
+      <c r="AB124" s="22"/>
+      <c r="AC124" s="23"/>
+      <c r="AD124" s="23"/>
+      <c r="AE124" s="24"/>
       <c r="AF124" s="9"/>
     </row>
     <row r="125" spans="2:32" x14ac:dyDescent="0.25">
@@ -6410,29 +6410,29 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="44"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="43"/>
       <c r="L125" s="8"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="42"/>
-      <c r="R125" s="43"/>
-      <c r="S125" s="43"/>
-      <c r="T125" s="44"/>
+      <c r="Q125" s="41"/>
+      <c r="R125" s="42"/>
+      <c r="S125" s="42"/>
+      <c r="T125" s="43"/>
       <c r="V125" s="4"/>
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
-      <c r="AB125" s="26"/>
-      <c r="AC125" s="27"/>
-      <c r="AD125" s="27"/>
-      <c r="AE125" s="28"/>
+      <c r="AB125" s="22"/>
+      <c r="AC125" s="23"/>
+      <c r="AD125" s="23"/>
+      <c r="AE125" s="24"/>
       <c r="AF125" s="9"/>
     </row>
     <row r="126" spans="2:32" x14ac:dyDescent="0.25">
@@ -6441,140 +6441,140 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="47"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="46"/>
       <c r="L126" s="11"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
       <c r="O126" s="12"/>
       <c r="P126" s="13"/>
-      <c r="Q126" s="45"/>
-      <c r="R126" s="46"/>
-      <c r="S126" s="46"/>
-      <c r="T126" s="47"/>
+      <c r="Q126" s="44"/>
+      <c r="R126" s="45"/>
+      <c r="S126" s="45"/>
+      <c r="T126" s="46"/>
       <c r="V126" s="18"/>
       <c r="W126" s="7"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
       <c r="AA126" s="7"/>
-      <c r="AB126" s="29"/>
-      <c r="AC126" s="30"/>
-      <c r="AD126" s="30"/>
-      <c r="AE126" s="31"/>
+      <c r="AB126" s="25"/>
+      <c r="AC126" s="26"/>
+      <c r="AD126" s="26"/>
+      <c r="AE126" s="27"/>
       <c r="AF126" s="9"/>
     </row>
     <row r="127" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="23" t="s">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="24"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="33" t="s">
+      <c r="H127" s="20"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L127" s="23" t="s">
+      <c r="L127" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
-      <c r="O127" s="24"/>
-      <c r="P127" s="25"/>
-      <c r="Q127" s="23" t="s">
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="21"/>
+      <c r="Q127" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R127" s="24"/>
-      <c r="S127" s="25"/>
-      <c r="T127" s="33" t="s">
+      <c r="R127" s="20"/>
+      <c r="S127" s="21"/>
+      <c r="T127" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V127" s="23" t="s">
+      <c r="V127" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="W127" s="24"/>
-      <c r="X127" s="24"/>
-      <c r="Y127" s="24"/>
-      <c r="Z127" s="24"/>
-      <c r="AA127" s="25"/>
-      <c r="AB127" s="23" t="s">
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="20"/>
+      <c r="AA127" s="21"/>
+      <c r="AB127" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AC127" s="24"/>
-      <c r="AD127" s="25"/>
-      <c r="AE127" s="33" t="s">
+      <c r="AC127" s="20"/>
+      <c r="AD127" s="21"/>
+      <c r="AE127" s="30" t="s">
         <v>4</v>
       </c>
       <c r="AF127" s="9"/>
     </row>
     <row r="128" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B128" s="26"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="34"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
-      <c r="P128" s="28"/>
-      <c r="Q128" s="26"/>
-      <c r="R128" s="32"/>
-      <c r="S128" s="28"/>
-      <c r="T128" s="34"/>
-      <c r="V128" s="26"/>
-      <c r="W128" s="27"/>
-      <c r="X128" s="27"/>
-      <c r="Y128" s="27"/>
-      <c r="Z128" s="27"/>
-      <c r="AA128" s="28"/>
-      <c r="AB128" s="26"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="28"/>
-      <c r="AE128" s="34"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="31"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="29"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="31"/>
+      <c r="V128" s="22"/>
+      <c r="W128" s="23"/>
+      <c r="X128" s="23"/>
+      <c r="Y128" s="23"/>
+      <c r="Z128" s="23"/>
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="29"/>
+      <c r="AD128" s="24"/>
+      <c r="AE128" s="31"/>
       <c r="AF128" s="9"/>
     </row>
     <row r="129" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B129" s="29"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="30"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="35"/>
-      <c r="L129" s="29"/>
-      <c r="M129" s="30"/>
-      <c r="N129" s="30"/>
-      <c r="O129" s="30"/>
-      <c r="P129" s="31"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="30"/>
-      <c r="S129" s="31"/>
-      <c r="T129" s="35"/>
-      <c r="V129" s="29"/>
-      <c r="W129" s="30"/>
-      <c r="X129" s="30"/>
-      <c r="Y129" s="30"/>
-      <c r="Z129" s="30"/>
-      <c r="AA129" s="31"/>
-      <c r="AB129" s="29"/>
-      <c r="AC129" s="30"/>
-      <c r="AD129" s="31"/>
-      <c r="AE129" s="35"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="32"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="26"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="32"/>
+      <c r="V129" s="25"/>
+      <c r="W129" s="26"/>
+      <c r="X129" s="26"/>
+      <c r="Y129" s="26"/>
+      <c r="Z129" s="26"/>
+      <c r="AA129" s="27"/>
+      <c r="AB129" s="25"/>
+      <c r="AC129" s="26"/>
+      <c r="AD129" s="27"/>
+      <c r="AE129" s="32"/>
       <c r="AF129" s="9"/>
     </row>
     <row r="130" spans="2:33" x14ac:dyDescent="0.25">
@@ -6610,54 +6610,54 @@
       <c r="AF135" s="5"/>
     </row>
     <row r="136" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B136" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C136" s="59"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="22" t="s">
+      <c r="B136" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K136" s="21"/>
-      <c r="M136" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="N136" s="59"/>
-      <c r="O136" s="59"/>
-      <c r="P136" s="59"/>
-      <c r="Q136" s="59"/>
-      <c r="R136" s="37"/>
-      <c r="S136" s="22" t="s">
+      <c r="I136" s="37"/>
+      <c r="J136" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136" s="37"/>
+      <c r="M136" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N136" s="34"/>
+      <c r="O136" s="34"/>
+      <c r="P136" s="34"/>
+      <c r="Q136" s="34"/>
+      <c r="R136" s="35"/>
+      <c r="S136" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="T136" s="21"/>
-      <c r="U136" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="V136" s="21"/>
-      <c r="X136" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y136" s="59"/>
-      <c r="Z136" s="59"/>
-      <c r="AA136" s="59"/>
-      <c r="AB136" s="59"/>
-      <c r="AC136" s="37"/>
-      <c r="AD136" s="22" t="s">
+      <c r="T136" s="37"/>
+      <c r="U136" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="V136" s="37"/>
+      <c r="X136" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y136" s="34"/>
+      <c r="Z136" s="34"/>
+      <c r="AA136" s="34"/>
+      <c r="AB136" s="34"/>
+      <c r="AC136" s="35"/>
+      <c r="AD136" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG136" s="21"/>
+      <c r="AE136" s="37"/>
+      <c r="AF136" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG136" s="37"/>
     </row>
     <row r="137" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
@@ -6666,42 +6666,42 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="22" t="s">
+      <c r="H137" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" s="37"/>
+      <c r="J137" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K137" s="21"/>
+      <c r="K137" s="37"/>
       <c r="M137" s="1"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
-      <c r="S137" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="T137" s="21"/>
-      <c r="U137" s="22" t="s">
+      <c r="S137" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T137" s="37"/>
+      <c r="U137" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V137" s="21"/>
+      <c r="V137" s="37"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
-      <c r="AD137" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE137" s="21"/>
-      <c r="AF137" s="22" t="s">
+      <c r="AD137" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE137" s="37"/>
+      <c r="AF137" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AG137" s="21"/>
+      <c r="AG137" s="37"/>
     </row>
     <row r="138" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
@@ -6710,36 +6710,36 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="25"/>
+      <c r="H138" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="21"/>
       <c r="M138" s="4"/>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-      <c r="S138" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="T138" s="24"/>
-      <c r="U138" s="24"/>
-      <c r="V138" s="25"/>
+      <c r="S138" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T138" s="20"/>
+      <c r="U138" s="20"/>
+      <c r="V138" s="21"/>
       <c r="X138" s="4"/>
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
-      <c r="AD138" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE138" s="24"/>
-      <c r="AF138" s="24"/>
-      <c r="AG138" s="25"/>
+      <c r="AD138" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE138" s="20"/>
+      <c r="AF138" s="20"/>
+      <c r="AG138" s="21"/>
     </row>
     <row r="139" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
@@ -6748,30 +6748,30 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="28"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="24"/>
       <c r="M139" s="4"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-      <c r="S139" s="26"/>
-      <c r="T139" s="27"/>
-      <c r="U139" s="27"/>
-      <c r="V139" s="28"/>
+      <c r="S139" s="22"/>
+      <c r="T139" s="23"/>
+      <c r="U139" s="23"/>
+      <c r="V139" s="24"/>
       <c r="X139" s="4"/>
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
-      <c r="AD139" s="26"/>
-      <c r="AE139" s="27"/>
-      <c r="AF139" s="27"/>
-      <c r="AG139" s="28"/>
+      <c r="AD139" s="22"/>
+      <c r="AE139" s="23"/>
+      <c r="AF139" s="23"/>
+      <c r="AG139" s="24"/>
     </row>
     <row r="140" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
@@ -6780,30 +6780,30 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
-      <c r="K140" s="28"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="23"/>
+      <c r="K140" s="24"/>
       <c r="M140" s="4"/>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-      <c r="S140" s="26"/>
-      <c r="T140" s="27"/>
-      <c r="U140" s="27"/>
-      <c r="V140" s="28"/>
+      <c r="S140" s="22"/>
+      <c r="T140" s="23"/>
+      <c r="U140" s="23"/>
+      <c r="V140" s="24"/>
       <c r="X140" s="4"/>
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
-      <c r="AD140" s="26"/>
-      <c r="AE140" s="27"/>
-      <c r="AF140" s="27"/>
-      <c r="AG140" s="28"/>
+      <c r="AD140" s="22"/>
+      <c r="AE140" s="23"/>
+      <c r="AF140" s="23"/>
+      <c r="AG140" s="24"/>
     </row>
     <row r="141" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
@@ -6812,30 +6812,30 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="28"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="23"/>
+      <c r="J141" s="23"/>
+      <c r="K141" s="24"/>
       <c r="M141" s="4"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-      <c r="S141" s="26"/>
-      <c r="T141" s="27"/>
-      <c r="U141" s="27"/>
-      <c r="V141" s="28"/>
+      <c r="S141" s="22"/>
+      <c r="T141" s="23"/>
+      <c r="U141" s="23"/>
+      <c r="V141" s="24"/>
       <c r="X141" s="4"/>
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
-      <c r="AD141" s="26"/>
-      <c r="AE141" s="27"/>
-      <c r="AF141" s="27"/>
-      <c r="AG141" s="28"/>
+      <c r="AD141" s="22"/>
+      <c r="AE141" s="23"/>
+      <c r="AF141" s="23"/>
+      <c r="AG141" s="24"/>
     </row>
     <row r="142" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
@@ -6844,30 +6844,30 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="28"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="24"/>
       <c r="M142" s="4"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-      <c r="S142" s="26"/>
-      <c r="T142" s="27"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="28"/>
+      <c r="S142" s="22"/>
+      <c r="T142" s="23"/>
+      <c r="U142" s="23"/>
+      <c r="V142" s="24"/>
       <c r="X142" s="4"/>
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
-      <c r="AD142" s="26"/>
-      <c r="AE142" s="27"/>
-      <c r="AF142" s="27"/>
-      <c r="AG142" s="28"/>
+      <c r="AD142" s="22"/>
+      <c r="AE142" s="23"/>
+      <c r="AF142" s="23"/>
+      <c r="AG142" s="24"/>
     </row>
     <row r="143" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
@@ -6876,30 +6876,30 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="28"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="24"/>
       <c r="M143" s="4"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-      <c r="S143" s="26"/>
-      <c r="T143" s="27"/>
-      <c r="U143" s="27"/>
-      <c r="V143" s="28"/>
+      <c r="S143" s="22"/>
+      <c r="T143" s="23"/>
+      <c r="U143" s="23"/>
+      <c r="V143" s="24"/>
       <c r="X143" s="4"/>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
-      <c r="AD143" s="26"/>
-      <c r="AE143" s="27"/>
-      <c r="AF143" s="27"/>
-      <c r="AG143" s="28"/>
+      <c r="AD143" s="22"/>
+      <c r="AE143" s="23"/>
+      <c r="AF143" s="23"/>
+      <c r="AG143" s="24"/>
     </row>
     <row r="144" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
@@ -6908,30 +6908,30 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="28"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="24"/>
       <c r="M144" s="4"/>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-      <c r="S144" s="26"/>
-      <c r="T144" s="27"/>
-      <c r="U144" s="27"/>
-      <c r="V144" s="28"/>
+      <c r="S144" s="22"/>
+      <c r="T144" s="23"/>
+      <c r="U144" s="23"/>
+      <c r="V144" s="24"/>
       <c r="X144" s="4"/>
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
-      <c r="AD144" s="26"/>
-      <c r="AE144" s="27"/>
-      <c r="AF144" s="27"/>
-      <c r="AG144" s="28"/>
+      <c r="AD144" s="22"/>
+      <c r="AE144" s="23"/>
+      <c r="AF144" s="23"/>
+      <c r="AG144" s="24"/>
     </row>
     <row r="145" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
@@ -6940,30 +6940,30 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="31"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="27"/>
       <c r="M145" s="4"/>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="29"/>
-      <c r="T145" s="30"/>
-      <c r="U145" s="30"/>
-      <c r="V145" s="31"/>
+      <c r="S145" s="25"/>
+      <c r="T145" s="26"/>
+      <c r="U145" s="26"/>
+      <c r="V145" s="27"/>
       <c r="X145" s="4"/>
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
       <c r="AC145" s="6"/>
-      <c r="AD145" s="29"/>
-      <c r="AE145" s="30"/>
-      <c r="AF145" s="30"/>
-      <c r="AG145" s="31"/>
+      <c r="AD145" s="25"/>
+      <c r="AE145" s="26"/>
+      <c r="AF145" s="26"/>
+      <c r="AG145" s="27"/>
     </row>
     <row r="146" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
@@ -6972,36 +6972,36 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="I146" s="24"/>
-      <c r="J146" s="24"/>
-      <c r="K146" s="25"/>
+      <c r="H146" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="21"/>
       <c r="M146" s="4"/>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-      <c r="S146" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T146" s="24"/>
-      <c r="U146" s="24"/>
-      <c r="V146" s="25"/>
+      <c r="S146" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="21"/>
       <c r="X146" s="4"/>
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
-      <c r="AD146" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE146" s="24"/>
-      <c r="AF146" s="24"/>
-      <c r="AG146" s="25"/>
+      <c r="AD146" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE146" s="20"/>
+      <c r="AF146" s="20"/>
+      <c r="AG146" s="21"/>
     </row>
     <row r="147" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
@@ -7010,30 +7010,30 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="28"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="24"/>
       <c r="M147" s="4"/>
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-      <c r="S147" s="26"/>
-      <c r="T147" s="27"/>
-      <c r="U147" s="27"/>
-      <c r="V147" s="28"/>
+      <c r="S147" s="22"/>
+      <c r="T147" s="23"/>
+      <c r="U147" s="23"/>
+      <c r="V147" s="24"/>
       <c r="X147" s="4"/>
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
-      <c r="AD147" s="26"/>
-      <c r="AE147" s="27"/>
-      <c r="AF147" s="27"/>
-      <c r="AG147" s="28"/>
+      <c r="AD147" s="22"/>
+      <c r="AE147" s="23"/>
+      <c r="AF147" s="23"/>
+      <c r="AG147" s="24"/>
     </row>
     <row r="148" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
@@ -7042,30 +7042,30 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="28"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="24"/>
       <c r="M148" s="4"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-      <c r="S148" s="26"/>
-      <c r="T148" s="27"/>
-      <c r="U148" s="27"/>
-      <c r="V148" s="28"/>
+      <c r="S148" s="22"/>
+      <c r="T148" s="23"/>
+      <c r="U148" s="23"/>
+      <c r="V148" s="24"/>
       <c r="X148" s="4"/>
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
-      <c r="AD148" s="26"/>
-      <c r="AE148" s="27"/>
-      <c r="AF148" s="27"/>
-      <c r="AG148" s="28"/>
+      <c r="AD148" s="22"/>
+      <c r="AE148" s="23"/>
+      <c r="AF148" s="23"/>
+      <c r="AG148" s="24"/>
     </row>
     <row r="149" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
@@ -7074,30 +7074,30 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="28"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="24"/>
       <c r="M149" s="4"/>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="26"/>
-      <c r="T149" s="27"/>
-      <c r="U149" s="27"/>
-      <c r="V149" s="28"/>
+      <c r="S149" s="22"/>
+      <c r="T149" s="23"/>
+      <c r="U149" s="23"/>
+      <c r="V149" s="24"/>
       <c r="X149" s="4"/>
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
-      <c r="AD149" s="26"/>
-      <c r="AE149" s="27"/>
-      <c r="AF149" s="27"/>
-      <c r="AG149" s="28"/>
+      <c r="AD149" s="22"/>
+      <c r="AE149" s="23"/>
+      <c r="AF149" s="23"/>
+      <c r="AG149" s="24"/>
     </row>
     <row r="150" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
@@ -7106,30 +7106,30 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="28"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="23"/>
+      <c r="K150" s="24"/>
       <c r="M150" s="4"/>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-      <c r="S150" s="26"/>
-      <c r="T150" s="27"/>
-      <c r="U150" s="27"/>
-      <c r="V150" s="28"/>
+      <c r="S150" s="22"/>
+      <c r="T150" s="23"/>
+      <c r="U150" s="23"/>
+      <c r="V150" s="24"/>
       <c r="X150" s="4"/>
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
-      <c r="AD150" s="26"/>
-      <c r="AE150" s="27"/>
-      <c r="AF150" s="27"/>
-      <c r="AG150" s="28"/>
+      <c r="AD150" s="22"/>
+      <c r="AE150" s="23"/>
+      <c r="AF150" s="23"/>
+      <c r="AG150" s="24"/>
     </row>
     <row r="151" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
@@ -7138,30 +7138,30 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="28"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="23"/>
+      <c r="K151" s="24"/>
       <c r="M151" s="4"/>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-      <c r="S151" s="26"/>
-      <c r="T151" s="27"/>
-      <c r="U151" s="27"/>
-      <c r="V151" s="28"/>
+      <c r="S151" s="22"/>
+      <c r="T151" s="23"/>
+      <c r="U151" s="23"/>
+      <c r="V151" s="24"/>
       <c r="X151" s="4"/>
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
-      <c r="AD151" s="26"/>
-      <c r="AE151" s="27"/>
-      <c r="AF151" s="27"/>
-      <c r="AG151" s="28"/>
+      <c r="AD151" s="22"/>
+      <c r="AE151" s="23"/>
+      <c r="AF151" s="23"/>
+      <c r="AG151" s="24"/>
     </row>
     <row r="152" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
@@ -7170,30 +7170,30 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="28"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="23"/>
+      <c r="K152" s="24"/>
       <c r="M152" s="4"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-      <c r="S152" s="26"/>
-      <c r="T152" s="27"/>
-      <c r="U152" s="27"/>
-      <c r="V152" s="28"/>
+      <c r="S152" s="22"/>
+      <c r="T152" s="23"/>
+      <c r="U152" s="23"/>
+      <c r="V152" s="24"/>
       <c r="X152" s="4"/>
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
-      <c r="AD152" s="26"/>
-      <c r="AE152" s="27"/>
-      <c r="AF152" s="27"/>
-      <c r="AG152" s="28"/>
+      <c r="AD152" s="22"/>
+      <c r="AE152" s="23"/>
+      <c r="AF152" s="23"/>
+      <c r="AG152" s="24"/>
     </row>
     <row r="153" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
@@ -7202,30 +7202,30 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="28"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="24"/>
       <c r="M153" s="4"/>
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-      <c r="S153" s="26"/>
-      <c r="T153" s="27"/>
-      <c r="U153" s="27"/>
-      <c r="V153" s="28"/>
+      <c r="S153" s="22"/>
+      <c r="T153" s="23"/>
+      <c r="U153" s="23"/>
+      <c r="V153" s="24"/>
       <c r="X153" s="4"/>
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
-      <c r="AD153" s="26"/>
-      <c r="AE153" s="27"/>
-      <c r="AF153" s="27"/>
-      <c r="AG153" s="28"/>
+      <c r="AD153" s="22"/>
+      <c r="AE153" s="23"/>
+      <c r="AF153" s="23"/>
+      <c r="AG153" s="24"/>
     </row>
     <row r="154" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
@@ -7234,30 +7234,30 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="27"/>
-      <c r="K154" s="28"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="24"/>
       <c r="M154" s="4"/>
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-      <c r="S154" s="26"/>
-      <c r="T154" s="27"/>
-      <c r="U154" s="27"/>
-      <c r="V154" s="28"/>
+      <c r="S154" s="22"/>
+      <c r="T154" s="23"/>
+      <c r="U154" s="23"/>
+      <c r="V154" s="24"/>
       <c r="X154" s="4"/>
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
-      <c r="AD154" s="26"/>
-      <c r="AE154" s="27"/>
-      <c r="AF154" s="27"/>
-      <c r="AG154" s="28"/>
+      <c r="AD154" s="22"/>
+      <c r="AE154" s="23"/>
+      <c r="AF154" s="23"/>
+      <c r="AG154" s="24"/>
     </row>
     <row r="155" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
@@ -7266,30 +7266,30 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="28"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
+      <c r="K155" s="24"/>
       <c r="M155" s="4"/>
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-      <c r="S155" s="26"/>
-      <c r="T155" s="27"/>
-      <c r="U155" s="27"/>
-      <c r="V155" s="28"/>
+      <c r="S155" s="22"/>
+      <c r="T155" s="23"/>
+      <c r="U155" s="23"/>
+      <c r="V155" s="24"/>
       <c r="X155" s="4"/>
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
-      <c r="AD155" s="26"/>
-      <c r="AE155" s="27"/>
-      <c r="AF155" s="27"/>
-      <c r="AG155" s="28"/>
+      <c r="AD155" s="22"/>
+      <c r="AE155" s="23"/>
+      <c r="AF155" s="23"/>
+      <c r="AG155" s="24"/>
     </row>
     <row r="156" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
@@ -7298,30 +7298,30 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="28"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="24"/>
       <c r="M156" s="4"/>
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-      <c r="S156" s="26"/>
-      <c r="T156" s="27"/>
-      <c r="U156" s="27"/>
-      <c r="V156" s="28"/>
+      <c r="S156" s="22"/>
+      <c r="T156" s="23"/>
+      <c r="U156" s="23"/>
+      <c r="V156" s="24"/>
       <c r="X156" s="4"/>
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
-      <c r="AD156" s="26"/>
-      <c r="AE156" s="27"/>
-      <c r="AF156" s="27"/>
-      <c r="AG156" s="28"/>
+      <c r="AD156" s="22"/>
+      <c r="AE156" s="23"/>
+      <c r="AF156" s="23"/>
+      <c r="AG156" s="24"/>
     </row>
     <row r="157" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
@@ -7330,30 +7330,30 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="28"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="24"/>
       <c r="M157" s="4"/>
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-      <c r="S157" s="26"/>
-      <c r="T157" s="27"/>
-      <c r="U157" s="27"/>
-      <c r="V157" s="28"/>
+      <c r="S157" s="22"/>
+      <c r="T157" s="23"/>
+      <c r="U157" s="23"/>
+      <c r="V157" s="24"/>
       <c r="X157" s="4"/>
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
-      <c r="AD157" s="26"/>
-      <c r="AE157" s="27"/>
-      <c r="AF157" s="27"/>
-      <c r="AG157" s="28"/>
+      <c r="AD157" s="22"/>
+      <c r="AE157" s="23"/>
+      <c r="AF157" s="23"/>
+      <c r="AG157" s="24"/>
     </row>
     <row r="158" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
@@ -7362,30 +7362,30 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="28"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="24"/>
       <c r="M158" s="4"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-      <c r="S158" s="26"/>
-      <c r="T158" s="27"/>
-      <c r="U158" s="27"/>
-      <c r="V158" s="28"/>
+      <c r="S158" s="22"/>
+      <c r="T158" s="23"/>
+      <c r="U158" s="23"/>
+      <c r="V158" s="24"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
-      <c r="AD158" s="26"/>
-      <c r="AE158" s="27"/>
-      <c r="AF158" s="27"/>
-      <c r="AG158" s="28"/>
+      <c r="AD158" s="22"/>
+      <c r="AE158" s="23"/>
+      <c r="AF158" s="23"/>
+      <c r="AG158" s="24"/>
     </row>
     <row r="159" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
@@ -7394,30 +7394,30 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="28"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="23"/>
+      <c r="K159" s="24"/>
       <c r="M159" s="4"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-      <c r="S159" s="26"/>
-      <c r="T159" s="27"/>
-      <c r="U159" s="27"/>
-      <c r="V159" s="28"/>
+      <c r="S159" s="22"/>
+      <c r="T159" s="23"/>
+      <c r="U159" s="23"/>
+      <c r="V159" s="24"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
-      <c r="AD159" s="26"/>
-      <c r="AE159" s="27"/>
-      <c r="AF159" s="27"/>
-      <c r="AG159" s="28"/>
+      <c r="AD159" s="22"/>
+      <c r="AE159" s="23"/>
+      <c r="AF159" s="23"/>
+      <c r="AG159" s="24"/>
     </row>
     <row r="160" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B160" s="18"/>
@@ -7426,178 +7426,178 @@
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="31"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="27"/>
       <c r="M160" s="18"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
-      <c r="S160" s="29"/>
-      <c r="T160" s="30"/>
-      <c r="U160" s="30"/>
-      <c r="V160" s="31"/>
+      <c r="S160" s="25"/>
+      <c r="T160" s="26"/>
+      <c r="U160" s="26"/>
+      <c r="V160" s="27"/>
       <c r="X160" s="18"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
       <c r="AA160" s="7"/>
       <c r="AB160" s="7"/>
       <c r="AC160" s="7"/>
-      <c r="AD160" s="29"/>
-      <c r="AE160" s="30"/>
-      <c r="AF160" s="30"/>
-      <c r="AG160" s="31"/>
+      <c r="AD160" s="25"/>
+      <c r="AE160" s="26"/>
+      <c r="AF160" s="26"/>
+      <c r="AG160" s="27"/>
     </row>
     <row r="161" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="23" t="s">
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I161" s="24"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="33" t="s">
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M161" s="23" t="s">
+      <c r="M161" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N161" s="24"/>
-      <c r="O161" s="24"/>
-      <c r="P161" s="24"/>
-      <c r="Q161" s="24"/>
-      <c r="R161" s="25"/>
-      <c r="S161" s="23" t="s">
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="20"/>
+      <c r="R161" s="21"/>
+      <c r="S161" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T161" s="24"/>
-      <c r="U161" s="25"/>
-      <c r="V161" s="33" t="s">
+      <c r="T161" s="20"/>
+      <c r="U161" s="21"/>
+      <c r="V161" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X161" s="23" t="s">
+      <c r="X161" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y161" s="24"/>
-      <c r="Z161" s="24"/>
-      <c r="AA161" s="24"/>
-      <c r="AB161" s="24"/>
-      <c r="AC161" s="25"/>
-      <c r="AD161" s="23" t="s">
+      <c r="Y161" s="20"/>
+      <c r="Z161" s="20"/>
+      <c r="AA161" s="20"/>
+      <c r="AB161" s="20"/>
+      <c r="AC161" s="21"/>
+      <c r="AD161" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AE161" s="24"/>
-      <c r="AF161" s="25"/>
-      <c r="AG161" s="33" t="s">
+      <c r="AE161" s="20"/>
+      <c r="AF161" s="21"/>
+      <c r="AG161" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="162" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B162" s="26"/>
-      <c r="C162" s="27"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="26"/>
-      <c r="I162" s="32"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="34"/>
-      <c r="M162" s="26"/>
-      <c r="N162" s="27"/>
-      <c r="O162" s="27"/>
-      <c r="P162" s="27"/>
-      <c r="Q162" s="27"/>
-      <c r="R162" s="28"/>
-      <c r="S162" s="26"/>
-      <c r="T162" s="32"/>
-      <c r="U162" s="28"/>
-      <c r="V162" s="34"/>
-      <c r="X162" s="26"/>
-      <c r="Y162" s="27"/>
-      <c r="Z162" s="27"/>
-      <c r="AA162" s="27"/>
-      <c r="AB162" s="27"/>
-      <c r="AC162" s="28"/>
-      <c r="AD162" s="26"/>
-      <c r="AE162" s="32"/>
-      <c r="AF162" s="28"/>
-      <c r="AG162" s="34"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="29"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="31"/>
+      <c r="M162" s="22"/>
+      <c r="N162" s="23"/>
+      <c r="O162" s="23"/>
+      <c r="P162" s="23"/>
+      <c r="Q162" s="23"/>
+      <c r="R162" s="24"/>
+      <c r="S162" s="22"/>
+      <c r="T162" s="29"/>
+      <c r="U162" s="24"/>
+      <c r="V162" s="31"/>
+      <c r="X162" s="22"/>
+      <c r="Y162" s="23"/>
+      <c r="Z162" s="23"/>
+      <c r="AA162" s="23"/>
+      <c r="AB162" s="23"/>
+      <c r="AC162" s="24"/>
+      <c r="AD162" s="22"/>
+      <c r="AE162" s="29"/>
+      <c r="AF162" s="24"/>
+      <c r="AG162" s="31"/>
     </row>
     <row r="163" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B163" s="29"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="30"/>
-      <c r="J163" s="31"/>
-      <c r="K163" s="35"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="30"/>
-      <c r="O163" s="30"/>
-      <c r="P163" s="30"/>
-      <c r="Q163" s="30"/>
-      <c r="R163" s="31"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="30"/>
-      <c r="U163" s="31"/>
-      <c r="V163" s="35"/>
-      <c r="X163" s="29"/>
-      <c r="Y163" s="30"/>
-      <c r="Z163" s="30"/>
-      <c r="AA163" s="30"/>
-      <c r="AB163" s="30"/>
-      <c r="AC163" s="31"/>
-      <c r="AD163" s="29"/>
-      <c r="AE163" s="30"/>
-      <c r="AF163" s="31"/>
-      <c r="AG163" s="35"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="32"/>
+      <c r="M163" s="25"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="26"/>
+      <c r="P163" s="26"/>
+      <c r="Q163" s="26"/>
+      <c r="R163" s="27"/>
+      <c r="S163" s="25"/>
+      <c r="T163" s="26"/>
+      <c r="U163" s="27"/>
+      <c r="V163" s="32"/>
+      <c r="X163" s="25"/>
+      <c r="Y163" s="26"/>
+      <c r="Z163" s="26"/>
+      <c r="AA163" s="26"/>
+      <c r="AB163" s="26"/>
+      <c r="AC163" s="27"/>
+      <c r="AD163" s="25"/>
+      <c r="AE163" s="26"/>
+      <c r="AF163" s="27"/>
+      <c r="AG163" s="32"/>
     </row>
     <row r="169" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B169" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C169" s="59"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="22" t="s">
+      <c r="B169" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I169" s="21"/>
-      <c r="J169" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K169" s="21"/>
-      <c r="M169" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="N169" s="59"/>
-      <c r="O169" s="59"/>
-      <c r="P169" s="59"/>
-      <c r="Q169" s="59"/>
-      <c r="R169" s="37"/>
-      <c r="S169" s="22" t="s">
+      <c r="I169" s="37"/>
+      <c r="J169" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K169" s="37"/>
+      <c r="M169" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="N169" s="34"/>
+      <c r="O169" s="34"/>
+      <c r="P169" s="34"/>
+      <c r="Q169" s="34"/>
+      <c r="R169" s="35"/>
+      <c r="S169" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="T169" s="21"/>
-      <c r="U169" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="V169" s="21"/>
+      <c r="T169" s="37"/>
+      <c r="U169" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="V169" s="37"/>
     </row>
     <row r="170" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
@@ -7606,28 +7606,28 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I170" s="21"/>
-      <c r="J170" s="22" t="s">
+      <c r="H170" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I170" s="37"/>
+      <c r="J170" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K170" s="21"/>
+      <c r="K170" s="37"/>
       <c r="M170" s="1"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
-      <c r="S170" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="T170" s="21"/>
-      <c r="U170" s="22" t="s">
+      <c r="S170" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T170" s="37"/>
+      <c r="U170" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V170" s="21"/>
+      <c r="V170" s="37"/>
     </row>
     <row r="171" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
@@ -7636,24 +7636,24 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
-      <c r="H171" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="25"/>
+      <c r="H171" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="21"/>
       <c r="M171" s="4"/>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-      <c r="S171" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="T171" s="24"/>
-      <c r="U171" s="24"/>
-      <c r="V171" s="25"/>
+      <c r="S171" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="21"/>
     </row>
     <row r="172" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
@@ -7662,20 +7662,20 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="28"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="23"/>
+      <c r="J172" s="23"/>
+      <c r="K172" s="24"/>
       <c r="M172" s="4"/>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-      <c r="S172" s="26"/>
-      <c r="T172" s="27"/>
-      <c r="U172" s="27"/>
-      <c r="V172" s="28"/>
+      <c r="S172" s="22"/>
+      <c r="T172" s="23"/>
+      <c r="U172" s="23"/>
+      <c r="V172" s="24"/>
     </row>
     <row r="173" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
@@ -7684,20 +7684,20 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="28"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="23"/>
+      <c r="J173" s="23"/>
+      <c r="K173" s="24"/>
       <c r="M173" s="4"/>
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-      <c r="S173" s="26"/>
-      <c r="T173" s="27"/>
-      <c r="U173" s="27"/>
-      <c r="V173" s="28"/>
+      <c r="S173" s="22"/>
+      <c r="T173" s="23"/>
+      <c r="U173" s="23"/>
+      <c r="V173" s="24"/>
     </row>
     <row r="174" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
@@ -7706,20 +7706,20 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="28"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="23"/>
+      <c r="J174" s="23"/>
+      <c r="K174" s="24"/>
       <c r="M174" s="4"/>
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-      <c r="S174" s="26"/>
-      <c r="T174" s="27"/>
-      <c r="U174" s="27"/>
-      <c r="V174" s="28"/>
+      <c r="S174" s="22"/>
+      <c r="T174" s="23"/>
+      <c r="U174" s="23"/>
+      <c r="V174" s="24"/>
     </row>
     <row r="175" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
@@ -7728,20 +7728,20 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="27"/>
-      <c r="K175" s="28"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="23"/>
+      <c r="K175" s="24"/>
       <c r="M175" s="4"/>
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-      <c r="S175" s="26"/>
-      <c r="T175" s="27"/>
-      <c r="U175" s="27"/>
-      <c r="V175" s="28"/>
+      <c r="S175" s="22"/>
+      <c r="T175" s="23"/>
+      <c r="U175" s="23"/>
+      <c r="V175" s="24"/>
     </row>
     <row r="176" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
@@ -7750,20 +7750,20 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="28"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="23"/>
+      <c r="J176" s="23"/>
+      <c r="K176" s="24"/>
       <c r="M176" s="4"/>
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-      <c r="S176" s="26"/>
-      <c r="T176" s="27"/>
-      <c r="U176" s="27"/>
-      <c r="V176" s="28"/>
+      <c r="S176" s="22"/>
+      <c r="T176" s="23"/>
+      <c r="U176" s="23"/>
+      <c r="V176" s="24"/>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
@@ -7772,20 +7772,20 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="28"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="23"/>
+      <c r="J177" s="23"/>
+      <c r="K177" s="24"/>
       <c r="M177" s="4"/>
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-      <c r="S177" s="26"/>
-      <c r="T177" s="27"/>
-      <c r="U177" s="27"/>
-      <c r="V177" s="28"/>
+      <c r="S177" s="22"/>
+      <c r="T177" s="23"/>
+      <c r="U177" s="23"/>
+      <c r="V177" s="24"/>
     </row>
     <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
@@ -7794,20 +7794,20 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="30"/>
-      <c r="J178" s="30"/>
-      <c r="K178" s="31"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="27"/>
       <c r="M178" s="4"/>
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="6"/>
-      <c r="S178" s="29"/>
-      <c r="T178" s="30"/>
-      <c r="U178" s="30"/>
-      <c r="V178" s="31"/>
+      <c r="S178" s="25"/>
+      <c r="T178" s="26"/>
+      <c r="U178" s="26"/>
+      <c r="V178" s="27"/>
     </row>
     <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
@@ -7816,24 +7816,24 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
-      <c r="H179" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="25"/>
+      <c r="H179" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="21"/>
       <c r="M179" s="4"/>
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-      <c r="S179" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="T179" s="24"/>
-      <c r="U179" s="24"/>
-      <c r="V179" s="25"/>
+      <c r="S179" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="21"/>
     </row>
     <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
@@ -7842,20 +7842,20 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="28"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="23"/>
+      <c r="K180" s="24"/>
       <c r="M180" s="4"/>
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-      <c r="S180" s="26"/>
-      <c r="T180" s="27"/>
-      <c r="U180" s="27"/>
-      <c r="V180" s="28"/>
+      <c r="S180" s="22"/>
+      <c r="T180" s="23"/>
+      <c r="U180" s="23"/>
+      <c r="V180" s="24"/>
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
@@ -7864,20 +7864,20 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
-      <c r="H181" s="26"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="28"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="24"/>
       <c r="M181" s="4"/>
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-      <c r="S181" s="26"/>
-      <c r="T181" s="27"/>
-      <c r="U181" s="27"/>
-      <c r="V181" s="28"/>
+      <c r="S181" s="22"/>
+      <c r="T181" s="23"/>
+      <c r="U181" s="23"/>
+      <c r="V181" s="24"/>
     </row>
     <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
@@ -7886,20 +7886,20 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="28"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="23"/>
+      <c r="K182" s="24"/>
       <c r="M182" s="4"/>
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-      <c r="S182" s="26"/>
-      <c r="T182" s="27"/>
-      <c r="U182" s="27"/>
-      <c r="V182" s="28"/>
+      <c r="S182" s="22"/>
+      <c r="T182" s="23"/>
+      <c r="U182" s="23"/>
+      <c r="V182" s="24"/>
     </row>
     <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
@@ -7908,20 +7908,20 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="28"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="23"/>
+      <c r="J183" s="23"/>
+      <c r="K183" s="24"/>
       <c r="M183" s="4"/>
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-      <c r="S183" s="26"/>
-      <c r="T183" s="27"/>
-      <c r="U183" s="27"/>
-      <c r="V183" s="28"/>
+      <c r="S183" s="22"/>
+      <c r="T183" s="23"/>
+      <c r="U183" s="23"/>
+      <c r="V183" s="24"/>
     </row>
     <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
@@ -7930,20 +7930,20 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="28"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="24"/>
       <c r="M184" s="4"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="26"/>
-      <c r="T184" s="27"/>
-      <c r="U184" s="27"/>
-      <c r="V184" s="28"/>
+      <c r="S184" s="22"/>
+      <c r="T184" s="23"/>
+      <c r="U184" s="23"/>
+      <c r="V184" s="24"/>
     </row>
     <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
@@ -7952,20 +7952,20 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="28"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="23"/>
+      <c r="K185" s="24"/>
       <c r="M185" s="4"/>
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-      <c r="S185" s="26"/>
-      <c r="T185" s="27"/>
-      <c r="U185" s="27"/>
-      <c r="V185" s="28"/>
+      <c r="S185" s="22"/>
+      <c r="T185" s="23"/>
+      <c r="U185" s="23"/>
+      <c r="V185" s="24"/>
     </row>
     <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
@@ -7974,20 +7974,20 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="28"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="24"/>
       <c r="M186" s="4"/>
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-      <c r="S186" s="26"/>
-      <c r="T186" s="27"/>
-      <c r="U186" s="27"/>
-      <c r="V186" s="28"/>
+      <c r="S186" s="22"/>
+      <c r="T186" s="23"/>
+      <c r="U186" s="23"/>
+      <c r="V186" s="24"/>
     </row>
     <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
@@ -7996,20 +7996,20 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="28"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="23"/>
+      <c r="K187" s="24"/>
       <c r="M187" s="4"/>
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-      <c r="S187" s="26"/>
-      <c r="T187" s="27"/>
-      <c r="U187" s="27"/>
-      <c r="V187" s="28"/>
+      <c r="S187" s="22"/>
+      <c r="T187" s="23"/>
+      <c r="U187" s="23"/>
+      <c r="V187" s="24"/>
     </row>
     <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
@@ -8018,20 +8018,20 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="28"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="23"/>
+      <c r="J188" s="23"/>
+      <c r="K188" s="24"/>
       <c r="M188" s="4"/>
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-      <c r="S188" s="26"/>
-      <c r="T188" s="27"/>
-      <c r="U188" s="27"/>
-      <c r="V188" s="28"/>
+      <c r="S188" s="22"/>
+      <c r="T188" s="23"/>
+      <c r="U188" s="23"/>
+      <c r="V188" s="24"/>
     </row>
     <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
@@ -8040,20 +8040,20 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
-      <c r="H189" s="26"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="28"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="23"/>
+      <c r="J189" s="23"/>
+      <c r="K189" s="24"/>
       <c r="M189" s="4"/>
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-      <c r="S189" s="26"/>
-      <c r="T189" s="27"/>
-      <c r="U189" s="27"/>
-      <c r="V189" s="28"/>
+      <c r="S189" s="22"/>
+      <c r="T189" s="23"/>
+      <c r="U189" s="23"/>
+      <c r="V189" s="24"/>
     </row>
     <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
@@ -8062,20 +8062,20 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
-      <c r="H190" s="26"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="28"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="24"/>
       <c r="M190" s="4"/>
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-      <c r="S190" s="26"/>
-      <c r="T190" s="27"/>
-      <c r="U190" s="27"/>
-      <c r="V190" s="28"/>
+      <c r="S190" s="22"/>
+      <c r="T190" s="23"/>
+      <c r="U190" s="23"/>
+      <c r="V190" s="24"/>
     </row>
     <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
@@ -8084,20 +8084,20 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="26"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="28"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="23"/>
+      <c r="J191" s="23"/>
+      <c r="K191" s="24"/>
       <c r="M191" s="4"/>
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-      <c r="S191" s="26"/>
-      <c r="T191" s="27"/>
-      <c r="U191" s="27"/>
-      <c r="V191" s="28"/>
+      <c r="S191" s="22"/>
+      <c r="T191" s="23"/>
+      <c r="U191" s="23"/>
+      <c r="V191" s="24"/>
     </row>
     <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
@@ -8106,20 +8106,20 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
-      <c r="H192" s="26"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="27"/>
-      <c r="K192" s="28"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="23"/>
+      <c r="J192" s="23"/>
+      <c r="K192" s="24"/>
       <c r="M192" s="4"/>
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-      <c r="S192" s="26"/>
-      <c r="T192" s="27"/>
-      <c r="U192" s="27"/>
-      <c r="V192" s="28"/>
+      <c r="S192" s="22"/>
+      <c r="T192" s="23"/>
+      <c r="U192" s="23"/>
+      <c r="V192" s="24"/>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="18"/>
@@ -8128,223 +8128,125 @@
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="29"/>
-      <c r="I193" s="30"/>
-      <c r="J193" s="30"/>
-      <c r="K193" s="31"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="26"/>
+      <c r="J193" s="26"/>
+      <c r="K193" s="27"/>
       <c r="M193" s="18"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7"/>
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
       <c r="R193" s="7"/>
-      <c r="S193" s="29"/>
-      <c r="T193" s="30"/>
-      <c r="U193" s="30"/>
-      <c r="V193" s="31"/>
+      <c r="S193" s="25"/>
+      <c r="T193" s="26"/>
+      <c r="U193" s="26"/>
+      <c r="V193" s="27"/>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="23" t="s">
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I194" s="24"/>
-      <c r="J194" s="25"/>
-      <c r="K194" s="33" t="s">
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
+      <c r="K194" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M194" s="23" t="s">
+      <c r="M194" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N194" s="24"/>
-      <c r="O194" s="24"/>
-      <c r="P194" s="24"/>
-      <c r="Q194" s="24"/>
-      <c r="R194" s="25"/>
-      <c r="S194" s="23" t="s">
+      <c r="N194" s="20"/>
+      <c r="O194" s="20"/>
+      <c r="P194" s="20"/>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="21"/>
+      <c r="S194" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T194" s="24"/>
-      <c r="U194" s="25"/>
-      <c r="V194" s="33" t="s">
+      <c r="T194" s="20"/>
+      <c r="U194" s="21"/>
+      <c r="V194" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B195" s="26"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="32"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="34"/>
-      <c r="M195" s="26"/>
-      <c r="N195" s="27"/>
-      <c r="O195" s="27"/>
-      <c r="P195" s="27"/>
-      <c r="Q195" s="27"/>
-      <c r="R195" s="28"/>
-      <c r="S195" s="26"/>
-      <c r="T195" s="32"/>
-      <c r="U195" s="28"/>
-      <c r="V195" s="34"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="22"/>
+      <c r="I195" s="29"/>
+      <c r="J195" s="24"/>
+      <c r="K195" s="31"/>
+      <c r="M195" s="22"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="24"/>
+      <c r="S195" s="22"/>
+      <c r="T195" s="29"/>
+      <c r="U195" s="24"/>
+      <c r="V195" s="31"/>
     </row>
     <row r="196" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B196" s="29"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="30"/>
-      <c r="F196" s="30"/>
-      <c r="G196" s="31"/>
-      <c r="H196" s="29"/>
-      <c r="I196" s="30"/>
-      <c r="J196" s="31"/>
-      <c r="K196" s="35"/>
-      <c r="M196" s="29"/>
-      <c r="N196" s="30"/>
-      <c r="O196" s="30"/>
-      <c r="P196" s="30"/>
-      <c r="Q196" s="30"/>
-      <c r="R196" s="31"/>
-      <c r="S196" s="29"/>
-      <c r="T196" s="30"/>
-      <c r="U196" s="31"/>
-      <c r="V196" s="35"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="27"/>
+      <c r="K196" s="32"/>
+      <c r="M196" s="25"/>
+      <c r="N196" s="26"/>
+      <c r="O196" s="26"/>
+      <c r="P196" s="26"/>
+      <c r="Q196" s="26"/>
+      <c r="R196" s="27"/>
+      <c r="S196" s="25"/>
+      <c r="T196" s="26"/>
+      <c r="U196" s="27"/>
+      <c r="V196" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="S171:V178"/>
-    <mergeCell ref="S179:V193"/>
-    <mergeCell ref="M194:R196"/>
-    <mergeCell ref="S194:U196"/>
-    <mergeCell ref="V194:V196"/>
-    <mergeCell ref="M169:R169"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="U169:V169"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="U170:V170"/>
-    <mergeCell ref="H171:K178"/>
-    <mergeCell ref="H179:K193"/>
-    <mergeCell ref="B194:G196"/>
-    <mergeCell ref="H194:J196"/>
-    <mergeCell ref="K194:K196"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="AD138:AG145"/>
-    <mergeCell ref="AD146:AG160"/>
-    <mergeCell ref="X161:AC163"/>
-    <mergeCell ref="AD161:AF163"/>
-    <mergeCell ref="AG161:AG163"/>
-    <mergeCell ref="X136:AC136"/>
-    <mergeCell ref="AD136:AE136"/>
-    <mergeCell ref="AF136:AG136"/>
-    <mergeCell ref="AD137:AE137"/>
-    <mergeCell ref="AF137:AG137"/>
-    <mergeCell ref="B161:G163"/>
-    <mergeCell ref="H161:J163"/>
-    <mergeCell ref="K161:K163"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="M136:R136"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="S138:V145"/>
-    <mergeCell ref="S146:V160"/>
-    <mergeCell ref="M161:R163"/>
-    <mergeCell ref="S161:U163"/>
-    <mergeCell ref="V161:V163"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="H138:K145"/>
-    <mergeCell ref="H146:K160"/>
-    <mergeCell ref="AB103:AC103"/>
-    <mergeCell ref="AD103:AE103"/>
-    <mergeCell ref="AB104:AE111"/>
-    <mergeCell ref="AB112:AE126"/>
-    <mergeCell ref="V127:AA129"/>
-    <mergeCell ref="AB127:AD129"/>
-    <mergeCell ref="AE127:AE129"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="AD102:AE102"/>
-    <mergeCell ref="V102:AA102"/>
-    <mergeCell ref="Q104:T111"/>
-    <mergeCell ref="Q112:T126"/>
-    <mergeCell ref="L127:P129"/>
-    <mergeCell ref="Q127:S129"/>
-    <mergeCell ref="T127:T129"/>
-    <mergeCell ref="L102:P102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="G104:J111"/>
-    <mergeCell ref="G112:J126"/>
-    <mergeCell ref="B127:F129"/>
-    <mergeCell ref="G127:I129"/>
-    <mergeCell ref="J127:J129"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="AA71:AD78"/>
-    <mergeCell ref="AA79:AD93"/>
-    <mergeCell ref="V94:Z96"/>
-    <mergeCell ref="AA94:AC96"/>
-    <mergeCell ref="AD94:AD96"/>
-    <mergeCell ref="V69:Z69"/>
-    <mergeCell ref="AA69:AB69"/>
-    <mergeCell ref="AC69:AD69"/>
-    <mergeCell ref="AA70:AB70"/>
-    <mergeCell ref="AC70:AD70"/>
-    <mergeCell ref="Q71:T78"/>
-    <mergeCell ref="Q79:T93"/>
-    <mergeCell ref="L94:P96"/>
-    <mergeCell ref="Q94:S96"/>
-    <mergeCell ref="T94:T96"/>
-    <mergeCell ref="L69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="G71:J78"/>
-    <mergeCell ref="G79:J93"/>
-    <mergeCell ref="B94:F96"/>
-    <mergeCell ref="G94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="Q13:T27"/>
-    <mergeCell ref="AA13:AD27"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="AA28:AC30"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="V28:Z30"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="L28:P30"/>
-    <mergeCell ref="Q28:S30"/>
-    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B61:F63"/>
+    <mergeCell ref="G61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:S63"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="V36:Z36"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B28:F30"/>
@@ -8369,30 +8271,128 @@
     <mergeCell ref="Q5:T12"/>
     <mergeCell ref="AA5:AD12"/>
     <mergeCell ref="G13:J27"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B61:F63"/>
-    <mergeCell ref="G61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:S63"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="Q13:T27"/>
+    <mergeCell ref="AA13:AD27"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="AA28:AC30"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="V28:Z30"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L28:P30"/>
+    <mergeCell ref="Q28:S30"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="G71:J78"/>
+    <mergeCell ref="G79:J93"/>
+    <mergeCell ref="B94:F96"/>
+    <mergeCell ref="G94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="Q71:T78"/>
+    <mergeCell ref="Q79:T93"/>
+    <mergeCell ref="L94:P96"/>
+    <mergeCell ref="Q94:S96"/>
+    <mergeCell ref="T94:T96"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="AA71:AD78"/>
+    <mergeCell ref="AA79:AD93"/>
+    <mergeCell ref="V94:Z96"/>
+    <mergeCell ref="AA94:AC96"/>
+    <mergeCell ref="AD94:AD96"/>
+    <mergeCell ref="V69:Z69"/>
+    <mergeCell ref="AA69:AB69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="AA70:AB70"/>
+    <mergeCell ref="AC70:AD70"/>
+    <mergeCell ref="G104:J111"/>
+    <mergeCell ref="G112:J126"/>
+    <mergeCell ref="B127:F129"/>
+    <mergeCell ref="G127:I129"/>
+    <mergeCell ref="J127:J129"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="Q104:T111"/>
+    <mergeCell ref="Q112:T126"/>
+    <mergeCell ref="L127:P129"/>
+    <mergeCell ref="Q127:S129"/>
+    <mergeCell ref="T127:T129"/>
+    <mergeCell ref="L102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="AB103:AC103"/>
+    <mergeCell ref="AD103:AE103"/>
+    <mergeCell ref="AB104:AE111"/>
+    <mergeCell ref="AB112:AE126"/>
+    <mergeCell ref="V127:AA129"/>
+    <mergeCell ref="AB127:AD129"/>
+    <mergeCell ref="AE127:AE129"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="AD102:AE102"/>
+    <mergeCell ref="V102:AA102"/>
+    <mergeCell ref="B161:G163"/>
+    <mergeCell ref="H161:J163"/>
+    <mergeCell ref="K161:K163"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="M136:R136"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="S138:V145"/>
+    <mergeCell ref="S146:V160"/>
+    <mergeCell ref="M161:R163"/>
+    <mergeCell ref="S161:U163"/>
+    <mergeCell ref="V161:V163"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="H138:K145"/>
+    <mergeCell ref="H146:K160"/>
+    <mergeCell ref="AD138:AG145"/>
+    <mergeCell ref="AD146:AG160"/>
+    <mergeCell ref="X161:AC163"/>
+    <mergeCell ref="AD161:AF163"/>
+    <mergeCell ref="AG161:AG163"/>
+    <mergeCell ref="X136:AC136"/>
+    <mergeCell ref="AD136:AE136"/>
+    <mergeCell ref="AF136:AG136"/>
+    <mergeCell ref="AD137:AE137"/>
+    <mergeCell ref="AF137:AG137"/>
+    <mergeCell ref="H171:K178"/>
+    <mergeCell ref="H179:K193"/>
+    <mergeCell ref="B194:G196"/>
+    <mergeCell ref="H194:J196"/>
+    <mergeCell ref="K194:K196"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="S171:V178"/>
+    <mergeCell ref="S179:V193"/>
+    <mergeCell ref="M194:R196"/>
+    <mergeCell ref="S194:U196"/>
+    <mergeCell ref="V194:V196"/>
+    <mergeCell ref="M169:R169"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="U169:V169"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="U170:V170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Diagramas/Casos de usos/Fichas Casos de usos editado .xlsx
+++ b/Diagramas/Casos de usos/Fichas Casos de usos editado .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\2061250_IdHand\Diagramas\Casos de usos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\IdHand\Diagramas\Casos de usos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -338,8 +338,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación:  </t>
+    <t>HU3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso: </t>
     </r>
     <r>
       <rPr>
@@ -349,7 +352,94 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dado que quiero iniciar sección, el sistema debe contar con los cambos de ingresar correo y contraseña, y debe tener un botón de "iniciar sesión" que valide la información ingresada en el registro, y me permita ingresar. La aplicación también debe contar con un botón para solicitar recuperar contraseña, en caso de que esta sea olvidada. Cuando le dé en el botón de iniciar sesión y se valide la información el sistema debe abrir una pantalla principal con las funcionalidades del usuario.</t>
+      <t>Ingresar información</t>
+    </r>
+  </si>
+  <si>
+    <t>HU4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero modificar mi información la aplicación debe tener un botón que nos permita editar la información y que está también se modifique en la base de datos.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar código QR</t>
+    </r>
+  </si>
+  <si>
+    <t>HU6</t>
+  </si>
+  <si>
+    <t>HU7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Restablecer contraseña</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El usuario puede restablecer la contraseña en caso de que sea olvidada.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero restablecer mi contraseña al presionar un botón el sistema debe enviarme a una pantalla que me solicite mi correo registrado y que me aparezca un campo para colocarlo y un botón para enviarlo y en este correo se me envíe la restauración de la contraseña para poder cambiarla dirigiéndome a otra pantalla con un formulario para ingresar la nueva contraseña, confirmarla la contraseña y un botón para confirmar el cambio.</t>
     </r>
     <r>
       <rPr>
@@ -365,11 +455,14 @@
     </r>
   </si>
   <si>
-    <t>HU3</t>
+    <t xml:space="preserve">Depende de: </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso: </t>
+    <t>HU8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso:</t>
     </r>
     <r>
       <rPr>
@@ -379,15 +472,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ingresar información</t>
+      <t xml:space="preserve"> Ingresar a pantalla de inicio</t>
     </r>
   </si>
   <si>
-    <t>HU4</t>
+    <t>HU9</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Criterio de aceptación: </t>
+      <t xml:space="preserve"> Caso de uso:</t>
     </r>
     <r>
       <rPr>
@@ -397,15 +490,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dado que quiero modificar mi información la aplicación debe tener un botón que nos permita editar la información y que está también se modifique en la base de datos.</t>
+      <t xml:space="preserve"> Eliminar información</t>
     </r>
   </si>
   <si>
-    <t>HU5</t>
+    <t>HU11</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso: </t>
+    <t>HU10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso:</t>
     </r>
     <r>
       <rPr>
@@ -415,18 +511,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Generar código QR</t>
+      <t xml:space="preserve">  Cerrar sesión</t>
     </r>
   </si>
   <si>
-    <t>HU6</t>
-  </si>
-  <si>
-    <t>HU7</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso:  </t>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
     </r>
     <r>
       <rPr>
@@ -436,12 +526,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Restablecer contraseña</t>
+      <t>El administrador debe gestionar la información del usuario, para arreglar los problemas que puedan existir.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Descripción: </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actor:</t>
     </r>
     <r>
       <rPr>
@@ -451,12 +549,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> El usuario puede restablecer la contraseña en caso de que sea olvidada.</t>
+      <t xml:space="preserve"> Administrador  </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación:  </t>
+    <t>HU12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caso de uso: </t>
     </r>
     <r>
       <rPr>
@@ -466,7 +567,543 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dado que quiero restablecer mi contraseña al presionar un botón el sistema debe enviarme a una pantalla que me solicite mi correo registrado y que me aparezca un campo para colocarlo y un botón para enviarlo y en este correo se me envíe la restauración de la contraseña para poder cambiarla dirigiéndome a otra pantalla con un formulario para ingresar la nueva contraseña, confirmarla la contraseña y un botón para confirmar el cambio.</t>
+      <t xml:space="preserve"> Gestionar usuario</t>
+    </r>
+  </si>
+  <si>
+    <t>HU13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Iniciar sesión</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El sistema debe permitirle al administrador iniciar sesión con su correo y contraseña para gestionar el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Crear administrador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El administrador debe tener el poder para crear otros administradores.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero crear otros administradores, la aplicación web debe tener la opción de agregar más administradores, registrándolo yo mismo, con el nombre, correo y contraseña y confirmar contraseña.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar usuario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero consultar la información, la aplicación web debe tener la opción que me permita consultarlos.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cerrar sesión</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El administrador debe poder cerrar sesión, después de ingresar a su perfil.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero cerrar sección la aplicación web debe tener un botón que me permita volver a la pantalla de inicio.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recuperar contraseña del administrador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Descripción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El administrador puede restablecer la contraseña en caso de que sea olvidada.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Criterio de aceptación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dado que quiero restablecer mi contraseña al presionar un botón el sistema debe enviarme a una pantalla que me solicite mi correo registrado y que me aparezca un campo para colocarlo y un botón para enviarlo y en este correo se me envíe la restauración de la contraseña para poder cambiarla dirigiéndome a otra pantalla con un formulario para ingresar la nueva contraseña, confirmarla la contraseña y un botón para confirmar el cambio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se debe ingresar información requerida como número de documento, nombre completo, RH, Alguna alergia, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco ; para generar un código QR.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero ingresar mi información, los datos de ingresar mi nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco, se deben mostrar en un formulario, y también debe tener un botón para registrar información.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se debe permitir modificar la información; nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se debe permitir contener la información (nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco) ingresada por el usuario en el código QR para que se pueda visualizar mediante un lector de código QR.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Al momento de presionar un botón se debe escuchar el audio grabado y subido por el usuario a la tarjeta Micro SD, que contenga la información de: nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grabar audio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dado que quiero gestionar el sistema, este me debe permitir ver una lista con los usuarios registrados, y debe mostrar botones de las siguientes opciones:                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crear:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El administrador abre un formulario con los datos del usuario y podrá insertar otra información a la base de datos.                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modificar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El administrador abre un registro y presiona el botón de modificar, El administrador podrá modificar uno o más campos, presionar el botón guardar y este se debe modificar en la base de datos.                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eliminar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El administrador abre un registro y selecciona la opción de eliminar, el sistema muestra un mensaje de confirmación, el administrador lo acepta y el sistema debe eliminar el registro de la base de datos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero ingresar con un perfil de administrador, el sistema debe contar con una tabla en la base de datos, que contenga la información de correo y contraseña del administrador. El sitio web también debe contar con un botón para ingresar y otro para solicitar recuperar contraseña, en caso de que esta sea olvidada. Cuando le dé en el botón de iniciar sesión y se valide la información el sistema abre una pantalla principal con las funcionalidades del administrador. Adicionalmente la interfaz va a tener información comercial de la pulsera, mostrando un botón donde me dirija a la información del proyecto, y otro botón para acceder a la información de contacto.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El administrador puede consultar los datos (nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia con parentesco) en el sitio web.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Criterio de aceptación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dado que quiero seleccionar la alergia o la enfermedad en el formulario, la aplicación móvil debe contar con una lista de despliegue donde aparezcan el tipo de padecimiento (enfermedad o alergia) y el nombre del padecimiento.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modificar información</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Seleccionar padecimiento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Caso de uso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iniciar sesión</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Criterio de aceptación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Dado que quiero subir un audio con información, la aplicación debe tener una sesión para grabar el audio y descargarlo, y que este se almacene en la base de datos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Descripción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El usuario puede seleccionar el padecimiento que tiene, y añadir varios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Criterio de aceptación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dado que quiero cerrar la sesión la aplicación móvil debe tener un botón que permita hacerlo y volver a la pantalla de inicio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criterio de aceptación:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que quiero iniciar sección, el sistema debe contar con los campos de ingresar correo y contraseña, y debe tener un botón de "iniciar sesión" que valide la información ingresada en el registro, y me permita ingresar. La aplicación también debe contar con un botón para solicitar recuperar contraseña, en caso de que esta sea olvidada. Cuando le dé en el botón de iniciar sesión y se valide la información el sistema debe abrir una pantalla principal con las funcionalidades del usuario.</t>
     </r>
     <r>
       <rPr>
@@ -482,14 +1119,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Depende de: </t>
-  </si>
-  <si>
-    <t>HU8</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso:</t>
+    <r>
+      <t>Descripción:</t>
     </r>
     <r>
       <rPr>
@@ -499,7 +1130,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Ingresar a pantalla de inicio</t>
+      <t xml:space="preserve"> Al  momento de abrir la aplicación móvil debe aparecer una pantalla de inicio que permita acceder a las opciones de registrar, iniciar sesión, leer código QR.</t>
     </r>
   </si>
   <si>
@@ -514,7 +1145,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Al  momento de abrir la aplicación movil debe aparecer una pantalla de inicio que permita acceder a las opciones de registrar, iniciar sesión, leer código QR.</t>
+      <t xml:space="preserve"> Se debe tener la opción de eliminar la información del usuario en la aplicación móvil.</t>
     </r>
   </si>
   <si>
@@ -529,15 +1160,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Dado que quiero ingresar a una pantalla de inicio, la aplicación debe contar con botones con la opción de registrarse, iniciar sesion y lector de codigo QR, y que estos me dirijan a su pantalla correspondiente.</t>
+      <t xml:space="preserve"> Dado que quiero ingresar a una pantalla de inicio, la aplicación debe contar con botones con la opción de registrarse, iniciar sesión y lector de código QR, y que estos me dirijan a su pantalla correspondiente.</t>
     </r>
   </si>
   <si>
-    <t>HU9</t>
-  </si>
-  <si>
-    <r>
-      <t>Descripción:</t>
+    <r>
+      <t>Criterio de aceptación:</t>
     </r>
     <r>
       <rPr>
@@ -547,12 +1175,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Se debe tener la opción de eliminar la información del usuaro en la aplicación movil.</t>
+      <t xml:space="preserve"> Dado que quiero eliminar la información ingresada, la aplicación debe tener un botón que al presionarlo permita al sistema desactivar la información de la base de datos.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Criterio de aceptación:</t>
+      <t>Descripción:</t>
     </r>
     <r>
       <rPr>
@@ -562,392 +1190,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Dado que quiero eliminar la información ingresada, la aplicación debe tener un boton que al presionarlo permit al sistema desactivar la información de la base de datos.</t>
+      <t xml:space="preserve">  El usuario debe poder cerrar la sesión, después de ingresar a su perfil.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> Caso de uso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Eliminar información</t>
-    </r>
-  </si>
-  <si>
-    <t>HU11</t>
-  </si>
-  <si>
-    <t>HU10</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Cerrar sesión</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Descripción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  El usuario debe poder cerrar la sesión, despues de ingresar a su perfil.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Criterio de aceptación:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Dado que quiero cerrar la sesión la aplicación movil debe tener un bton que permita hacerlo y volver a la pantalla de inicio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El administrador debe gestionar la información del usuario, para arreglar los problemas que puedan existir.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Actor:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Administrador  </t>
-    </r>
-  </si>
-  <si>
-    <t>HU12</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gestionar usuario</t>
-    </r>
-  </si>
-  <si>
-    <t>HU13</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Iniciar sesión</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El sistema debe permitirle al administrador iniciar sesión con su correo y contraseña para gestionar el sistema.</t>
-    </r>
-  </si>
-  <si>
-    <t>HU14</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Crear administrador</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El administrador debe tener el poder para crear otros administradores.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado que quiero crear otros administradores, la aplicación web debe tener la opción de agregar más administradores, registrándolo yo mismo, con el nombre, correo y contraseña y confirmar contraseña.</t>
-    </r>
-  </si>
-  <si>
-    <t>HU15</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Consultar usuario</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado que quiero consultar la información, la aplicación web debe tener la opción que me permita consultarlos.</t>
-    </r>
-  </si>
-  <si>
-    <t>HU16</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cerrar sesión</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El administrador debe poder cerrar sesión, después de ingresar a su perfil.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado que quiero cerrar sección la aplicación web debe tener un botón que me permita volver a la pantalla de inicio.</t>
-    </r>
-  </si>
-  <si>
-    <t>HU17</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recuperar contraseña del administrador</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Descripción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El administrador puede restablecer la contraseña en caso de que sea olvidada.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Criterio de aceptación:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Dado que quiero restablecer mi contraseña al presionar un botón el sistema debe enviarme a una pantalla que me solicite mi correo registrado y que me aparezca un campo para colocarlo y un botón para enviarlo y en este correo se me envíe la restauración de la contraseña para poder cambiarla dirigiéndome a otra pantalla con un formulario para ingresar la nueva contraseña, confirmarla la contraseña y un botón para confirmar el cambio.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción: </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se debe ingresar información requerida como número de documento, nombre completo, RH, Alguna alergia, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco ; para generar un código QR.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado que quiero ingresar mi información, los datos de ingresar mi nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco, se deben mostrar en un formulario, y también debe tener un botón para registrar información.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se debe permitir modificar la información; nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación: </t>
     </r>
     <r>
       <rPr>
@@ -958,242 +1206,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Se debe permitir contener la información (nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco) ingresada por el usuario en el código QR para que se pueda visualizar mediante un lector de código QR.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descripción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Al momento de presionar un botón se debe escuchar el audio grabado y subido por el usuario a la tarjeta Micro SD, que contenga la información de: nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grabar audio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Criterio de aceptación:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Dado que quiero subir un audio con información, la aplicación debe tener una sesión para grabar el audio y descárgalo, y que este se almacene en la base de datos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dado que quiero gestionar el sistema, este me debe permitir ver una lista con los usuarios registrados, y debe mostrar botones de las siguientes opciones:                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Crear:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El administrador abre un formulario con los datos del usuario y podrá insertar otra información a la base de datos.                                                                                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modificar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El administrador abre un registro y presiona el botón de modificar, El administrador podrá modificar uno o más campos, presionar el botón guardar y este se debe modificar en la base de datos.                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eliminar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El administrador abre un registro y selecciona la opción de eliminar, el sistema muestra un mensaje de confirmación, el administrador lo acepta y el sistema debe eliminar el registro de la base de datos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criterio de aceptación: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado que quiero ingresar con un perfil de administrador, el sistema debe contar con una tabla en la base de datos, que contenga la información de correo y contraseña del administrador. El sitio web también debe contar con un botón para ingresar y otro para solicitar recuperar contraseña, en caso de que esta sea olvidada. Cuando le dé en el botón de iniciar sesión y se valide la información el sistema abre una pantalla principal con las funcionalidades del administrador. Adicionalmente la interfaz va a tener información comercial de la pulsera, mostrando un botón donde me dirija a la información del proyecto, y otro botón para acceder a la información de contacto.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El administrador puede consultar los datos (nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia con parentesco) en el sitio web.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Descripción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  El usuario puede seleccionar el padecimiento que tiene, y añadir varias.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Criterio de aceptación:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Dado que quiero seleccionar la alergia o la enfermedad en el formulario, la aplicación móvil debe contar con una lista de despliegue donde aparezcan el tipo de padecimiento (enfermedad o alergia) y el nombre del padecimiento.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modificar información</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Seleccionar padecimiento</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Caso de uso: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Iniciar sesión</t>
     </r>
   </si>
 </sst>
@@ -1445,7 +1457,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1472,9 +1496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1487,22 +1508,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,18 +1543,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1567,6 +1570,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2931,7 +2943,7 @@
   <dimension ref="B2:AG196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:P3"/>
+      <selection activeCell="AD146" sqref="AD146:AG160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,52 +2961,52 @@
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="33" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="33" t="s">
+      <c r="L3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="38" t="s">
+      <c r="R3" s="37"/>
+      <c r="S3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="V3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="36" t="s">
+      <c r="T3" s="21"/>
+      <c r="V3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="37"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="21"/>
     </row>
     <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -3002,41 +3014,41 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="37"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="16"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36" t="s">
+      <c r="R4" s="37"/>
+      <c r="S4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="37"/>
+      <c r="T4" s="21"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="36" t="s">
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="37"/>
+      <c r="AD4" s="21"/>
     </row>
     <row r="5" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -3044,35 +3056,35 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="14"/>
       <c r="L5" s="4"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41"/>
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="40"/>
+      <c r="AA5" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="41"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -3080,29 +3092,29 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="14"/>
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="44"/>
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="43"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="44"/>
     </row>
     <row r="7" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -3110,29 +3122,29 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="14"/>
       <c r="L7" s="4"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="44"/>
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="43"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -3140,29 +3152,29 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="14"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="43"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="43"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -3170,29 +3182,29 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="14"/>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="43"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="43"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -3200,29 +3212,29 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="14"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="43"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="44"/>
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="43"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="44"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -3230,29 +3242,29 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="14"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="43"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="44"/>
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="43"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="44"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -3260,29 +3272,29 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="14"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47"/>
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="46"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="47"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
@@ -3290,35 +3302,35 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="14"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="21"/>
+      <c r="Q13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="21"/>
+      <c r="AA13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="25"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -3326,29 +3338,29 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="14"/>
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="24"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28"/>
       <c r="V14" s="4"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="24"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="28"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -3356,29 +3368,29 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="14"/>
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="24"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="28"/>
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="24"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="28"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
@@ -3386,29 +3398,29 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="14"/>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="24"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="28"/>
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="24"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="28"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -3416,29 +3428,29 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="14"/>
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="24"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="28"/>
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="24"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="28"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
@@ -3446,29 +3458,29 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="24"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="28"/>
       <c r="V18" s="4"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="24"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="28"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
@@ -3476,29 +3488,29 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="14"/>
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="24"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="28"/>
       <c r="V19" s="4"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="24"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="28"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -3506,29 +3518,29 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="14"/>
       <c r="L20" s="4"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="24"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28"/>
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="24"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="28"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -3536,29 +3548,29 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="14"/>
       <c r="L21" s="4"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="24"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28"/>
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="24"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="28"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -3566,29 +3578,29 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="14"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="24"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="28"/>
       <c r="V22" s="4"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="24"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="28"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -3596,29 +3608,29 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="14"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="24"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="28"/>
       <c r="V23" s="4"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="24"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="28"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -3626,29 +3638,29 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="14"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="24"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28"/>
       <c r="V24" s="4"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="24"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="28"/>
     </row>
     <row r="25" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -3656,29 +3668,29 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="9"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="24"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="28"/>
       <c r="V25" s="8"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="24"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="28"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -3686,29 +3698,29 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="9"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="24"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="28"/>
       <c r="V26" s="8"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="24"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="28"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
@@ -3716,137 +3728,137 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="9"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="27"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
       <c r="V27" s="11"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="27"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="31"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="19" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="30" t="s">
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="33" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="28" t="s">
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="30" t="s">
+      <c r="R28" s="24"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="28" t="s">
+      <c r="V28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="28" t="s">
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="30" t="s">
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="31"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="31"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="34"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="34"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="32"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="32"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="35"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="35"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
@@ -3885,52 +3897,52 @@
       <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="48" t="s">
+      <c r="B36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="37"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="21"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="21"/>
+      <c r="S36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="21"/>
+      <c r="V36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="T36" s="37"/>
-      <c r="V36" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="W36" s="47"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD36" s="37"/>
+      <c r="AD36" s="21"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
@@ -3938,41 +3950,41 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36" t="s">
+      <c r="H37" s="37"/>
+      <c r="I37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="37"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="5"/>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="38" t="s">
+      <c r="Q37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="36" t="s">
+      <c r="R37" s="21"/>
+      <c r="S37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T37" s="37"/>
+      <c r="T37" s="21"/>
       <c r="V37" s="1"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="38" t="s">
+      <c r="AA37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="36" t="s">
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="37"/>
+      <c r="AD37" s="21"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
@@ -3980,35 +3992,35 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="G38" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
       <c r="K38" s="5"/>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="40"/>
+      <c r="Q38" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="41"/>
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="53"/>
+      <c r="AA38" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="50"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -4016,29 +4028,29 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="5"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="43"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="44"/>
       <c r="V39" s="4"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="56"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="53"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
@@ -4046,29 +4058,29 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="5"/>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="43"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="44"/>
       <c r="V40" s="4"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="56"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="53"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
@@ -4076,29 +4088,29 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="5"/>
       <c r="L41" s="4"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="43"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="44"/>
       <c r="V41" s="4"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="56"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="53"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
@@ -4106,29 +4118,29 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="5"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="43"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="44"/>
       <c r="V42" s="4"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="56"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="53"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
@@ -4136,29 +4148,29 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="5"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="43"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="44"/>
       <c r="V43" s="4"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="56"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="53"/>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
@@ -4166,29 +4178,29 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="44"/>
       <c r="K44" s="5"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="43"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="44"/>
       <c r="V44" s="4"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="56"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="53"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
@@ -4196,29 +4208,29 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="5"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="46"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="47"/>
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="59"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="55"/>
+      <c r="AD45" s="56"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
@@ -4226,35 +4238,35 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
+      <c r="G46" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="5"/>
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="21"/>
+      <c r="Q46" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="25"/>
       <c r="V46" s="4"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="21"/>
+      <c r="AA46" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="25"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
@@ -4262,29 +4274,29 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
       <c r="K47" s="5"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="24"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="28"/>
       <c r="V47" s="4"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="24"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="28"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
@@ -4292,29 +4304,29 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="5"/>
       <c r="L48" s="4"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="24"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="28"/>
       <c r="V48" s="4"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="24"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="28"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
@@ -4322,29 +4334,29 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
       <c r="K49" s="5"/>
       <c r="L49" s="4"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="24"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="28"/>
       <c r="V49" s="4"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="24"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="28"/>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
@@ -4352,29 +4364,29 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="44"/>
       <c r="K50" s="5"/>
       <c r="L50" s="4"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="24"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="28"/>
       <c r="V50" s="4"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="24"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="28"/>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
@@ -4382,29 +4394,29 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="44"/>
       <c r="K51" s="5"/>
       <c r="L51" s="4"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="24"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="28"/>
       <c r="V51" s="4"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="24"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="28"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
@@ -4412,28 +4424,28 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="44"/>
       <c r="L52" s="4"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="24"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="28"/>
       <c r="V52" s="4"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="23"/>
-      <c r="AD52" s="24"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="28"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
@@ -4441,28 +4453,28 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="44"/>
       <c r="L53" s="4"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="24"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="28"/>
       <c r="V53" s="4"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="24"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="28"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
@@ -4470,28 +4482,28 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="44"/>
       <c r="L54" s="4"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="24"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="28"/>
       <c r="V54" s="4"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="24"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="28"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -4499,28 +4511,28 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="44"/>
       <c r="L55" s="4"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="24"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="28"/>
       <c r="V55" s="4"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="24"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="28"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
@@ -4528,28 +4540,28 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
       <c r="L56" s="4"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="24"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="28"/>
       <c r="V56" s="4"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="24"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="28"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
@@ -4557,28 +4569,28 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
       <c r="L57" s="4"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="6"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="24"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="28"/>
       <c r="V57" s="4"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="6"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="23"/>
-      <c r="AD57" s="24"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="28"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
@@ -4586,28 +4598,28 @@
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
       <c r="L58" s="8"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="24"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="28"/>
       <c r="V58" s="8"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="10"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="23"/>
-      <c r="AC58" s="23"/>
-      <c r="AD58" s="24"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="28"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
@@ -4615,28 +4627,28 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="43"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="44"/>
       <c r="L59" s="8"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="24"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="28"/>
       <c r="V59" s="8"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="10"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="23"/>
-      <c r="AD59" s="24"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="28"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
@@ -4644,133 +4656,133 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="47"/>
       <c r="L60" s="11"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="13"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="27"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
       <c r="V60" s="11"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
       <c r="Z60" s="13"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="27"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="31"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="28" t="s">
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="30" t="s">
+      <c r="H61" s="24"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="28" t="s">
+      <c r="L61" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="28" t="s">
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R61" s="20"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="30" t="s">
+      <c r="R61" s="24"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="V61" s="28" t="s">
+      <c r="V61" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="28" t="s">
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AB61" s="20"/>
-      <c r="AC61" s="21"/>
-      <c r="AD61" s="30" t="s">
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="31"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="31"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="31"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="34"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="34"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="34"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="32"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="32"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="26"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="32"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="35"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="35"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="31"/>
+      <c r="AD63" s="35"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Q64" s="15"/>
@@ -4778,51 +4790,51 @@
       <c r="S64" s="15"/>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B69" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="33" t="s">
+      <c r="B69" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" s="37"/>
-      <c r="L69" s="36" t="s">
+      <c r="H69" s="37"/>
+      <c r="I69" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="21"/>
+      <c r="L69" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" s="58"/>
+      <c r="S69" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69" s="21"/>
+      <c r="V69" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="58"/>
+      <c r="AC69" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69" s="49"/>
-      <c r="S69" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="T69" s="37"/>
-      <c r="V69" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="W69" s="47"/>
-      <c r="X69" s="47"/>
-      <c r="Y69" s="47"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD69" s="37"/>
+      <c r="AD69" s="21"/>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
@@ -4830,40 +4842,40 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="50" t="s">
+      <c r="G70" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" s="21"/>
       <c r="L70" s="1"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="50" t="s">
+      <c r="Q70" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="R70" s="35"/>
-      <c r="S70" s="36" t="s">
+      <c r="R70" s="37"/>
+      <c r="S70" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T70" s="37"/>
+      <c r="T70" s="21"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="3"/>
-      <c r="AA70" s="50" t="s">
+      <c r="AA70" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AB70" s="35"/>
-      <c r="AC70" s="36" t="s">
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AD70" s="37"/>
+      <c r="AD70" s="21"/>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
@@ -4871,34 +4883,34 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="40"/>
+      <c r="G71" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
       <c r="L71" s="4"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
-      <c r="Q71" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="40"/>
+      <c r="Q71" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="41"/>
       <c r="V71" s="4"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB71" s="39"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="40"/>
+      <c r="AA71" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB71" s="40"/>
+      <c r="AC71" s="40"/>
+      <c r="AD71" s="41"/>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
@@ -4906,28 +4918,28 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="43"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="44"/>
       <c r="L72" s="4"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="42"/>
-      <c r="T72" s="43"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="44"/>
       <c r="V72" s="4"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="41"/>
-      <c r="AB72" s="42"/>
-      <c r="AC72" s="42"/>
-      <c r="AD72" s="43"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="43"/>
+      <c r="AD72" s="44"/>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
@@ -4935,28 +4947,28 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="43"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="44"/>
       <c r="L73" s="4"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
-      <c r="T73" s="43"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="44"/>
       <c r="V73" s="4"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="41"/>
-      <c r="AB73" s="42"/>
-      <c r="AC73" s="42"/>
-      <c r="AD73" s="43"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+      <c r="AD73" s="44"/>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
@@ -4964,28 +4976,28 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="43"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
       <c r="L74" s="4"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="41"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
-      <c r="T74" s="43"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="44"/>
       <c r="V74" s="4"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="41"/>
-      <c r="AB74" s="42"/>
-      <c r="AC74" s="42"/>
-      <c r="AD74" s="43"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="43"/>
+      <c r="AC74" s="43"/>
+      <c r="AD74" s="44"/>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
@@ -4993,28 +5005,28 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="43"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="44"/>
       <c r="L75" s="4"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
-      <c r="T75" s="43"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="44"/>
       <c r="V75" s="4"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="42"/>
-      <c r="AC75" s="42"/>
-      <c r="AD75" s="43"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="44"/>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
@@ -5022,28 +5034,28 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="43"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="44"/>
       <c r="L76" s="4"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
-      <c r="T76" s="43"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="44"/>
       <c r="V76" s="4"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="41"/>
-      <c r="AB76" s="42"/>
-      <c r="AC76" s="42"/>
-      <c r="AD76" s="43"/>
+      <c r="AA76" s="42"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="43"/>
+      <c r="AD76" s="44"/>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
@@ -5051,28 +5063,28 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="43"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="44"/>
       <c r="L77" s="4"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="42"/>
-      <c r="T77" s="43"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="44"/>
       <c r="V77" s="4"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="41"/>
-      <c r="AB77" s="42"/>
-      <c r="AC77" s="42"/>
-      <c r="AD77" s="43"/>
+      <c r="AA77" s="42"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="43"/>
+      <c r="AD77" s="44"/>
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
@@ -5080,28 +5092,28 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="46"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="47"/>
       <c r="L78" s="4"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="45"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="46"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="47"/>
       <c r="V78" s="4"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="44"/>
-      <c r="AB78" s="45"/>
-      <c r="AC78" s="45"/>
-      <c r="AD78" s="46"/>
+      <c r="AA78" s="45"/>
+      <c r="AB78" s="46"/>
+      <c r="AC78" s="46"/>
+      <c r="AD78" s="47"/>
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
@@ -5109,34 +5121,34 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
+      <c r="G79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="25"/>
       <c r="L79" s="4"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="40"/>
+      <c r="Q79" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="41"/>
       <c r="V79" s="4"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="40"/>
+      <c r="AA79" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB79" s="40"/>
+      <c r="AC79" s="40"/>
+      <c r="AD79" s="41"/>
     </row>
     <row r="80" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
@@ -5144,28 +5156,28 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="24"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="28"/>
       <c r="L80" s="4"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="42"/>
-      <c r="T80" s="43"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="44"/>
       <c r="V80" s="4"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-      <c r="AA80" s="41"/>
-      <c r="AB80" s="42"/>
-      <c r="AC80" s="42"/>
-      <c r="AD80" s="43"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="43"/>
+      <c r="AD80" s="44"/>
     </row>
     <row r="81" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
@@ -5173,28 +5185,28 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="24"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="28"/>
       <c r="L81" s="4"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
-      <c r="Q81" s="41"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="43"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="44"/>
       <c r="V81" s="4"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
-      <c r="AA81" s="41"/>
-      <c r="AB81" s="42"/>
-      <c r="AC81" s="42"/>
-      <c r="AD81" s="43"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="43"/>
+      <c r="AD81" s="44"/>
     </row>
     <row r="82" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
@@ -5202,28 +5214,28 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="24"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="28"/>
       <c r="L82" s="4"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="42"/>
-      <c r="T82" s="43"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="43"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="44"/>
       <c r="V82" s="4"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-      <c r="AA82" s="41"/>
-      <c r="AB82" s="42"/>
-      <c r="AC82" s="42"/>
-      <c r="AD82" s="43"/>
+      <c r="AA82" s="42"/>
+      <c r="AB82" s="43"/>
+      <c r="AC82" s="43"/>
+      <c r="AD82" s="44"/>
     </row>
     <row r="83" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
@@ -5231,28 +5243,28 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="24"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="28"/>
       <c r="L83" s="4"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="42"/>
-      <c r="T83" s="43"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="43"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="44"/>
       <c r="V83" s="4"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
-      <c r="AA83" s="41"/>
-      <c r="AB83" s="42"/>
-      <c r="AC83" s="42"/>
-      <c r="AD83" s="43"/>
+      <c r="AA83" s="42"/>
+      <c r="AB83" s="43"/>
+      <c r="AC83" s="43"/>
+      <c r="AD83" s="44"/>
     </row>
     <row r="84" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
@@ -5260,28 +5272,28 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="24"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="28"/>
       <c r="L84" s="4"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="42"/>
-      <c r="T84" s="43"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="43"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="44"/>
       <c r="V84" s="4"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
-      <c r="AA84" s="41"/>
-      <c r="AB84" s="42"/>
-      <c r="AC84" s="42"/>
-      <c r="AD84" s="43"/>
+      <c r="AA84" s="42"/>
+      <c r="AB84" s="43"/>
+      <c r="AC84" s="43"/>
+      <c r="AD84" s="44"/>
     </row>
     <row r="85" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
@@ -5289,28 +5301,28 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="24"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="28"/>
       <c r="L85" s="4"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
-      <c r="Q85" s="41"/>
-      <c r="R85" s="42"/>
-      <c r="S85" s="42"/>
-      <c r="T85" s="43"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="44"/>
       <c r="V85" s="4"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
-      <c r="AA85" s="41"/>
-      <c r="AB85" s="42"/>
-      <c r="AC85" s="42"/>
-      <c r="AD85" s="43"/>
+      <c r="AA85" s="42"/>
+      <c r="AB85" s="43"/>
+      <c r="AC85" s="43"/>
+      <c r="AD85" s="44"/>
     </row>
     <row r="86" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
@@ -5318,28 +5330,28 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="24"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="28"/>
       <c r="L86" s="4"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="42"/>
-      <c r="S86" s="42"/>
-      <c r="T86" s="43"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="44"/>
       <c r="V86" s="4"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
-      <c r="AA86" s="41"/>
-      <c r="AB86" s="42"/>
-      <c r="AC86" s="42"/>
-      <c r="AD86" s="43"/>
+      <c r="AA86" s="42"/>
+      <c r="AB86" s="43"/>
+      <c r="AC86" s="43"/>
+      <c r="AD86" s="44"/>
     </row>
     <row r="87" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
@@ -5347,28 +5359,28 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="24"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="28"/>
       <c r="L87" s="4"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="42"/>
-      <c r="S87" s="42"/>
-      <c r="T87" s="43"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="44"/>
       <c r="V87" s="4"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="42"/>
-      <c r="AC87" s="42"/>
-      <c r="AD87" s="43"/>
+      <c r="AA87" s="42"/>
+      <c r="AB87" s="43"/>
+      <c r="AC87" s="43"/>
+      <c r="AD87" s="44"/>
     </row>
     <row r="88" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
@@ -5376,28 +5388,28 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="24"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="28"/>
       <c r="L88" s="4"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="42"/>
-      <c r="S88" s="42"/>
-      <c r="T88" s="43"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="44"/>
       <c r="V88" s="4"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
-      <c r="AA88" s="41"/>
-      <c r="AB88" s="42"/>
-      <c r="AC88" s="42"/>
-      <c r="AD88" s="43"/>
+      <c r="AA88" s="42"/>
+      <c r="AB88" s="43"/>
+      <c r="AC88" s="43"/>
+      <c r="AD88" s="44"/>
     </row>
     <row r="89" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
@@ -5405,28 +5417,28 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="24"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="28"/>
       <c r="L89" s="4"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="42"/>
-      <c r="S89" s="42"/>
-      <c r="T89" s="43"/>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="44"/>
       <c r="V89" s="4"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
-      <c r="AA89" s="41"/>
-      <c r="AB89" s="42"/>
-      <c r="AC89" s="42"/>
-      <c r="AD89" s="43"/>
+      <c r="AA89" s="42"/>
+      <c r="AB89" s="43"/>
+      <c r="AC89" s="43"/>
+      <c r="AD89" s="44"/>
     </row>
     <row r="90" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
@@ -5434,28 +5446,28 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="24"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="28"/>
       <c r="L90" s="4"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="6"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="42"/>
-      <c r="S90" s="42"/>
-      <c r="T90" s="43"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="44"/>
       <c r="V90" s="4"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="6"/>
-      <c r="AA90" s="41"/>
-      <c r="AB90" s="42"/>
-      <c r="AC90" s="42"/>
-      <c r="AD90" s="43"/>
+      <c r="AA90" s="42"/>
+      <c r="AB90" s="43"/>
+      <c r="AC90" s="43"/>
+      <c r="AD90" s="44"/>
     </row>
     <row r="91" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
@@ -5463,28 +5475,28 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="24"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="28"/>
       <c r="L91" s="8"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="42"/>
-      <c r="S91" s="42"/>
-      <c r="T91" s="43"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="44"/>
       <c r="V91" s="8"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="10"/>
-      <c r="AA91" s="41"/>
-      <c r="AB91" s="42"/>
-      <c r="AC91" s="42"/>
-      <c r="AD91" s="43"/>
+      <c r="AA91" s="42"/>
+      <c r="AB91" s="43"/>
+      <c r="AC91" s="43"/>
+      <c r="AD91" s="44"/>
     </row>
     <row r="92" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
@@ -5492,28 +5504,28 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="24"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="28"/>
       <c r="L92" s="8"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="42"/>
-      <c r="S92" s="42"/>
-      <c r="T92" s="43"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="44"/>
       <c r="V92" s="8"/>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="10"/>
-      <c r="AA92" s="41"/>
-      <c r="AB92" s="42"/>
-      <c r="AC92" s="42"/>
-      <c r="AD92" s="43"/>
+      <c r="AA92" s="42"/>
+      <c r="AB92" s="43"/>
+      <c r="AC92" s="43"/>
+      <c r="AD92" s="44"/>
     </row>
     <row r="93" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
@@ -5521,181 +5533,181 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="13"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="27"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="31"/>
       <c r="L93" s="11"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
       <c r="P93" s="13"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="45"/>
-      <c r="S93" s="45"/>
-      <c r="T93" s="46"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="46"/>
+      <c r="S93" s="46"/>
+      <c r="T93" s="47"/>
       <c r="V93" s="11"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
       <c r="Z93" s="13"/>
-      <c r="AA93" s="44"/>
-      <c r="AB93" s="45"/>
-      <c r="AC93" s="45"/>
-      <c r="AD93" s="46"/>
+      <c r="AA93" s="45"/>
+      <c r="AB93" s="46"/>
+      <c r="AC93" s="46"/>
+      <c r="AD93" s="47"/>
     </row>
     <row r="94" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="28" t="s">
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="20"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="30" t="s">
+      <c r="H94" s="24"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="28" t="s">
+      <c r="L94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="28" t="s">
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R94" s="20"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="30" t="s">
+      <c r="R94" s="24"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="V94" s="28" t="s">
+      <c r="V94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="20"/>
-      <c r="X94" s="20"/>
-      <c r="Y94" s="20"/>
-      <c r="Z94" s="21"/>
-      <c r="AA94" s="28" t="s">
+      <c r="W94" s="24"/>
+      <c r="X94" s="24"/>
+      <c r="Y94" s="24"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AB94" s="20"/>
-      <c r="AC94" s="21"/>
-      <c r="AD94" s="30" t="s">
+      <c r="AB94" s="24"/>
+      <c r="AC94" s="25"/>
+      <c r="AD94" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="31"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="24"/>
-      <c r="T95" s="31"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="23"/>
-      <c r="X95" s="23"/>
-      <c r="Y95" s="23"/>
-      <c r="Z95" s="24"/>
-      <c r="AA95" s="22"/>
-      <c r="AB95" s="29"/>
-      <c r="AC95" s="24"/>
-      <c r="AD95" s="31"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="34"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="34"/>
+      <c r="V95" s="26"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="26"/>
+      <c r="AB95" s="32"/>
+      <c r="AC95" s="28"/>
+      <c r="AD95" s="34"/>
     </row>
     <row r="96" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B96" s="25"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="32"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="25"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="32"/>
-      <c r="V96" s="25"/>
-      <c r="W96" s="26"/>
-      <c r="X96" s="26"/>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="25"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="32"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="35"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="30"/>
+      <c r="S96" s="31"/>
+      <c r="T96" s="35"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="31"/>
+      <c r="AA96" s="29"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="31"/>
+      <c r="AD96" s="35"/>
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B102" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="48" t="s">
+      <c r="B102" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H102" s="49"/>
-      <c r="I102" s="38" t="s">
+      <c r="H102" s="58"/>
+      <c r="I102" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J102" s="21"/>
+      <c r="L102" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R102" s="58"/>
+      <c r="S102" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T102" s="21"/>
+      <c r="V102" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J102" s="37"/>
-      <c r="L102" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="M102" s="47"/>
-      <c r="N102" s="47"/>
-      <c r="O102" s="47"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="48" t="s">
+      <c r="W102" s="59"/>
+      <c r="X102" s="59"/>
+      <c r="Y102" s="59"/>
+      <c r="Z102" s="59"/>
+      <c r="AA102" s="37"/>
+      <c r="AB102" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R102" s="49"/>
-      <c r="S102" s="38" t="s">
+      <c r="AC102" s="21"/>
+      <c r="AD102" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="T102" s="37"/>
-      <c r="V102" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="W102" s="34"/>
-      <c r="X102" s="34"/>
-      <c r="Y102" s="34"/>
-      <c r="Z102" s="34"/>
-      <c r="AA102" s="35"/>
-      <c r="AB102" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="37"/>
-      <c r="AD102" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE102" s="37"/>
+      <c r="AE102" s="21"/>
       <c r="AF102" s="9"/>
     </row>
     <row r="103" spans="2:32" x14ac:dyDescent="0.25">
@@ -5704,41 +5716,41 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="50" t="s">
+      <c r="G103" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="35"/>
-      <c r="I103" s="36" t="s">
+      <c r="H103" s="37"/>
+      <c r="I103" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="37"/>
+      <c r="J103" s="21"/>
       <c r="L103" s="1"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="50" t="s">
+      <c r="Q103" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="R103" s="35"/>
-      <c r="S103" s="36" t="s">
+      <c r="R103" s="37"/>
+      <c r="S103" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T103" s="37"/>
+      <c r="T103" s="21"/>
       <c r="V103" s="1"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
-      <c r="AB103" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC103" s="37"/>
-      <c r="AD103" s="36" t="s">
+      <c r="AB103" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AE103" s="37"/>
+      <c r="AE103" s="21"/>
       <c r="AF103" s="9"/>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.25">
@@ -5747,35 +5759,35 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="40"/>
+      <c r="G104" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="41"/>
       <c r="L104" s="4"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
-      <c r="Q104" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="R104" s="39"/>
-      <c r="S104" s="39"/>
-      <c r="T104" s="40"/>
+      <c r="Q104" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="R104" s="40"/>
+      <c r="S104" s="40"/>
+      <c r="T104" s="41"/>
       <c r="V104" s="4"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
-      <c r="AB104" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC104" s="20"/>
-      <c r="AD104" s="20"/>
-      <c r="AE104" s="21"/>
+      <c r="AB104" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC104" s="24"/>
+      <c r="AD104" s="24"/>
+      <c r="AE104" s="25"/>
       <c r="AF104" s="9"/>
     </row>
     <row r="105" spans="2:32" x14ac:dyDescent="0.25">
@@ -5784,29 +5796,29 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="43"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="44"/>
       <c r="L105" s="4"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
-      <c r="Q105" s="41"/>
-      <c r="R105" s="42"/>
-      <c r="S105" s="42"/>
-      <c r="T105" s="43"/>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="43"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="44"/>
       <c r="V105" s="4"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="23"/>
-      <c r="AD105" s="23"/>
-      <c r="AE105" s="24"/>
+      <c r="AB105" s="26"/>
+      <c r="AC105" s="27"/>
+      <c r="AD105" s="27"/>
+      <c r="AE105" s="28"/>
       <c r="AF105" s="9"/>
     </row>
     <row r="106" spans="2:32" x14ac:dyDescent="0.25">
@@ -5815,29 +5827,29 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="43"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="44"/>
       <c r="L106" s="4"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
-      <c r="Q106" s="41"/>
-      <c r="R106" s="42"/>
-      <c r="S106" s="42"/>
-      <c r="T106" s="43"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="43"/>
+      <c r="S106" s="43"/>
+      <c r="T106" s="44"/>
       <c r="V106" s="4"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
-      <c r="AB106" s="22"/>
-      <c r="AC106" s="23"/>
-      <c r="AD106" s="23"/>
-      <c r="AE106" s="24"/>
+      <c r="AB106" s="26"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="28"/>
       <c r="AF106" s="9"/>
     </row>
     <row r="107" spans="2:32" x14ac:dyDescent="0.25">
@@ -5846,29 +5858,29 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="43"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="44"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
-      <c r="T107" s="43"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="43"/>
+      <c r="S107" s="43"/>
+      <c r="T107" s="44"/>
       <c r="V107" s="4"/>
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
-      <c r="AB107" s="22"/>
-      <c r="AC107" s="23"/>
-      <c r="AD107" s="23"/>
-      <c r="AE107" s="24"/>
+      <c r="AB107" s="26"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="27"/>
+      <c r="AE107" s="28"/>
       <c r="AF107" s="9"/>
     </row>
     <row r="108" spans="2:32" x14ac:dyDescent="0.25">
@@ -5877,29 +5889,29 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="43"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="44"/>
       <c r="L108" s="4"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="42"/>
-      <c r="S108" s="42"/>
-      <c r="T108" s="43"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="43"/>
+      <c r="S108" s="43"/>
+      <c r="T108" s="44"/>
       <c r="V108" s="4"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
-      <c r="AB108" s="22"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="23"/>
-      <c r="AE108" s="24"/>
+      <c r="AB108" s="26"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="28"/>
       <c r="AF108" s="9"/>
     </row>
     <row r="109" spans="2:32" x14ac:dyDescent="0.25">
@@ -5908,29 +5920,29 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="43"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="44"/>
       <c r="L109" s="4"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
-      <c r="Q109" s="41"/>
-      <c r="R109" s="42"/>
-      <c r="S109" s="42"/>
-      <c r="T109" s="43"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="43"/>
+      <c r="S109" s="43"/>
+      <c r="T109" s="44"/>
       <c r="V109" s="4"/>
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-      <c r="AB109" s="22"/>
-      <c r="AC109" s="23"/>
-      <c r="AD109" s="23"/>
-      <c r="AE109" s="24"/>
+      <c r="AB109" s="26"/>
+      <c r="AC109" s="27"/>
+      <c r="AD109" s="27"/>
+      <c r="AE109" s="28"/>
       <c r="AF109" s="9"/>
     </row>
     <row r="110" spans="2:32" x14ac:dyDescent="0.25">
@@ -5939,29 +5951,29 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="43"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="44"/>
       <c r="L110" s="4"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
-      <c r="Q110" s="41"/>
-      <c r="R110" s="42"/>
-      <c r="S110" s="42"/>
-      <c r="T110" s="43"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="43"/>
+      <c r="S110" s="43"/>
+      <c r="T110" s="44"/>
       <c r="V110" s="4"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
-      <c r="AB110" s="22"/>
-      <c r="AC110" s="23"/>
-      <c r="AD110" s="23"/>
-      <c r="AE110" s="24"/>
+      <c r="AB110" s="26"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="27"/>
+      <c r="AE110" s="28"/>
       <c r="AF110" s="9"/>
     </row>
     <row r="111" spans="2:32" x14ac:dyDescent="0.25">
@@ -5970,29 +5982,29 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="46"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="47"/>
       <c r="L111" s="4"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="45"/>
-      <c r="S111" s="45"/>
-      <c r="T111" s="46"/>
+      <c r="Q111" s="45"/>
+      <c r="R111" s="46"/>
+      <c r="S111" s="46"/>
+      <c r="T111" s="47"/>
       <c r="V111" s="4"/>
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="6"/>
-      <c r="AB111" s="25"/>
-      <c r="AC111" s="26"/>
-      <c r="AD111" s="26"/>
-      <c r="AE111" s="27"/>
+      <c r="AB111" s="29"/>
+      <c r="AC111" s="30"/>
+      <c r="AD111" s="30"/>
+      <c r="AE111" s="31"/>
       <c r="AF111" s="9"/>
     </row>
     <row r="112" spans="2:32" x14ac:dyDescent="0.25">
@@ -6001,35 +6013,35 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="40"/>
+      <c r="G112" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="41"/>
       <c r="L112" s="4"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
-      <c r="Q112" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="R112" s="39"/>
-      <c r="S112" s="39"/>
-      <c r="T112" s="40"/>
+      <c r="Q112" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="R112" s="40"/>
+      <c r="S112" s="40"/>
+      <c r="T112" s="41"/>
       <c r="V112" s="4"/>
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC112" s="20"/>
-      <c r="AD112" s="20"/>
-      <c r="AE112" s="21"/>
+      <c r="AB112" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC112" s="24"/>
+      <c r="AD112" s="24"/>
+      <c r="AE112" s="25"/>
       <c r="AF112" s="9"/>
     </row>
     <row r="113" spans="2:32" x14ac:dyDescent="0.25">
@@ -6038,29 +6050,29 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="43"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="44"/>
       <c r="L113" s="4"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
-      <c r="Q113" s="41"/>
-      <c r="R113" s="42"/>
-      <c r="S113" s="42"/>
-      <c r="T113" s="43"/>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="43"/>
+      <c r="S113" s="43"/>
+      <c r="T113" s="44"/>
       <c r="V113" s="4"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="23"/>
-      <c r="AD113" s="23"/>
-      <c r="AE113" s="24"/>
+      <c r="AB113" s="26"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="27"/>
+      <c r="AE113" s="28"/>
       <c r="AF113" s="9"/>
     </row>
     <row r="114" spans="2:32" x14ac:dyDescent="0.25">
@@ -6069,29 +6081,29 @@
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="43"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="44"/>
       <c r="L114" s="4"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="42"/>
-      <c r="S114" s="42"/>
-      <c r="T114" s="43"/>
+      <c r="Q114" s="42"/>
+      <c r="R114" s="43"/>
+      <c r="S114" s="43"/>
+      <c r="T114" s="44"/>
       <c r="V114" s="4"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
-      <c r="AB114" s="22"/>
-      <c r="AC114" s="23"/>
-      <c r="AD114" s="23"/>
-      <c r="AE114" s="24"/>
+      <c r="AB114" s="26"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="27"/>
+      <c r="AE114" s="28"/>
       <c r="AF114" s="9"/>
     </row>
     <row r="115" spans="2:32" x14ac:dyDescent="0.25">
@@ -6100,29 +6112,29 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="43"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="44"/>
       <c r="L115" s="4"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
-      <c r="Q115" s="41"/>
-      <c r="R115" s="42"/>
-      <c r="S115" s="42"/>
-      <c r="T115" s="43"/>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="43"/>
+      <c r="S115" s="43"/>
+      <c r="T115" s="44"/>
       <c r="V115" s="4"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
-      <c r="AB115" s="22"/>
-      <c r="AC115" s="23"/>
-      <c r="AD115" s="23"/>
-      <c r="AE115" s="24"/>
+      <c r="AB115" s="26"/>
+      <c r="AC115" s="27"/>
+      <c r="AD115" s="27"/>
+      <c r="AE115" s="28"/>
       <c r="AF115" s="9"/>
     </row>
     <row r="116" spans="2:32" x14ac:dyDescent="0.25">
@@ -6131,29 +6143,29 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="43"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="44"/>
       <c r="L116" s="4"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
-      <c r="Q116" s="41"/>
-      <c r="R116" s="42"/>
-      <c r="S116" s="42"/>
-      <c r="T116" s="43"/>
+      <c r="Q116" s="42"/>
+      <c r="R116" s="43"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="44"/>
       <c r="V116" s="4"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
-      <c r="AB116" s="22"/>
-      <c r="AC116" s="23"/>
-      <c r="AD116" s="23"/>
-      <c r="AE116" s="24"/>
+      <c r="AB116" s="26"/>
+      <c r="AC116" s="27"/>
+      <c r="AD116" s="27"/>
+      <c r="AE116" s="28"/>
       <c r="AF116" s="9"/>
     </row>
     <row r="117" spans="2:32" x14ac:dyDescent="0.25">
@@ -6162,29 +6174,29 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="43"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="44"/>
       <c r="L117" s="4"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
-      <c r="Q117" s="41"/>
-      <c r="R117" s="42"/>
-      <c r="S117" s="42"/>
-      <c r="T117" s="43"/>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="43"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="44"/>
       <c r="V117" s="4"/>
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
-      <c r="AB117" s="22"/>
-      <c r="AC117" s="23"/>
-      <c r="AD117" s="23"/>
-      <c r="AE117" s="24"/>
+      <c r="AB117" s="26"/>
+      <c r="AC117" s="27"/>
+      <c r="AD117" s="27"/>
+      <c r="AE117" s="28"/>
       <c r="AF117" s="9"/>
     </row>
     <row r="118" spans="2:32" x14ac:dyDescent="0.25">
@@ -6193,29 +6205,29 @@
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="43"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="44"/>
       <c r="L118" s="4"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
-      <c r="Q118" s="41"/>
-      <c r="R118" s="42"/>
-      <c r="S118" s="42"/>
-      <c r="T118" s="43"/>
+      <c r="Q118" s="42"/>
+      <c r="R118" s="43"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="44"/>
       <c r="V118" s="4"/>
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
-      <c r="AB118" s="22"/>
-      <c r="AC118" s="23"/>
-      <c r="AD118" s="23"/>
-      <c r="AE118" s="24"/>
+      <c r="AB118" s="26"/>
+      <c r="AC118" s="27"/>
+      <c r="AD118" s="27"/>
+      <c r="AE118" s="28"/>
       <c r="AF118" s="9"/>
     </row>
     <row r="119" spans="2:32" x14ac:dyDescent="0.25">
@@ -6224,29 +6236,29 @@
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="43"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="44"/>
       <c r="L119" s="4"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
-      <c r="Q119" s="41"/>
-      <c r="R119" s="42"/>
-      <c r="S119" s="42"/>
-      <c r="T119" s="43"/>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="43"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="44"/>
       <c r="V119" s="4"/>
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
-      <c r="AB119" s="22"/>
-      <c r="AC119" s="23"/>
-      <c r="AD119" s="23"/>
-      <c r="AE119" s="24"/>
+      <c r="AB119" s="26"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="28"/>
       <c r="AF119" s="9"/>
     </row>
     <row r="120" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6255,29 +6267,29 @@
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="43"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="44"/>
       <c r="L120" s="4"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
-      <c r="Q120" s="41"/>
-      <c r="R120" s="42"/>
-      <c r="S120" s="42"/>
-      <c r="T120" s="43"/>
+      <c r="Q120" s="42"/>
+      <c r="R120" s="43"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="44"/>
       <c r="V120" s="4"/>
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="23"/>
-      <c r="AD120" s="23"/>
-      <c r="AE120" s="24"/>
+      <c r="AB120" s="26"/>
+      <c r="AC120" s="27"/>
+      <c r="AD120" s="27"/>
+      <c r="AE120" s="28"/>
       <c r="AF120" s="9"/>
     </row>
     <row r="121" spans="2:32" x14ac:dyDescent="0.25">
@@ -6286,29 +6298,29 @@
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="43"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="44"/>
       <c r="L121" s="4"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
-      <c r="Q121" s="41"/>
-      <c r="R121" s="42"/>
-      <c r="S121" s="42"/>
-      <c r="T121" s="43"/>
+      <c r="Q121" s="42"/>
+      <c r="R121" s="43"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="44"/>
       <c r="V121" s="4"/>
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
-      <c r="AB121" s="22"/>
-      <c r="AC121" s="23"/>
-      <c r="AD121" s="23"/>
-      <c r="AE121" s="24"/>
+      <c r="AB121" s="26"/>
+      <c r="AC121" s="27"/>
+      <c r="AD121" s="27"/>
+      <c r="AE121" s="28"/>
       <c r="AF121" s="9"/>
     </row>
     <row r="122" spans="2:32" x14ac:dyDescent="0.25">
@@ -6317,29 +6329,29 @@
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="43"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="44"/>
       <c r="L122" s="4"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="42"/>
-      <c r="S122" s="42"/>
-      <c r="T122" s="43"/>
+      <c r="Q122" s="42"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="44"/>
       <c r="V122" s="4"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="23"/>
-      <c r="AD122" s="23"/>
-      <c r="AE122" s="24"/>
+      <c r="AB122" s="26"/>
+      <c r="AC122" s="27"/>
+      <c r="AD122" s="27"/>
+      <c r="AE122" s="28"/>
       <c r="AF122" s="9"/>
     </row>
     <row r="123" spans="2:32" x14ac:dyDescent="0.25">
@@ -6348,29 +6360,29 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="43"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="44"/>
       <c r="L123" s="4"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="6"/>
-      <c r="Q123" s="41"/>
-      <c r="R123" s="42"/>
-      <c r="S123" s="42"/>
-      <c r="T123" s="43"/>
+      <c r="Q123" s="42"/>
+      <c r="R123" s="43"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="44"/>
       <c r="V123" s="4"/>
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
-      <c r="AB123" s="22"/>
-      <c r="AC123" s="23"/>
-      <c r="AD123" s="23"/>
-      <c r="AE123" s="24"/>
+      <c r="AB123" s="26"/>
+      <c r="AC123" s="27"/>
+      <c r="AD123" s="27"/>
+      <c r="AE123" s="28"/>
       <c r="AF123" s="9"/>
     </row>
     <row r="124" spans="2:32" x14ac:dyDescent="0.25">
@@ -6379,29 +6391,29 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="43"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="44"/>
       <c r="L124" s="8"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="41"/>
-      <c r="R124" s="42"/>
-      <c r="S124" s="42"/>
-      <c r="T124" s="43"/>
+      <c r="Q124" s="42"/>
+      <c r="R124" s="43"/>
+      <c r="S124" s="43"/>
+      <c r="T124" s="44"/>
       <c r="V124" s="4"/>
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
-      <c r="AB124" s="22"/>
-      <c r="AC124" s="23"/>
-      <c r="AD124" s="23"/>
-      <c r="AE124" s="24"/>
+      <c r="AB124" s="26"/>
+      <c r="AC124" s="27"/>
+      <c r="AD124" s="27"/>
+      <c r="AE124" s="28"/>
       <c r="AF124" s="9"/>
     </row>
     <row r="125" spans="2:32" x14ac:dyDescent="0.25">
@@ -6410,29 +6422,29 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="43"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="44"/>
       <c r="L125" s="8"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="41"/>
-      <c r="R125" s="42"/>
-      <c r="S125" s="42"/>
-      <c r="T125" s="43"/>
+      <c r="Q125" s="42"/>
+      <c r="R125" s="43"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="44"/>
       <c r="V125" s="4"/>
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
-      <c r="AB125" s="22"/>
-      <c r="AC125" s="23"/>
-      <c r="AD125" s="23"/>
-      <c r="AE125" s="24"/>
+      <c r="AB125" s="26"/>
+      <c r="AC125" s="27"/>
+      <c r="AD125" s="27"/>
+      <c r="AE125" s="28"/>
       <c r="AF125" s="9"/>
     </row>
     <row r="126" spans="2:32" x14ac:dyDescent="0.25">
@@ -6441,140 +6453,140 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="45"/>
-      <c r="J126" s="46"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="47"/>
       <c r="L126" s="11"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
       <c r="O126" s="12"/>
       <c r="P126" s="13"/>
-      <c r="Q126" s="44"/>
-      <c r="R126" s="45"/>
-      <c r="S126" s="45"/>
-      <c r="T126" s="46"/>
+      <c r="Q126" s="45"/>
+      <c r="R126" s="46"/>
+      <c r="S126" s="46"/>
+      <c r="T126" s="47"/>
       <c r="V126" s="18"/>
       <c r="W126" s="7"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
       <c r="AA126" s="7"/>
-      <c r="AB126" s="25"/>
-      <c r="AC126" s="26"/>
-      <c r="AD126" s="26"/>
-      <c r="AE126" s="27"/>
+      <c r="AB126" s="29"/>
+      <c r="AC126" s="30"/>
+      <c r="AD126" s="30"/>
+      <c r="AE126" s="31"/>
       <c r="AF126" s="9"/>
     </row>
     <row r="127" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="28" t="s">
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="20"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="30" t="s">
+      <c r="H127" s="24"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L127" s="28" t="s">
+      <c r="L127" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M127" s="20"/>
-      <c r="N127" s="20"/>
-      <c r="O127" s="20"/>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="28" t="s">
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="25"/>
+      <c r="Q127" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R127" s="20"/>
-      <c r="S127" s="21"/>
-      <c r="T127" s="30" t="s">
+      <c r="R127" s="24"/>
+      <c r="S127" s="25"/>
+      <c r="T127" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="V127" s="28" t="s">
+      <c r="V127" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="W127" s="20"/>
-      <c r="X127" s="20"/>
-      <c r="Y127" s="20"/>
-      <c r="Z127" s="20"/>
-      <c r="AA127" s="21"/>
-      <c r="AB127" s="28" t="s">
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="25"/>
+      <c r="AB127" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC127" s="20"/>
-      <c r="AD127" s="21"/>
-      <c r="AE127" s="30" t="s">
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="25"/>
+      <c r="AE127" s="33" t="s">
         <v>4</v>
       </c>
       <c r="AF127" s="9"/>
     </row>
     <row r="128" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B128" s="22"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="31"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="23"/>
-      <c r="N128" s="23"/>
-      <c r="O128" s="23"/>
-      <c r="P128" s="24"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="29"/>
-      <c r="S128" s="24"/>
-      <c r="T128" s="31"/>
-      <c r="V128" s="22"/>
-      <c r="W128" s="23"/>
-      <c r="X128" s="23"/>
-      <c r="Y128" s="23"/>
-      <c r="Z128" s="23"/>
-      <c r="AA128" s="24"/>
-      <c r="AB128" s="22"/>
-      <c r="AC128" s="29"/>
-      <c r="AD128" s="24"/>
-      <c r="AE128" s="31"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="34"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="28"/>
+      <c r="Q128" s="26"/>
+      <c r="R128" s="32"/>
+      <c r="S128" s="28"/>
+      <c r="T128" s="34"/>
+      <c r="V128" s="26"/>
+      <c r="W128" s="27"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="27"/>
+      <c r="AA128" s="28"/>
+      <c r="AB128" s="26"/>
+      <c r="AC128" s="32"/>
+      <c r="AD128" s="28"/>
+      <c r="AE128" s="34"/>
       <c r="AF128" s="9"/>
     </row>
     <row r="129" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B129" s="25"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="32"/>
-      <c r="L129" s="25"/>
-      <c r="M129" s="26"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="26"/>
-      <c r="P129" s="27"/>
-      <c r="Q129" s="25"/>
-      <c r="R129" s="26"/>
-      <c r="S129" s="27"/>
-      <c r="T129" s="32"/>
-      <c r="V129" s="25"/>
-      <c r="W129" s="26"/>
-      <c r="X129" s="26"/>
-      <c r="Y129" s="26"/>
-      <c r="Z129" s="26"/>
-      <c r="AA129" s="27"/>
-      <c r="AB129" s="25"/>
-      <c r="AC129" s="26"/>
-      <c r="AD129" s="27"/>
-      <c r="AE129" s="32"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="35"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="30"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="30"/>
+      <c r="P129" s="31"/>
+      <c r="Q129" s="29"/>
+      <c r="R129" s="30"/>
+      <c r="S129" s="31"/>
+      <c r="T129" s="35"/>
+      <c r="V129" s="29"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="31"/>
+      <c r="AB129" s="29"/>
+      <c r="AC129" s="30"/>
+      <c r="AD129" s="31"/>
+      <c r="AE129" s="35"/>
       <c r="AF129" s="9"/>
     </row>
     <row r="130" spans="2:33" x14ac:dyDescent="0.25">
@@ -6610,54 +6622,54 @@
       <c r="AF135" s="5"/>
     </row>
     <row r="136" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="59"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I136" s="21"/>
+      <c r="J136" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K136" s="21"/>
+      <c r="M136" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N136" s="59"/>
+      <c r="O136" s="59"/>
+      <c r="P136" s="59"/>
+      <c r="Q136" s="59"/>
+      <c r="R136" s="37"/>
+      <c r="S136" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="T136" s="21"/>
+      <c r="U136" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V136" s="21"/>
+      <c r="X136" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="36" t="s">
+      <c r="Y136" s="59"/>
+      <c r="Z136" s="59"/>
+      <c r="AA136" s="59"/>
+      <c r="AB136" s="59"/>
+      <c r="AC136" s="37"/>
+      <c r="AD136" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I136" s="37"/>
-      <c r="J136" s="38" t="s">
+      <c r="AE136" s="21"/>
+      <c r="AF136" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K136" s="37"/>
-      <c r="M136" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N136" s="34"/>
-      <c r="O136" s="34"/>
-      <c r="P136" s="34"/>
-      <c r="Q136" s="34"/>
-      <c r="R136" s="35"/>
-      <c r="S136" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="T136" s="37"/>
-      <c r="U136" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="V136" s="37"/>
-      <c r="X136" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y136" s="34"/>
-      <c r="Z136" s="34"/>
-      <c r="AA136" s="34"/>
-      <c r="AB136" s="34"/>
-      <c r="AC136" s="35"/>
-      <c r="AD136" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE136" s="37"/>
-      <c r="AF136" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG136" s="37"/>
+      <c r="AG136" s="21"/>
     </row>
     <row r="137" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
@@ -6666,42 +6678,42 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I137" s="37"/>
-      <c r="J137" s="36" t="s">
+      <c r="H137" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I137" s="21"/>
+      <c r="J137" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K137" s="37"/>
+      <c r="K137" s="21"/>
       <c r="M137" s="1"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
-      <c r="S137" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="T137" s="37"/>
-      <c r="U137" s="36" t="s">
+      <c r="S137" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T137" s="21"/>
+      <c r="U137" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V137" s="37"/>
+      <c r="V137" s="21"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
-      <c r="AD137" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE137" s="37"/>
-      <c r="AF137" s="36" t="s">
+      <c r="AD137" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE137" s="21"/>
+      <c r="AF137" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AG137" s="37"/>
+      <c r="AG137" s="21"/>
     </row>
     <row r="138" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
@@ -6710,36 +6722,36 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="21"/>
+      <c r="H138" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="25"/>
       <c r="M138" s="4"/>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-      <c r="S138" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="T138" s="20"/>
-      <c r="U138" s="20"/>
-      <c r="V138" s="21"/>
+      <c r="S138" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="T138" s="24"/>
+      <c r="U138" s="24"/>
+      <c r="V138" s="25"/>
       <c r="X138" s="4"/>
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
-      <c r="AD138" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE138" s="20"/>
-      <c r="AF138" s="20"/>
-      <c r="AG138" s="21"/>
+      <c r="AD138" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE138" s="24"/>
+      <c r="AF138" s="24"/>
+      <c r="AG138" s="25"/>
     </row>
     <row r="139" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
@@ -6748,30 +6760,30 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="24"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="28"/>
       <c r="M139" s="4"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-      <c r="S139" s="22"/>
-      <c r="T139" s="23"/>
-      <c r="U139" s="23"/>
-      <c r="V139" s="24"/>
+      <c r="S139" s="26"/>
+      <c r="T139" s="27"/>
+      <c r="U139" s="27"/>
+      <c r="V139" s="28"/>
       <c r="X139" s="4"/>
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
-      <c r="AD139" s="22"/>
-      <c r="AE139" s="23"/>
-      <c r="AF139" s="23"/>
-      <c r="AG139" s="24"/>
+      <c r="AD139" s="26"/>
+      <c r="AE139" s="27"/>
+      <c r="AF139" s="27"/>
+      <c r="AG139" s="28"/>
     </row>
     <row r="140" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
@@ -6780,30 +6792,30 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="22"/>
-      <c r="I140" s="23"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="24"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="28"/>
       <c r="M140" s="4"/>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-      <c r="S140" s="22"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="23"/>
-      <c r="V140" s="24"/>
+      <c r="S140" s="26"/>
+      <c r="T140" s="27"/>
+      <c r="U140" s="27"/>
+      <c r="V140" s="28"/>
       <c r="X140" s="4"/>
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
-      <c r="AD140" s="22"/>
-      <c r="AE140" s="23"/>
-      <c r="AF140" s="23"/>
-      <c r="AG140" s="24"/>
+      <c r="AD140" s="26"/>
+      <c r="AE140" s="27"/>
+      <c r="AF140" s="27"/>
+      <c r="AG140" s="28"/>
     </row>
     <row r="141" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
@@ -6812,30 +6824,30 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="22"/>
-      <c r="I141" s="23"/>
-      <c r="J141" s="23"/>
-      <c r="K141" s="24"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="28"/>
       <c r="M141" s="4"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-      <c r="S141" s="22"/>
-      <c r="T141" s="23"/>
-      <c r="U141" s="23"/>
-      <c r="V141" s="24"/>
+      <c r="S141" s="26"/>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
+      <c r="V141" s="28"/>
       <c r="X141" s="4"/>
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
-      <c r="AD141" s="22"/>
-      <c r="AE141" s="23"/>
-      <c r="AF141" s="23"/>
-      <c r="AG141" s="24"/>
+      <c r="AD141" s="26"/>
+      <c r="AE141" s="27"/>
+      <c r="AF141" s="27"/>
+      <c r="AG141" s="28"/>
     </row>
     <row r="142" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
@@ -6844,30 +6856,30 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="24"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="28"/>
       <c r="M142" s="4"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-      <c r="S142" s="22"/>
-      <c r="T142" s="23"/>
-      <c r="U142" s="23"/>
-      <c r="V142" s="24"/>
+      <c r="S142" s="26"/>
+      <c r="T142" s="27"/>
+      <c r="U142" s="27"/>
+      <c r="V142" s="28"/>
       <c r="X142" s="4"/>
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
-      <c r="AD142" s="22"/>
-      <c r="AE142" s="23"/>
-      <c r="AF142" s="23"/>
-      <c r="AG142" s="24"/>
+      <c r="AD142" s="26"/>
+      <c r="AE142" s="27"/>
+      <c r="AF142" s="27"/>
+      <c r="AG142" s="28"/>
     </row>
     <row r="143" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
@@ -6876,30 +6888,30 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="24"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
+      <c r="K143" s="28"/>
       <c r="M143" s="4"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-      <c r="S143" s="22"/>
-      <c r="T143" s="23"/>
-      <c r="U143" s="23"/>
-      <c r="V143" s="24"/>
+      <c r="S143" s="26"/>
+      <c r="T143" s="27"/>
+      <c r="U143" s="27"/>
+      <c r="V143" s="28"/>
       <c r="X143" s="4"/>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
-      <c r="AD143" s="22"/>
-      <c r="AE143" s="23"/>
-      <c r="AF143" s="23"/>
-      <c r="AG143" s="24"/>
+      <c r="AD143" s="26"/>
+      <c r="AE143" s="27"/>
+      <c r="AF143" s="27"/>
+      <c r="AG143" s="28"/>
     </row>
     <row r="144" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
@@ -6908,30 +6920,30 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="22"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="23"/>
-      <c r="K144" s="24"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="28"/>
       <c r="M144" s="4"/>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-      <c r="S144" s="22"/>
-      <c r="T144" s="23"/>
-      <c r="U144" s="23"/>
-      <c r="V144" s="24"/>
+      <c r="S144" s="26"/>
+      <c r="T144" s="27"/>
+      <c r="U144" s="27"/>
+      <c r="V144" s="28"/>
       <c r="X144" s="4"/>
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
-      <c r="AD144" s="22"/>
-      <c r="AE144" s="23"/>
-      <c r="AF144" s="23"/>
-      <c r="AG144" s="24"/>
+      <c r="AD144" s="26"/>
+      <c r="AE144" s="27"/>
+      <c r="AF144" s="27"/>
+      <c r="AG144" s="28"/>
     </row>
     <row r="145" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
@@ -6940,30 +6952,30 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="27"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="31"/>
       <c r="M145" s="4"/>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="25"/>
-      <c r="T145" s="26"/>
-      <c r="U145" s="26"/>
-      <c r="V145" s="27"/>
+      <c r="S145" s="29"/>
+      <c r="T145" s="30"/>
+      <c r="U145" s="30"/>
+      <c r="V145" s="31"/>
       <c r="X145" s="4"/>
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
       <c r="AC145" s="6"/>
-      <c r="AD145" s="25"/>
-      <c r="AE145" s="26"/>
-      <c r="AF145" s="26"/>
-      <c r="AG145" s="27"/>
+      <c r="AD145" s="29"/>
+      <c r="AE145" s="30"/>
+      <c r="AF145" s="30"/>
+      <c r="AG145" s="31"/>
     </row>
     <row r="146" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
@@ -6972,36 +6984,36 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="21"/>
+      <c r="H146" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="25"/>
       <c r="M146" s="4"/>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-      <c r="S146" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="T146" s="20"/>
-      <c r="U146" s="20"/>
-      <c r="V146" s="21"/>
+      <c r="S146" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="T146" s="24"/>
+      <c r="U146" s="24"/>
+      <c r="V146" s="25"/>
       <c r="X146" s="4"/>
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
-      <c r="AD146" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE146" s="20"/>
-      <c r="AF146" s="20"/>
-      <c r="AG146" s="21"/>
+      <c r="AD146" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE146" s="24"/>
+      <c r="AF146" s="24"/>
+      <c r="AG146" s="25"/>
     </row>
     <row r="147" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
@@ -7010,30 +7022,30 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="24"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="28"/>
       <c r="M147" s="4"/>
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-      <c r="S147" s="22"/>
-      <c r="T147" s="23"/>
-      <c r="U147" s="23"/>
-      <c r="V147" s="24"/>
+      <c r="S147" s="26"/>
+      <c r="T147" s="27"/>
+      <c r="U147" s="27"/>
+      <c r="V147" s="28"/>
       <c r="X147" s="4"/>
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
-      <c r="AD147" s="22"/>
-      <c r="AE147" s="23"/>
-      <c r="AF147" s="23"/>
-      <c r="AG147" s="24"/>
+      <c r="AD147" s="26"/>
+      <c r="AE147" s="27"/>
+      <c r="AF147" s="27"/>
+      <c r="AG147" s="28"/>
     </row>
     <row r="148" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
@@ -7042,30 +7054,30 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="24"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="28"/>
       <c r="M148" s="4"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-      <c r="S148" s="22"/>
-      <c r="T148" s="23"/>
-      <c r="U148" s="23"/>
-      <c r="V148" s="24"/>
+      <c r="S148" s="26"/>
+      <c r="T148" s="27"/>
+      <c r="U148" s="27"/>
+      <c r="V148" s="28"/>
       <c r="X148" s="4"/>
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
-      <c r="AD148" s="22"/>
-      <c r="AE148" s="23"/>
-      <c r="AF148" s="23"/>
-      <c r="AG148" s="24"/>
+      <c r="AD148" s="26"/>
+      <c r="AE148" s="27"/>
+      <c r="AF148" s="27"/>
+      <c r="AG148" s="28"/>
     </row>
     <row r="149" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
@@ -7074,30 +7086,30 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="24"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="28"/>
       <c r="M149" s="4"/>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="22"/>
-      <c r="T149" s="23"/>
-      <c r="U149" s="23"/>
-      <c r="V149" s="24"/>
+      <c r="S149" s="26"/>
+      <c r="T149" s="27"/>
+      <c r="U149" s="27"/>
+      <c r="V149" s="28"/>
       <c r="X149" s="4"/>
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
-      <c r="AD149" s="22"/>
-      <c r="AE149" s="23"/>
-      <c r="AF149" s="23"/>
-      <c r="AG149" s="24"/>
+      <c r="AD149" s="26"/>
+      <c r="AE149" s="27"/>
+      <c r="AF149" s="27"/>
+      <c r="AG149" s="28"/>
     </row>
     <row r="150" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
@@ -7106,30 +7118,30 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="24"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="28"/>
       <c r="M150" s="4"/>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-      <c r="S150" s="22"/>
-      <c r="T150" s="23"/>
-      <c r="U150" s="23"/>
-      <c r="V150" s="24"/>
+      <c r="S150" s="26"/>
+      <c r="T150" s="27"/>
+      <c r="U150" s="27"/>
+      <c r="V150" s="28"/>
       <c r="X150" s="4"/>
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
-      <c r="AD150" s="22"/>
-      <c r="AE150" s="23"/>
-      <c r="AF150" s="23"/>
-      <c r="AG150" s="24"/>
+      <c r="AD150" s="26"/>
+      <c r="AE150" s="27"/>
+      <c r="AF150" s="27"/>
+      <c r="AG150" s="28"/>
     </row>
     <row r="151" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
@@ -7138,30 +7150,30 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="24"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="28"/>
       <c r="M151" s="4"/>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-      <c r="S151" s="22"/>
-      <c r="T151" s="23"/>
-      <c r="U151" s="23"/>
-      <c r="V151" s="24"/>
+      <c r="S151" s="26"/>
+      <c r="T151" s="27"/>
+      <c r="U151" s="27"/>
+      <c r="V151" s="28"/>
       <c r="X151" s="4"/>
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
-      <c r="AD151" s="22"/>
-      <c r="AE151" s="23"/>
-      <c r="AF151" s="23"/>
-      <c r="AG151" s="24"/>
+      <c r="AD151" s="26"/>
+      <c r="AE151" s="27"/>
+      <c r="AF151" s="27"/>
+      <c r="AG151" s="28"/>
     </row>
     <row r="152" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
@@ -7170,30 +7182,30 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-      <c r="H152" s="22"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="24"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="28"/>
       <c r="M152" s="4"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-      <c r="S152" s="22"/>
-      <c r="T152" s="23"/>
-      <c r="U152" s="23"/>
-      <c r="V152" s="24"/>
+      <c r="S152" s="26"/>
+      <c r="T152" s="27"/>
+      <c r="U152" s="27"/>
+      <c r="V152" s="28"/>
       <c r="X152" s="4"/>
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
-      <c r="AD152" s="22"/>
-      <c r="AE152" s="23"/>
-      <c r="AF152" s="23"/>
-      <c r="AG152" s="24"/>
+      <c r="AD152" s="26"/>
+      <c r="AE152" s="27"/>
+      <c r="AF152" s="27"/>
+      <c r="AG152" s="28"/>
     </row>
     <row r="153" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
@@ -7202,30 +7214,30 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
-      <c r="H153" s="22"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="24"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="28"/>
       <c r="M153" s="4"/>
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-      <c r="S153" s="22"/>
-      <c r="T153" s="23"/>
-      <c r="U153" s="23"/>
-      <c r="V153" s="24"/>
+      <c r="S153" s="26"/>
+      <c r="T153" s="27"/>
+      <c r="U153" s="27"/>
+      <c r="V153" s="28"/>
       <c r="X153" s="4"/>
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
-      <c r="AD153" s="22"/>
-      <c r="AE153" s="23"/>
-      <c r="AF153" s="23"/>
-      <c r="AG153" s="24"/>
+      <c r="AD153" s="26"/>
+      <c r="AE153" s="27"/>
+      <c r="AF153" s="27"/>
+      <c r="AG153" s="28"/>
     </row>
     <row r="154" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
@@ -7234,30 +7246,30 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="23"/>
-      <c r="K154" s="24"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="28"/>
       <c r="M154" s="4"/>
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-      <c r="S154" s="22"/>
-      <c r="T154" s="23"/>
-      <c r="U154" s="23"/>
-      <c r="V154" s="24"/>
+      <c r="S154" s="26"/>
+      <c r="T154" s="27"/>
+      <c r="U154" s="27"/>
+      <c r="V154" s="28"/>
       <c r="X154" s="4"/>
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
-      <c r="AD154" s="22"/>
-      <c r="AE154" s="23"/>
-      <c r="AF154" s="23"/>
-      <c r="AG154" s="24"/>
+      <c r="AD154" s="26"/>
+      <c r="AE154" s="27"/>
+      <c r="AF154" s="27"/>
+      <c r="AG154" s="28"/>
     </row>
     <row r="155" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
@@ -7266,30 +7278,30 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="24"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="28"/>
       <c r="M155" s="4"/>
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-      <c r="S155" s="22"/>
-      <c r="T155" s="23"/>
-      <c r="U155" s="23"/>
-      <c r="V155" s="24"/>
+      <c r="S155" s="26"/>
+      <c r="T155" s="27"/>
+      <c r="U155" s="27"/>
+      <c r="V155" s="28"/>
       <c r="X155" s="4"/>
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
-      <c r="AD155" s="22"/>
-      <c r="AE155" s="23"/>
-      <c r="AF155" s="23"/>
-      <c r="AG155" s="24"/>
+      <c r="AD155" s="26"/>
+      <c r="AE155" s="27"/>
+      <c r="AF155" s="27"/>
+      <c r="AG155" s="28"/>
     </row>
     <row r="156" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
@@ -7298,30 +7310,30 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="22"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="24"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="28"/>
       <c r="M156" s="4"/>
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-      <c r="S156" s="22"/>
-      <c r="T156" s="23"/>
-      <c r="U156" s="23"/>
-      <c r="V156" s="24"/>
+      <c r="S156" s="26"/>
+      <c r="T156" s="27"/>
+      <c r="U156" s="27"/>
+      <c r="V156" s="28"/>
       <c r="X156" s="4"/>
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
-      <c r="AD156" s="22"/>
-      <c r="AE156" s="23"/>
-      <c r="AF156" s="23"/>
-      <c r="AG156" s="24"/>
+      <c r="AD156" s="26"/>
+      <c r="AE156" s="27"/>
+      <c r="AF156" s="27"/>
+      <c r="AG156" s="28"/>
     </row>
     <row r="157" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
@@ -7330,30 +7342,30 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="22"/>
-      <c r="I157" s="23"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="24"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="28"/>
       <c r="M157" s="4"/>
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-      <c r="S157" s="22"/>
-      <c r="T157" s="23"/>
-      <c r="U157" s="23"/>
-      <c r="V157" s="24"/>
+      <c r="S157" s="26"/>
+      <c r="T157" s="27"/>
+      <c r="U157" s="27"/>
+      <c r="V157" s="28"/>
       <c r="X157" s="4"/>
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
-      <c r="AD157" s="22"/>
-      <c r="AE157" s="23"/>
-      <c r="AF157" s="23"/>
-      <c r="AG157" s="24"/>
+      <c r="AD157" s="26"/>
+      <c r="AE157" s="27"/>
+      <c r="AF157" s="27"/>
+      <c r="AG157" s="28"/>
     </row>
     <row r="158" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
@@ -7362,30 +7374,30 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="22"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="23"/>
-      <c r="K158" s="24"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="28"/>
       <c r="M158" s="4"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-      <c r="S158" s="22"/>
-      <c r="T158" s="23"/>
-      <c r="U158" s="23"/>
-      <c r="V158" s="24"/>
+      <c r="S158" s="26"/>
+      <c r="T158" s="27"/>
+      <c r="U158" s="27"/>
+      <c r="V158" s="28"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
-      <c r="AD158" s="22"/>
-      <c r="AE158" s="23"/>
-      <c r="AF158" s="23"/>
-      <c r="AG158" s="24"/>
+      <c r="AD158" s="26"/>
+      <c r="AE158" s="27"/>
+      <c r="AF158" s="27"/>
+      <c r="AG158" s="28"/>
     </row>
     <row r="159" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
@@ -7394,30 +7406,30 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="22"/>
-      <c r="I159" s="23"/>
-      <c r="J159" s="23"/>
-      <c r="K159" s="24"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="28"/>
       <c r="M159" s="4"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-      <c r="S159" s="22"/>
-      <c r="T159" s="23"/>
-      <c r="U159" s="23"/>
-      <c r="V159" s="24"/>
+      <c r="S159" s="26"/>
+      <c r="T159" s="27"/>
+      <c r="U159" s="27"/>
+      <c r="V159" s="28"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
-      <c r="AD159" s="22"/>
-      <c r="AE159" s="23"/>
-      <c r="AF159" s="23"/>
-      <c r="AG159" s="24"/>
+      <c r="AD159" s="26"/>
+      <c r="AE159" s="27"/>
+      <c r="AF159" s="27"/>
+      <c r="AG159" s="28"/>
     </row>
     <row r="160" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B160" s="18"/>
@@ -7426,178 +7438,178 @@
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="26"/>
-      <c r="J160" s="26"/>
-      <c r="K160" s="27"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="31"/>
       <c r="M160" s="18"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
-      <c r="S160" s="25"/>
-      <c r="T160" s="26"/>
-      <c r="U160" s="26"/>
-      <c r="V160" s="27"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="30"/>
+      <c r="U160" s="30"/>
+      <c r="V160" s="31"/>
       <c r="X160" s="18"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
       <c r="AA160" s="7"/>
       <c r="AB160" s="7"/>
       <c r="AC160" s="7"/>
-      <c r="AD160" s="25"/>
-      <c r="AE160" s="26"/>
-      <c r="AF160" s="26"/>
-      <c r="AG160" s="27"/>
+      <c r="AD160" s="29"/>
+      <c r="AE160" s="30"/>
+      <c r="AF160" s="30"/>
+      <c r="AG160" s="31"/>
     </row>
     <row r="161" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B161" s="28" t="s">
+      <c r="B161" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="28" t="s">
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I161" s="20"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="30" t="s">
+      <c r="I161" s="24"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M161" s="28" t="s">
+      <c r="M161" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N161" s="20"/>
-      <c r="O161" s="20"/>
-      <c r="P161" s="20"/>
-      <c r="Q161" s="20"/>
-      <c r="R161" s="21"/>
-      <c r="S161" s="28" t="s">
+      <c r="N161" s="24"/>
+      <c r="O161" s="24"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="24"/>
+      <c r="R161" s="25"/>
+      <c r="S161" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T161" s="20"/>
-      <c r="U161" s="21"/>
-      <c r="V161" s="30" t="s">
+      <c r="T161" s="24"/>
+      <c r="U161" s="25"/>
+      <c r="V161" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="X161" s="28" t="s">
+      <c r="X161" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Y161" s="20"/>
-      <c r="Z161" s="20"/>
-      <c r="AA161" s="20"/>
-      <c r="AB161" s="20"/>
-      <c r="AC161" s="21"/>
-      <c r="AD161" s="28" t="s">
+      <c r="Y161" s="24"/>
+      <c r="Z161" s="24"/>
+      <c r="AA161" s="24"/>
+      <c r="AB161" s="24"/>
+      <c r="AC161" s="25"/>
+      <c r="AD161" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AE161" s="20"/>
-      <c r="AF161" s="21"/>
-      <c r="AG161" s="30" t="s">
+      <c r="AE161" s="24"/>
+      <c r="AF161" s="25"/>
+      <c r="AG161" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="162" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B162" s="22"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="22"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="31"/>
-      <c r="M162" s="22"/>
-      <c r="N162" s="23"/>
-      <c r="O162" s="23"/>
-      <c r="P162" s="23"/>
-      <c r="Q162" s="23"/>
-      <c r="R162" s="24"/>
-      <c r="S162" s="22"/>
-      <c r="T162" s="29"/>
-      <c r="U162" s="24"/>
-      <c r="V162" s="31"/>
-      <c r="X162" s="22"/>
-      <c r="Y162" s="23"/>
-      <c r="Z162" s="23"/>
-      <c r="AA162" s="23"/>
-      <c r="AB162" s="23"/>
-      <c r="AC162" s="24"/>
-      <c r="AD162" s="22"/>
-      <c r="AE162" s="29"/>
-      <c r="AF162" s="24"/>
-      <c r="AG162" s="31"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="34"/>
+      <c r="M162" s="26"/>
+      <c r="N162" s="27"/>
+      <c r="O162" s="27"/>
+      <c r="P162" s="27"/>
+      <c r="Q162" s="27"/>
+      <c r="R162" s="28"/>
+      <c r="S162" s="26"/>
+      <c r="T162" s="32"/>
+      <c r="U162" s="28"/>
+      <c r="V162" s="34"/>
+      <c r="X162" s="26"/>
+      <c r="Y162" s="27"/>
+      <c r="Z162" s="27"/>
+      <c r="AA162" s="27"/>
+      <c r="AB162" s="27"/>
+      <c r="AC162" s="28"/>
+      <c r="AD162" s="26"/>
+      <c r="AE162" s="32"/>
+      <c r="AF162" s="28"/>
+      <c r="AG162" s="34"/>
     </row>
     <row r="163" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B163" s="25"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="25"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="32"/>
-      <c r="M163" s="25"/>
-      <c r="N163" s="26"/>
-      <c r="O163" s="26"/>
-      <c r="P163" s="26"/>
-      <c r="Q163" s="26"/>
-      <c r="R163" s="27"/>
-      <c r="S163" s="25"/>
-      <c r="T163" s="26"/>
-      <c r="U163" s="27"/>
-      <c r="V163" s="32"/>
-      <c r="X163" s="25"/>
-      <c r="Y163" s="26"/>
-      <c r="Z163" s="26"/>
-      <c r="AA163" s="26"/>
-      <c r="AB163" s="26"/>
-      <c r="AC163" s="27"/>
-      <c r="AD163" s="25"/>
-      <c r="AE163" s="26"/>
-      <c r="AF163" s="27"/>
-      <c r="AG163" s="32"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="35"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="30"/>
+      <c r="O163" s="30"/>
+      <c r="P163" s="30"/>
+      <c r="Q163" s="30"/>
+      <c r="R163" s="31"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="30"/>
+      <c r="U163" s="31"/>
+      <c r="V163" s="35"/>
+      <c r="X163" s="29"/>
+      <c r="Y163" s="30"/>
+      <c r="Z163" s="30"/>
+      <c r="AA163" s="30"/>
+      <c r="AB163" s="30"/>
+      <c r="AC163" s="31"/>
+      <c r="AD163" s="29"/>
+      <c r="AE163" s="30"/>
+      <c r="AF163" s="31"/>
+      <c r="AG163" s="35"/>
     </row>
     <row r="169" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B169" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="34"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="36" t="s">
+      <c r="B169" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I169" s="37"/>
-      <c r="J169" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="K169" s="37"/>
-      <c r="M169" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="N169" s="34"/>
-      <c r="O169" s="34"/>
-      <c r="P169" s="34"/>
-      <c r="Q169" s="34"/>
-      <c r="R169" s="35"/>
-      <c r="S169" s="36" t="s">
+      <c r="I169" s="21"/>
+      <c r="J169" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K169" s="21"/>
+      <c r="M169" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="N169" s="59"/>
+      <c r="O169" s="59"/>
+      <c r="P169" s="59"/>
+      <c r="Q169" s="59"/>
+      <c r="R169" s="37"/>
+      <c r="S169" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="T169" s="37"/>
-      <c r="U169" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="V169" s="37"/>
+      <c r="T169" s="21"/>
+      <c r="U169" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="V169" s="21"/>
     </row>
     <row r="170" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
@@ -7606,28 +7618,28 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I170" s="37"/>
-      <c r="J170" s="36" t="s">
+      <c r="H170" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I170" s="21"/>
+      <c r="J170" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K170" s="37"/>
+      <c r="K170" s="21"/>
       <c r="M170" s="1"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
-      <c r="S170" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="T170" s="37"/>
-      <c r="U170" s="36" t="s">
+      <c r="S170" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T170" s="21"/>
+      <c r="U170" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V170" s="37"/>
+      <c r="V170" s="21"/>
     </row>
     <row r="171" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
@@ -7636,24 +7648,24 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
-      <c r="H171" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I171" s="20"/>
-      <c r="J171" s="20"/>
-      <c r="K171" s="21"/>
+      <c r="H171" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="25"/>
       <c r="M171" s="4"/>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-      <c r="S171" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="T171" s="20"/>
-      <c r="U171" s="20"/>
-      <c r="V171" s="21"/>
+      <c r="S171" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T171" s="24"/>
+      <c r="U171" s="24"/>
+      <c r="V171" s="25"/>
     </row>
     <row r="172" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
@@ -7662,20 +7674,20 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="22"/>
-      <c r="I172" s="23"/>
-      <c r="J172" s="23"/>
-      <c r="K172" s="24"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="27"/>
+      <c r="K172" s="28"/>
       <c r="M172" s="4"/>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-      <c r="S172" s="22"/>
-      <c r="T172" s="23"/>
-      <c r="U172" s="23"/>
-      <c r="V172" s="24"/>
+      <c r="S172" s="26"/>
+      <c r="T172" s="27"/>
+      <c r="U172" s="27"/>
+      <c r="V172" s="28"/>
     </row>
     <row r="173" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
@@ -7684,20 +7696,20 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
-      <c r="H173" s="22"/>
-      <c r="I173" s="23"/>
-      <c r="J173" s="23"/>
-      <c r="K173" s="24"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="28"/>
       <c r="M173" s="4"/>
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-      <c r="S173" s="22"/>
-      <c r="T173" s="23"/>
-      <c r="U173" s="23"/>
-      <c r="V173" s="24"/>
+      <c r="S173" s="26"/>
+      <c r="T173" s="27"/>
+      <c r="U173" s="27"/>
+      <c r="V173" s="28"/>
     </row>
     <row r="174" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
@@ -7706,20 +7718,20 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
-      <c r="H174" s="22"/>
-      <c r="I174" s="23"/>
-      <c r="J174" s="23"/>
-      <c r="K174" s="24"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+      <c r="K174" s="28"/>
       <c r="M174" s="4"/>
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-      <c r="S174" s="22"/>
-      <c r="T174" s="23"/>
-      <c r="U174" s="23"/>
-      <c r="V174" s="24"/>
+      <c r="S174" s="26"/>
+      <c r="T174" s="27"/>
+      <c r="U174" s="27"/>
+      <c r="V174" s="28"/>
     </row>
     <row r="175" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
@@ -7728,20 +7740,20 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="22"/>
-      <c r="I175" s="23"/>
-      <c r="J175" s="23"/>
-      <c r="K175" s="24"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="27"/>
+      <c r="K175" s="28"/>
       <c r="M175" s="4"/>
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-      <c r="S175" s="22"/>
-      <c r="T175" s="23"/>
-      <c r="U175" s="23"/>
-      <c r="V175" s="24"/>
+      <c r="S175" s="26"/>
+      <c r="T175" s="27"/>
+      <c r="U175" s="27"/>
+      <c r="V175" s="28"/>
     </row>
     <row r="176" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
@@ -7750,20 +7762,20 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="22"/>
-      <c r="I176" s="23"/>
-      <c r="J176" s="23"/>
-      <c r="K176" s="24"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+      <c r="K176" s="28"/>
       <c r="M176" s="4"/>
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-      <c r="S176" s="22"/>
-      <c r="T176" s="23"/>
-      <c r="U176" s="23"/>
-      <c r="V176" s="24"/>
+      <c r="S176" s="26"/>
+      <c r="T176" s="27"/>
+      <c r="U176" s="27"/>
+      <c r="V176" s="28"/>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
@@ -7772,20 +7784,20 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="23"/>
-      <c r="J177" s="23"/>
-      <c r="K177" s="24"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="28"/>
       <c r="M177" s="4"/>
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-      <c r="S177" s="22"/>
-      <c r="T177" s="23"/>
-      <c r="U177" s="23"/>
-      <c r="V177" s="24"/>
+      <c r="S177" s="26"/>
+      <c r="T177" s="27"/>
+      <c r="U177" s="27"/>
+      <c r="V177" s="28"/>
     </row>
     <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
@@ -7794,20 +7806,20 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="27"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="31"/>
       <c r="M178" s="4"/>
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="6"/>
-      <c r="S178" s="25"/>
-      <c r="T178" s="26"/>
-      <c r="U178" s="26"/>
-      <c r="V178" s="27"/>
+      <c r="S178" s="29"/>
+      <c r="T178" s="30"/>
+      <c r="U178" s="30"/>
+      <c r="V178" s="31"/>
     </row>
     <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
@@ -7816,24 +7828,24 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
-      <c r="H179" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I179" s="20"/>
-      <c r="J179" s="20"/>
-      <c r="K179" s="21"/>
+      <c r="H179" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="25"/>
       <c r="M179" s="4"/>
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-      <c r="S179" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="T179" s="20"/>
-      <c r="U179" s="20"/>
-      <c r="V179" s="21"/>
+      <c r="S179" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="T179" s="24"/>
+      <c r="U179" s="24"/>
+      <c r="V179" s="25"/>
     </row>
     <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
@@ -7842,20 +7854,20 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="22"/>
-      <c r="I180" s="23"/>
-      <c r="J180" s="23"/>
-      <c r="K180" s="24"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="28"/>
       <c r="M180" s="4"/>
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-      <c r="S180" s="22"/>
-      <c r="T180" s="23"/>
-      <c r="U180" s="23"/>
-      <c r="V180" s="24"/>
+      <c r="S180" s="26"/>
+      <c r="T180" s="27"/>
+      <c r="U180" s="27"/>
+      <c r="V180" s="28"/>
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
@@ -7864,20 +7876,20 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
-      <c r="H181" s="22"/>
-      <c r="I181" s="23"/>
-      <c r="J181" s="23"/>
-      <c r="K181" s="24"/>
+      <c r="H181" s="26"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="28"/>
       <c r="M181" s="4"/>
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-      <c r="S181" s="22"/>
-      <c r="T181" s="23"/>
-      <c r="U181" s="23"/>
-      <c r="V181" s="24"/>
+      <c r="S181" s="26"/>
+      <c r="T181" s="27"/>
+      <c r="U181" s="27"/>
+      <c r="V181" s="28"/>
     </row>
     <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
@@ -7886,20 +7898,20 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="23"/>
-      <c r="J182" s="23"/>
-      <c r="K182" s="24"/>
+      <c r="H182" s="26"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="28"/>
       <c r="M182" s="4"/>
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-      <c r="S182" s="22"/>
-      <c r="T182" s="23"/>
-      <c r="U182" s="23"/>
-      <c r="V182" s="24"/>
+      <c r="S182" s="26"/>
+      <c r="T182" s="27"/>
+      <c r="U182" s="27"/>
+      <c r="V182" s="28"/>
     </row>
     <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
@@ -7908,20 +7920,20 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="22"/>
-      <c r="I183" s="23"/>
-      <c r="J183" s="23"/>
-      <c r="K183" s="24"/>
+      <c r="H183" s="26"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+      <c r="K183" s="28"/>
       <c r="M183" s="4"/>
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-      <c r="S183" s="22"/>
-      <c r="T183" s="23"/>
-      <c r="U183" s="23"/>
-      <c r="V183" s="24"/>
+      <c r="S183" s="26"/>
+      <c r="T183" s="27"/>
+      <c r="U183" s="27"/>
+      <c r="V183" s="28"/>
     </row>
     <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
@@ -7930,20 +7942,20 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
-      <c r="H184" s="22"/>
-      <c r="I184" s="23"/>
-      <c r="J184" s="23"/>
-      <c r="K184" s="24"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+      <c r="K184" s="28"/>
       <c r="M184" s="4"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="22"/>
-      <c r="T184" s="23"/>
-      <c r="U184" s="23"/>
-      <c r="V184" s="24"/>
+      <c r="S184" s="26"/>
+      <c r="T184" s="27"/>
+      <c r="U184" s="27"/>
+      <c r="V184" s="28"/>
     </row>
     <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
@@ -7952,20 +7964,20 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="22"/>
-      <c r="I185" s="23"/>
-      <c r="J185" s="23"/>
-      <c r="K185" s="24"/>
+      <c r="H185" s="26"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+      <c r="K185" s="28"/>
       <c r="M185" s="4"/>
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-      <c r="S185" s="22"/>
-      <c r="T185" s="23"/>
-      <c r="U185" s="23"/>
-      <c r="V185" s="24"/>
+      <c r="S185" s="26"/>
+      <c r="T185" s="27"/>
+      <c r="U185" s="27"/>
+      <c r="V185" s="28"/>
     </row>
     <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
@@ -7974,20 +7986,20 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="22"/>
-      <c r="I186" s="23"/>
-      <c r="J186" s="23"/>
-      <c r="K186" s="24"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+      <c r="K186" s="28"/>
       <c r="M186" s="4"/>
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-      <c r="S186" s="22"/>
-      <c r="T186" s="23"/>
-      <c r="U186" s="23"/>
-      <c r="V186" s="24"/>
+      <c r="S186" s="26"/>
+      <c r="T186" s="27"/>
+      <c r="U186" s="27"/>
+      <c r="V186" s="28"/>
     </row>
     <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
@@ -7996,20 +8008,20 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="22"/>
-      <c r="I187" s="23"/>
-      <c r="J187" s="23"/>
-      <c r="K187" s="24"/>
+      <c r="H187" s="26"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+      <c r="K187" s="28"/>
       <c r="M187" s="4"/>
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-      <c r="S187" s="22"/>
-      <c r="T187" s="23"/>
-      <c r="U187" s="23"/>
-      <c r="V187" s="24"/>
+      <c r="S187" s="26"/>
+      <c r="T187" s="27"/>
+      <c r="U187" s="27"/>
+      <c r="V187" s="28"/>
     </row>
     <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
@@ -8018,20 +8030,20 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="22"/>
-      <c r="I188" s="23"/>
-      <c r="J188" s="23"/>
-      <c r="K188" s="24"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="28"/>
       <c r="M188" s="4"/>
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-      <c r="S188" s="22"/>
-      <c r="T188" s="23"/>
-      <c r="U188" s="23"/>
-      <c r="V188" s="24"/>
+      <c r="S188" s="26"/>
+      <c r="T188" s="27"/>
+      <c r="U188" s="27"/>
+      <c r="V188" s="28"/>
     </row>
     <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
@@ -8040,20 +8052,20 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
-      <c r="H189" s="22"/>
-      <c r="I189" s="23"/>
-      <c r="J189" s="23"/>
-      <c r="K189" s="24"/>
+      <c r="H189" s="26"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+      <c r="K189" s="28"/>
       <c r="M189" s="4"/>
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-      <c r="S189" s="22"/>
-      <c r="T189" s="23"/>
-      <c r="U189" s="23"/>
-      <c r="V189" s="24"/>
+      <c r="S189" s="26"/>
+      <c r="T189" s="27"/>
+      <c r="U189" s="27"/>
+      <c r="V189" s="28"/>
     </row>
     <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
@@ -8062,20 +8074,20 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
-      <c r="H190" s="22"/>
-      <c r="I190" s="23"/>
-      <c r="J190" s="23"/>
-      <c r="K190" s="24"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+      <c r="K190" s="28"/>
       <c r="M190" s="4"/>
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-      <c r="S190" s="22"/>
-      <c r="T190" s="23"/>
-      <c r="U190" s="23"/>
-      <c r="V190" s="24"/>
+      <c r="S190" s="26"/>
+      <c r="T190" s="27"/>
+      <c r="U190" s="27"/>
+      <c r="V190" s="28"/>
     </row>
     <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
@@ -8084,20 +8096,20 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="22"/>
-      <c r="I191" s="23"/>
-      <c r="J191" s="23"/>
-      <c r="K191" s="24"/>
+      <c r="H191" s="26"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+      <c r="K191" s="28"/>
       <c r="M191" s="4"/>
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-      <c r="S191" s="22"/>
-      <c r="T191" s="23"/>
-      <c r="U191" s="23"/>
-      <c r="V191" s="24"/>
+      <c r="S191" s="26"/>
+      <c r="T191" s="27"/>
+      <c r="U191" s="27"/>
+      <c r="V191" s="28"/>
     </row>
     <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
@@ -8106,20 +8118,20 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
-      <c r="H192" s="22"/>
-      <c r="I192" s="23"/>
-      <c r="J192" s="23"/>
-      <c r="K192" s="24"/>
+      <c r="H192" s="26"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
+      <c r="K192" s="28"/>
       <c r="M192" s="4"/>
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-      <c r="S192" s="22"/>
-      <c r="T192" s="23"/>
-      <c r="U192" s="23"/>
-      <c r="V192" s="24"/>
+      <c r="S192" s="26"/>
+      <c r="T192" s="27"/>
+      <c r="U192" s="27"/>
+      <c r="V192" s="28"/>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="18"/>
@@ -8128,101 +8140,247 @@
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="25"/>
-      <c r="I193" s="26"/>
-      <c r="J193" s="26"/>
-      <c r="K193" s="27"/>
+      <c r="H193" s="29"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
+      <c r="K193" s="31"/>
       <c r="M193" s="18"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7"/>
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
       <c r="R193" s="7"/>
-      <c r="S193" s="25"/>
-      <c r="T193" s="26"/>
-      <c r="U193" s="26"/>
-      <c r="V193" s="27"/>
+      <c r="S193" s="29"/>
+      <c r="T193" s="30"/>
+      <c r="U193" s="30"/>
+      <c r="V193" s="31"/>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B194" s="28" t="s">
+      <c r="B194" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C194" s="20"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="28" t="s">
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I194" s="20"/>
-      <c r="J194" s="21"/>
-      <c r="K194" s="30" t="s">
+      <c r="I194" s="24"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M194" s="28" t="s">
+      <c r="M194" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N194" s="20"/>
-      <c r="O194" s="20"/>
-      <c r="P194" s="20"/>
-      <c r="Q194" s="20"/>
-      <c r="R194" s="21"/>
-      <c r="S194" s="28" t="s">
+      <c r="N194" s="24"/>
+      <c r="O194" s="24"/>
+      <c r="P194" s="24"/>
+      <c r="Q194" s="24"/>
+      <c r="R194" s="25"/>
+      <c r="S194" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T194" s="20"/>
-      <c r="U194" s="21"/>
-      <c r="V194" s="30" t="s">
+      <c r="T194" s="24"/>
+      <c r="U194" s="25"/>
+      <c r="V194" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B195" s="22"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="23"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="22"/>
-      <c r="I195" s="29"/>
-      <c r="J195" s="24"/>
-      <c r="K195" s="31"/>
-      <c r="M195" s="22"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="23"/>
-      <c r="P195" s="23"/>
-      <c r="Q195" s="23"/>
-      <c r="R195" s="24"/>
-      <c r="S195" s="22"/>
-      <c r="T195" s="29"/>
-      <c r="U195" s="24"/>
-      <c r="V195" s="31"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="32"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="34"/>
+      <c r="M195" s="26"/>
+      <c r="N195" s="27"/>
+      <c r="O195" s="27"/>
+      <c r="P195" s="27"/>
+      <c r="Q195" s="27"/>
+      <c r="R195" s="28"/>
+      <c r="S195" s="26"/>
+      <c r="T195" s="32"/>
+      <c r="U195" s="28"/>
+      <c r="V195" s="34"/>
     </row>
     <row r="196" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B196" s="25"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="26"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="25"/>
-      <c r="I196" s="26"/>
-      <c r="J196" s="27"/>
-      <c r="K196" s="32"/>
-      <c r="M196" s="25"/>
-      <c r="N196" s="26"/>
-      <c r="O196" s="26"/>
-      <c r="P196" s="26"/>
-      <c r="Q196" s="26"/>
-      <c r="R196" s="27"/>
-      <c r="S196" s="25"/>
-      <c r="T196" s="26"/>
-      <c r="U196" s="27"/>
-      <c r="V196" s="32"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="29"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="31"/>
+      <c r="K196" s="35"/>
+      <c r="M196" s="29"/>
+      <c r="N196" s="30"/>
+      <c r="O196" s="30"/>
+      <c r="P196" s="30"/>
+      <c r="Q196" s="30"/>
+      <c r="R196" s="31"/>
+      <c r="S196" s="29"/>
+      <c r="T196" s="30"/>
+      <c r="U196" s="31"/>
+      <c r="V196" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="S171:V178"/>
+    <mergeCell ref="S179:V193"/>
+    <mergeCell ref="M194:R196"/>
+    <mergeCell ref="S194:U196"/>
+    <mergeCell ref="V194:V196"/>
+    <mergeCell ref="M169:R169"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="U169:V169"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="U170:V170"/>
+    <mergeCell ref="H171:K178"/>
+    <mergeCell ref="H179:K193"/>
+    <mergeCell ref="B194:G196"/>
+    <mergeCell ref="H194:J196"/>
+    <mergeCell ref="K194:K196"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="AD138:AG145"/>
+    <mergeCell ref="AD146:AG160"/>
+    <mergeCell ref="X161:AC163"/>
+    <mergeCell ref="AD161:AF163"/>
+    <mergeCell ref="AG161:AG163"/>
+    <mergeCell ref="X136:AC136"/>
+    <mergeCell ref="AD136:AE136"/>
+    <mergeCell ref="AF136:AG136"/>
+    <mergeCell ref="AD137:AE137"/>
+    <mergeCell ref="AF137:AG137"/>
+    <mergeCell ref="B161:G163"/>
+    <mergeCell ref="H161:J163"/>
+    <mergeCell ref="K161:K163"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="M136:R136"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="S138:V145"/>
+    <mergeCell ref="S146:V160"/>
+    <mergeCell ref="M161:R163"/>
+    <mergeCell ref="S161:U163"/>
+    <mergeCell ref="V161:V163"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="H138:K145"/>
+    <mergeCell ref="H146:K160"/>
+    <mergeCell ref="AB103:AC103"/>
+    <mergeCell ref="AD103:AE103"/>
+    <mergeCell ref="AB104:AE111"/>
+    <mergeCell ref="AB112:AE126"/>
+    <mergeCell ref="V127:AA129"/>
+    <mergeCell ref="AB127:AD129"/>
+    <mergeCell ref="AE127:AE129"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="AD102:AE102"/>
+    <mergeCell ref="V102:AA102"/>
+    <mergeCell ref="Q104:T111"/>
+    <mergeCell ref="Q112:T126"/>
+    <mergeCell ref="L127:P129"/>
+    <mergeCell ref="Q127:S129"/>
+    <mergeCell ref="T127:T129"/>
+    <mergeCell ref="L102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="G104:J111"/>
+    <mergeCell ref="G112:J126"/>
+    <mergeCell ref="B127:F129"/>
+    <mergeCell ref="G127:I129"/>
+    <mergeCell ref="J127:J129"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="AA71:AD78"/>
+    <mergeCell ref="AA79:AD93"/>
+    <mergeCell ref="V94:Z96"/>
+    <mergeCell ref="AA94:AC96"/>
+    <mergeCell ref="AD94:AD96"/>
+    <mergeCell ref="V69:Z69"/>
+    <mergeCell ref="AA69:AB69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="AA70:AB70"/>
+    <mergeCell ref="AC70:AD70"/>
+    <mergeCell ref="Q71:T78"/>
+    <mergeCell ref="Q79:T93"/>
+    <mergeCell ref="L94:P96"/>
+    <mergeCell ref="Q94:S96"/>
+    <mergeCell ref="T94:T96"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="G71:J78"/>
+    <mergeCell ref="G79:J93"/>
+    <mergeCell ref="B94:F96"/>
+    <mergeCell ref="G94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="Q13:T27"/>
+    <mergeCell ref="AA13:AD27"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="AA28:AC30"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="V28:Z30"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L28:P30"/>
+    <mergeCell ref="Q28:S30"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B28:F30"/>
+    <mergeCell ref="V61:Z63"/>
+    <mergeCell ref="AA61:AC63"/>
+    <mergeCell ref="AD61:AD63"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="G38:J45"/>
+    <mergeCell ref="G46:J60"/>
+    <mergeCell ref="Q46:T60"/>
+    <mergeCell ref="Q38:T45"/>
+    <mergeCell ref="AA38:AD45"/>
+    <mergeCell ref="AA46:AD60"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="G5:J12"/>
+    <mergeCell ref="Q5:T12"/>
+    <mergeCell ref="AA5:AD12"/>
+    <mergeCell ref="G13:J27"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="I3:J3"/>
@@ -8247,152 +8405,6 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="L36:P36"/>
     <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B28:F30"/>
-    <mergeCell ref="V61:Z63"/>
-    <mergeCell ref="AA61:AC63"/>
-    <mergeCell ref="AD61:AD63"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="G38:J45"/>
-    <mergeCell ref="G46:J60"/>
-    <mergeCell ref="Q46:T60"/>
-    <mergeCell ref="Q38:T45"/>
-    <mergeCell ref="AA38:AD45"/>
-    <mergeCell ref="AA46:AD60"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="G5:J12"/>
-    <mergeCell ref="Q5:T12"/>
-    <mergeCell ref="AA5:AD12"/>
-    <mergeCell ref="G13:J27"/>
-    <mergeCell ref="Q13:T27"/>
-    <mergeCell ref="AA13:AD27"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="AA28:AC30"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="V28:Z30"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="L28:P30"/>
-    <mergeCell ref="Q28:S30"/>
-    <mergeCell ref="T28:T30"/>
-    <mergeCell ref="G71:J78"/>
-    <mergeCell ref="G79:J93"/>
-    <mergeCell ref="B94:F96"/>
-    <mergeCell ref="G94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="Q71:T78"/>
-    <mergeCell ref="Q79:T93"/>
-    <mergeCell ref="L94:P96"/>
-    <mergeCell ref="Q94:S96"/>
-    <mergeCell ref="T94:T96"/>
-    <mergeCell ref="L69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="AA71:AD78"/>
-    <mergeCell ref="AA79:AD93"/>
-    <mergeCell ref="V94:Z96"/>
-    <mergeCell ref="AA94:AC96"/>
-    <mergeCell ref="AD94:AD96"/>
-    <mergeCell ref="V69:Z69"/>
-    <mergeCell ref="AA69:AB69"/>
-    <mergeCell ref="AC69:AD69"/>
-    <mergeCell ref="AA70:AB70"/>
-    <mergeCell ref="AC70:AD70"/>
-    <mergeCell ref="G104:J111"/>
-    <mergeCell ref="G112:J126"/>
-    <mergeCell ref="B127:F129"/>
-    <mergeCell ref="G127:I129"/>
-    <mergeCell ref="J127:J129"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="Q104:T111"/>
-    <mergeCell ref="Q112:T126"/>
-    <mergeCell ref="L127:P129"/>
-    <mergeCell ref="Q127:S129"/>
-    <mergeCell ref="T127:T129"/>
-    <mergeCell ref="L102:P102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="AB103:AC103"/>
-    <mergeCell ref="AD103:AE103"/>
-    <mergeCell ref="AB104:AE111"/>
-    <mergeCell ref="AB112:AE126"/>
-    <mergeCell ref="V127:AA129"/>
-    <mergeCell ref="AB127:AD129"/>
-    <mergeCell ref="AE127:AE129"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="AD102:AE102"/>
-    <mergeCell ref="V102:AA102"/>
-    <mergeCell ref="B161:G163"/>
-    <mergeCell ref="H161:J163"/>
-    <mergeCell ref="K161:K163"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="M136:R136"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="S138:V145"/>
-    <mergeCell ref="S146:V160"/>
-    <mergeCell ref="M161:R163"/>
-    <mergeCell ref="S161:U163"/>
-    <mergeCell ref="V161:V163"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="H138:K145"/>
-    <mergeCell ref="H146:K160"/>
-    <mergeCell ref="AD138:AG145"/>
-    <mergeCell ref="AD146:AG160"/>
-    <mergeCell ref="X161:AC163"/>
-    <mergeCell ref="AD161:AF163"/>
-    <mergeCell ref="AG161:AG163"/>
-    <mergeCell ref="X136:AC136"/>
-    <mergeCell ref="AD136:AE136"/>
-    <mergeCell ref="AF136:AG136"/>
-    <mergeCell ref="AD137:AE137"/>
-    <mergeCell ref="AF137:AG137"/>
-    <mergeCell ref="H171:K178"/>
-    <mergeCell ref="H179:K193"/>
-    <mergeCell ref="B194:G196"/>
-    <mergeCell ref="H194:J196"/>
-    <mergeCell ref="K194:K196"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="S171:V178"/>
-    <mergeCell ref="S179:V193"/>
-    <mergeCell ref="M194:R196"/>
-    <mergeCell ref="S194:U196"/>
-    <mergeCell ref="V194:V196"/>
-    <mergeCell ref="M169:R169"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="U169:V169"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="U170:V170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Diagramas/Casos de usos/Fichas Casos de usos editado .xlsx
+++ b/Diagramas/Casos de usos/Fichas Casos de usos editado .xlsx
@@ -782,21 +782,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Descripción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se debe ingresar información requerida como número de documento, nombre completo, RH, Alguna alergia, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco ; para generar un código QR.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Criterio de aceptación:  </t>
     </r>
     <r>
@@ -1206,6 +1191,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>Se debe permitir contener la información (nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco) ingresada por el usuario en el código QR para que se pueda visualizar mediante un lector de código QR.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descripción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se debe ingresar información requerida como número de documento, nombre completo, RH, Alguna alergia, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco.</t>
     </r>
   </si>
 </sst>
@@ -1457,19 +1457,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1496,6 +1484,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1508,16 +1499,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1543,6 +1540,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1570,15 +1579,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2943,7 +2943,7 @@
   <dimension ref="B2:AG196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AD146" sqref="AD146:AG160"/>
+      <selection activeCell="B28" sqref="B28:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,52 +2961,52 @@
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="38" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="38" t="s">
+      <c r="L3" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="19" t="s">
+      <c r="R3" s="35"/>
+      <c r="S3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="V3" s="22" t="s">
+      <c r="T3" s="37"/>
+      <c r="V3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="22" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="19" t="s">
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="21"/>
+      <c r="AD3" s="37"/>
     </row>
     <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -3014,41 +3014,41 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="16"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="22" t="s">
+      <c r="R4" s="35"/>
+      <c r="S4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="21"/>
+      <c r="T4" s="37"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="22" t="s">
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="21"/>
+      <c r="AD4" s="37"/>
     </row>
     <row r="5" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -3056,35 +3056,35 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="14"/>
       <c r="L5" s="4"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="41"/>
+      <c r="AA5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="40"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -3092,29 +3092,29 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="14"/>
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="44"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="43"/>
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="43"/>
     </row>
     <row r="7" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
@@ -3122,29 +3122,29 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="14"/>
       <c r="L7" s="4"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="43"/>
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="44"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="43"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -3152,29 +3152,29 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="14"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="43"/>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="43"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -3182,29 +3182,29 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="14"/>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="44"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="43"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="44"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="43"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -3212,29 +3212,29 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="14"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="44"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="43"/>
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="44"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="43"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -3242,29 +3242,29 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="14"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="44"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="43"/>
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="44"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="43"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -3272,29 +3272,29 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="14"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46"/>
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="47"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
@@ -3302,35 +3302,35 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="14"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="Q13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="25"/>
+      <c r="AA13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="21"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -3338,29 +3338,29 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="14"/>
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
       <c r="V14" s="4"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="28"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="24"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -3368,29 +3368,29 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="14"/>
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="28"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="24"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
@@ -3398,29 +3398,29 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="14"/>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="28"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="24"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -3428,29 +3428,29 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="14"/>
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="24"/>
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="28"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="24"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
@@ -3458,29 +3458,29 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="24"/>
       <c r="V18" s="4"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="28"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="24"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
@@ -3488,29 +3488,29 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="14"/>
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="28"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="24"/>
       <c r="V19" s="4"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="28"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="24"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -3518,29 +3518,29 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="14"/>
       <c r="L20" s="4"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="24"/>
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="28"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="24"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -3548,29 +3548,29 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="14"/>
       <c r="L21" s="4"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="24"/>
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="28"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="24"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -3578,29 +3578,29 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="14"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="24"/>
       <c r="V22" s="4"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="28"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="24"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -3608,29 +3608,29 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="14"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="28"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="24"/>
       <c r="V23" s="4"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="28"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="24"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -3638,29 +3638,29 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="14"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="24"/>
       <c r="V24" s="4"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="28"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="24"/>
     </row>
     <row r="25" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -3668,29 +3668,29 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="9"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="28"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="24"/>
       <c r="V25" s="8"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="28"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="24"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -3698,29 +3698,29 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="9"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="24"/>
       <c r="V26" s="8"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="28"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="24"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
@@ -3728,137 +3728,137 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="9"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="27"/>
       <c r="V27" s="11"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="31"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="27"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="39" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="33" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="30" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="23" t="s">
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="33" t="s">
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="23" t="s">
+      <c r="V28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="23" t="s">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="33" t="s">
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="34"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="34"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="31"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="31"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="35"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="35"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="32"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="32"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
@@ -3897,52 +3897,52 @@
       <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="57" t="s">
+      <c r="B36" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="19" t="s">
+      <c r="H36" s="49"/>
+      <c r="I36" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="21"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22" t="s">
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="19" t="s">
+      <c r="R36" s="37"/>
+      <c r="S36" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="21"/>
-      <c r="V36" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="22" t="s">
+      <c r="T36" s="37"/>
+      <c r="V36" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="19" t="s">
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AD36" s="21"/>
+      <c r="AD36" s="37"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
@@ -3950,41 +3950,41 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="22" t="s">
+      <c r="H37" s="35"/>
+      <c r="I37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="5"/>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="22" t="s">
+      <c r="R37" s="37"/>
+      <c r="S37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T37" s="21"/>
+      <c r="T37" s="37"/>
       <c r="V37" s="1"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="19" t="s">
+      <c r="AA37" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="22" t="s">
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="21"/>
+      <c r="AD37" s="37"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
@@ -3992,35 +3992,35 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="G38" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="5"/>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
+      <c r="Q38" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="40"/>
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB38" s="49"/>
-      <c r="AC38" s="49"/>
-      <c r="AD38" s="50"/>
+      <c r="AA38" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="53"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -4028,29 +4028,29 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="5"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="44"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="43"/>
       <c r="V39" s="4"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="53"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="56"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
@@ -4058,29 +4058,29 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="5"/>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="44"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
       <c r="V40" s="4"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="53"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="56"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
@@ -4088,29 +4088,29 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="5"/>
       <c r="L41" s="4"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="44"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="43"/>
       <c r="V41" s="4"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="53"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="56"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
@@ -4118,29 +4118,29 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="5"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="44"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="43"/>
       <c r="V42" s="4"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="53"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="56"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
@@ -4148,29 +4148,29 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="5"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="44"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="43"/>
       <c r="V43" s="4"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="53"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="56"/>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
@@ -4178,29 +4178,29 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="5"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="44"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="43"/>
       <c r="V44" s="4"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="53"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="56"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
@@ -4208,29 +4208,29 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="5"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="47"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="46"/>
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="56"/>
+      <c r="AA45" s="57"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="59"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
@@ -4238,35 +4238,35 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="5"/>
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="25"/>
+      <c r="Q46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="21"/>
       <c r="V46" s="4"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="25"/>
+      <c r="AA46" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="21"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
@@ -4274,29 +4274,29 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="5"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="28"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="24"/>
       <c r="V47" s="4"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="28"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="24"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
@@ -4304,29 +4304,29 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
       <c r="K48" s="5"/>
       <c r="L48" s="4"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="28"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="24"/>
       <c r="V48" s="4"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="28"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="24"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
@@ -4334,29 +4334,29 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
       <c r="K49" s="5"/>
       <c r="L49" s="4"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="28"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="24"/>
       <c r="V49" s="4"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="28"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="24"/>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
@@ -4364,29 +4364,29 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="44"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
       <c r="K50" s="5"/>
       <c r="L50" s="4"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="28"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="24"/>
       <c r="V50" s="4"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="28"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="24"/>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
@@ -4394,29 +4394,29 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="44"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
       <c r="K51" s="5"/>
       <c r="L51" s="4"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="28"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="24"/>
       <c r="V51" s="4"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="28"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="24"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
@@ -4424,28 +4424,28 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="44"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
       <c r="L52" s="4"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="28"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="24"/>
       <c r="V52" s="4"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="28"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="24"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
@@ -4453,28 +4453,28 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="44"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
       <c r="L53" s="4"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="28"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="24"/>
       <c r="V53" s="4"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="28"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="24"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
@@ -4482,28 +4482,28 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="44"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
       <c r="L54" s="4"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="28"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="24"/>
       <c r="V54" s="4"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="28"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="24"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
@@ -4511,28 +4511,28 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="44"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
       <c r="L55" s="4"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="28"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="24"/>
       <c r="V55" s="4"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="28"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="24"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
@@ -4540,28 +4540,28 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
       <c r="L56" s="4"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="28"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="24"/>
       <c r="V56" s="4"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="28"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="24"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
@@ -4569,28 +4569,28 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
       <c r="L57" s="4"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="6"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="28"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="24"/>
       <c r="V57" s="4"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="6"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="28"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="24"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
@@ -4598,28 +4598,28 @@
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="44"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
       <c r="L58" s="8"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="28"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="24"/>
       <c r="V58" s="8"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="10"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="28"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="24"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
@@ -4627,28 +4627,28 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="44"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
       <c r="L59" s="8"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="28"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="24"/>
       <c r="V59" s="8"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="10"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="28"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="24"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
@@ -4656,133 +4656,133 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="47"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="46"/>
       <c r="L60" s="11"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="13"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="27"/>
       <c r="V60" s="11"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
       <c r="Z60" s="13"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="31"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="27"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="23" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="33" t="s">
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="23" t="s">
+      <c r="L61" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="23" t="s">
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R61" s="24"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="33" t="s">
+      <c r="R61" s="20"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V61" s="23" t="s">
+      <c r="V61" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W61" s="24"/>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="23" t="s">
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="25"/>
-      <c r="AD61" s="33" t="s">
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="34"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="34"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="32"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="34"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="31"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="31"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="31"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="35"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="35"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="31"/>
-      <c r="AD63" s="35"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="32"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="32"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="26"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="32"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Q64" s="15"/>
@@ -4790,51 +4790,51 @@
       <c r="S64" s="15"/>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="38" t="s">
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="19" t="s">
+      <c r="H69" s="35"/>
+      <c r="I69" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J69" s="21"/>
-      <c r="L69" s="22" t="s">
+      <c r="J69" s="37"/>
+      <c r="L69" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="57" t="s">
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="R69" s="58"/>
-      <c r="S69" s="19" t="s">
+      <c r="R69" s="49"/>
+      <c r="S69" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="T69" s="21"/>
-      <c r="V69" s="22" t="s">
+      <c r="T69" s="37"/>
+      <c r="V69" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="57" t="s">
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AB69" s="58"/>
-      <c r="AC69" s="19" t="s">
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AD69" s="21"/>
+      <c r="AD69" s="37"/>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
@@ -4842,40 +4842,40 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="36" t="s">
+      <c r="G70" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="22" t="s">
+      <c r="H70" s="35"/>
+      <c r="I70" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J70" s="21"/>
+      <c r="J70" s="37"/>
       <c r="L70" s="1"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="36" t="s">
+      <c r="Q70" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R70" s="37"/>
-      <c r="S70" s="22" t="s">
+      <c r="R70" s="35"/>
+      <c r="S70" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T70" s="21"/>
+      <c r="T70" s="37"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="3"/>
-      <c r="AA70" s="36" t="s">
+      <c r="AA70" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AB70" s="37"/>
-      <c r="AC70" s="22" t="s">
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AD70" s="21"/>
+      <c r="AD70" s="37"/>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
@@ -4883,34 +4883,34 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="41"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="40"/>
       <c r="L71" s="4"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
-      <c r="Q71" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="41"/>
+      <c r="Q71" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="40"/>
       <c r="V71" s="4"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB71" s="40"/>
-      <c r="AC71" s="40"/>
-      <c r="AD71" s="41"/>
+      <c r="AA71" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB71" s="39"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="40"/>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
@@ -4918,28 +4918,28 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="44"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
       <c r="L72" s="4"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="44"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="43"/>
       <c r="V72" s="4"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="42"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="44"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="43"/>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
@@ -4947,28 +4947,28 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="44"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
       <c r="L73" s="4"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="44"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="43"/>
       <c r="V73" s="4"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="42"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="44"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="43"/>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
@@ -4976,28 +4976,28 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="44"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="43"/>
       <c r="L74" s="4"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="44"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="43"/>
       <c r="V74" s="4"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="42"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="44"/>
+      <c r="AA74" s="41"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="43"/>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
@@ -5005,28 +5005,28 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="44"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="43"/>
       <c r="L75" s="4"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="44"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="43"/>
       <c r="V75" s="4"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="42"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="44"/>
+      <c r="AA75" s="41"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="43"/>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
@@ -5034,28 +5034,28 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="44"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
       <c r="L76" s="4"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="44"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="43"/>
       <c r="V76" s="4"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="42"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-      <c r="AD76" s="44"/>
+      <c r="AA76" s="41"/>
+      <c r="AB76" s="42"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="43"/>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
@@ -5063,28 +5063,28 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="44"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="43"/>
       <c r="L77" s="4"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="44"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="43"/>
       <c r="V77" s="4"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="42"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="44"/>
+      <c r="AA77" s="41"/>
+      <c r="AB77" s="42"/>
+      <c r="AC77" s="42"/>
+      <c r="AD77" s="43"/>
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
@@ -5092,28 +5092,28 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="47"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="46"/>
       <c r="L78" s="4"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="45"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="47"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="46"/>
       <c r="V78" s="4"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="45"/>
-      <c r="AB78" s="46"/>
-      <c r="AC78" s="46"/>
-      <c r="AD78" s="47"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="46"/>
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
@@ -5121,34 +5121,34 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="25"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
       <c r="L79" s="4"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="41"/>
+      <c r="Q79" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="40"/>
       <c r="V79" s="4"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB79" s="40"/>
-      <c r="AC79" s="40"/>
-      <c r="AD79" s="41"/>
+      <c r="AA79" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="40"/>
     </row>
     <row r="80" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
@@ -5156,28 +5156,28 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="28"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="24"/>
       <c r="L80" s="4"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="44"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="43"/>
       <c r="V80" s="4"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-      <c r="AA80" s="42"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="44"/>
+      <c r="AA80" s="41"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="43"/>
     </row>
     <row r="81" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
@@ -5185,28 +5185,28 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="28"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="24"/>
       <c r="L81" s="4"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="44"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="43"/>
       <c r="V81" s="4"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
-      <c r="AA81" s="42"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="44"/>
+      <c r="AA81" s="41"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="43"/>
     </row>
     <row r="82" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
@@ -5214,28 +5214,28 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="28"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="24"/>
       <c r="L82" s="4"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="43"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="44"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="43"/>
       <c r="V82" s="4"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-      <c r="AA82" s="42"/>
-      <c r="AB82" s="43"/>
-      <c r="AC82" s="43"/>
-      <c r="AD82" s="44"/>
+      <c r="AA82" s="41"/>
+      <c r="AB82" s="42"/>
+      <c r="AC82" s="42"/>
+      <c r="AD82" s="43"/>
     </row>
     <row r="83" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
@@ -5243,28 +5243,28 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="28"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="24"/>
       <c r="L83" s="4"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="43"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="44"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="43"/>
       <c r="V83" s="4"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
-      <c r="AA83" s="42"/>
-      <c r="AB83" s="43"/>
-      <c r="AC83" s="43"/>
-      <c r="AD83" s="44"/>
+      <c r="AA83" s="41"/>
+      <c r="AB83" s="42"/>
+      <c r="AC83" s="42"/>
+      <c r="AD83" s="43"/>
     </row>
     <row r="84" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
@@ -5272,28 +5272,28 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="28"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="24"/>
       <c r="L84" s="4"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="43"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="44"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="43"/>
       <c r="V84" s="4"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
-      <c r="AA84" s="42"/>
-      <c r="AB84" s="43"/>
-      <c r="AC84" s="43"/>
-      <c r="AD84" s="44"/>
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="42"/>
+      <c r="AC84" s="42"/>
+      <c r="AD84" s="43"/>
     </row>
     <row r="85" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
@@ -5301,28 +5301,28 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="28"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="24"/>
       <c r="L85" s="4"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="43"/>
-      <c r="S85" s="43"/>
-      <c r="T85" s="44"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="43"/>
       <c r="V85" s="4"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
-      <c r="AA85" s="42"/>
-      <c r="AB85" s="43"/>
-      <c r="AC85" s="43"/>
-      <c r="AD85" s="44"/>
+      <c r="AA85" s="41"/>
+      <c r="AB85" s="42"/>
+      <c r="AC85" s="42"/>
+      <c r="AD85" s="43"/>
     </row>
     <row r="86" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
@@ -5330,28 +5330,28 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="28"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
       <c r="L86" s="4"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="42"/>
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="44"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="42"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="43"/>
       <c r="V86" s="4"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
-      <c r="AA86" s="42"/>
-      <c r="AB86" s="43"/>
-      <c r="AC86" s="43"/>
-      <c r="AD86" s="44"/>
+      <c r="AA86" s="41"/>
+      <c r="AB86" s="42"/>
+      <c r="AC86" s="42"/>
+      <c r="AD86" s="43"/>
     </row>
     <row r="87" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
@@ -5359,28 +5359,28 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="28"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="24"/>
       <c r="L87" s="4"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
-      <c r="Q87" s="42"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="44"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="43"/>
       <c r="V87" s="4"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
-      <c r="AA87" s="42"/>
-      <c r="AB87" s="43"/>
-      <c r="AC87" s="43"/>
-      <c r="AD87" s="44"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="42"/>
+      <c r="AC87" s="42"/>
+      <c r="AD87" s="43"/>
     </row>
     <row r="88" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
@@ -5388,28 +5388,28 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="28"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="24"/>
       <c r="L88" s="4"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="44"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="43"/>
       <c r="V88" s="4"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
-      <c r="AA88" s="42"/>
-      <c r="AB88" s="43"/>
-      <c r="AC88" s="43"/>
-      <c r="AD88" s="44"/>
+      <c r="AA88" s="41"/>
+      <c r="AB88" s="42"/>
+      <c r="AC88" s="42"/>
+      <c r="AD88" s="43"/>
     </row>
     <row r="89" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
@@ -5417,28 +5417,28 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="28"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="24"/>
       <c r="L89" s="4"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
-      <c r="Q89" s="42"/>
-      <c r="R89" s="43"/>
-      <c r="S89" s="43"/>
-      <c r="T89" s="44"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="43"/>
       <c r="V89" s="4"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
-      <c r="AA89" s="42"/>
-      <c r="AB89" s="43"/>
-      <c r="AC89" s="43"/>
-      <c r="AD89" s="44"/>
+      <c r="AA89" s="41"/>
+      <c r="AB89" s="42"/>
+      <c r="AC89" s="42"/>
+      <c r="AD89" s="43"/>
     </row>
     <row r="90" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
@@ -5446,28 +5446,28 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="28"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="24"/>
       <c r="L90" s="4"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="6"/>
-      <c r="Q90" s="42"/>
-      <c r="R90" s="43"/>
-      <c r="S90" s="43"/>
-      <c r="T90" s="44"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="43"/>
       <c r="V90" s="4"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="6"/>
-      <c r="AA90" s="42"/>
-      <c r="AB90" s="43"/>
-      <c r="AC90" s="43"/>
-      <c r="AD90" s="44"/>
+      <c r="AA90" s="41"/>
+      <c r="AB90" s="42"/>
+      <c r="AC90" s="42"/>
+      <c r="AD90" s="43"/>
     </row>
     <row r="91" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
@@ -5475,28 +5475,28 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="24"/>
       <c r="L91" s="8"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="42"/>
-      <c r="R91" s="43"/>
-      <c r="S91" s="43"/>
-      <c r="T91" s="44"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="43"/>
       <c r="V91" s="8"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="10"/>
-      <c r="AA91" s="42"/>
-      <c r="AB91" s="43"/>
-      <c r="AC91" s="43"/>
-      <c r="AD91" s="44"/>
+      <c r="AA91" s="41"/>
+      <c r="AB91" s="42"/>
+      <c r="AC91" s="42"/>
+      <c r="AD91" s="43"/>
     </row>
     <row r="92" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
@@ -5504,28 +5504,28 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="28"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="24"/>
       <c r="L92" s="8"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="42"/>
-      <c r="R92" s="43"/>
-      <c r="S92" s="43"/>
-      <c r="T92" s="44"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="43"/>
       <c r="V92" s="8"/>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="10"/>
-      <c r="AA92" s="42"/>
-      <c r="AB92" s="43"/>
-      <c r="AC92" s="43"/>
-      <c r="AD92" s="44"/>
+      <c r="AA92" s="41"/>
+      <c r="AB92" s="42"/>
+      <c r="AC92" s="42"/>
+      <c r="AD92" s="43"/>
     </row>
     <row r="93" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
@@ -5533,181 +5533,181 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="13"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="27"/>
       <c r="L93" s="11"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
       <c r="P93" s="13"/>
-      <c r="Q93" s="45"/>
-      <c r="R93" s="46"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="47"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="46"/>
       <c r="V93" s="11"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
       <c r="Z93" s="13"/>
-      <c r="AA93" s="45"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="46"/>
-      <c r="AD93" s="47"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="45"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="46"/>
     </row>
     <row r="94" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="23" t="s">
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="24"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="33" t="s">
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="23" t="s">
+      <c r="L94" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="23" t="s">
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R94" s="24"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="33" t="s">
+      <c r="R94" s="20"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V94" s="23" t="s">
+      <c r="V94" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="24"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="25"/>
-      <c r="AA94" s="23" t="s">
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AB94" s="24"/>
-      <c r="AC94" s="25"/>
-      <c r="AD94" s="33" t="s">
+      <c r="AB94" s="20"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="34"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="34"/>
-      <c r="V95" s="26"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="32"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="34"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="31"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="31"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="23"/>
+      <c r="X95" s="23"/>
+      <c r="Y95" s="23"/>
+      <c r="Z95" s="24"/>
+      <c r="AA95" s="22"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="24"/>
+      <c r="AD95" s="31"/>
     </row>
     <row r="96" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B96" s="29"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="35"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="30"/>
-      <c r="S96" s="31"/>
-      <c r="T96" s="35"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="30"/>
-      <c r="X96" s="30"/>
-      <c r="Y96" s="30"/>
-      <c r="Z96" s="31"/>
-      <c r="AA96" s="29"/>
-      <c r="AB96" s="30"/>
-      <c r="AC96" s="31"/>
-      <c r="AD96" s="35"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="32"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="32"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="26"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="32"/>
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="57" t="s">
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H102" s="58"/>
-      <c r="I102" s="19" t="s">
+      <c r="H102" s="49"/>
+      <c r="I102" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J102" s="21"/>
-      <c r="L102" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="57" t="s">
+      <c r="J102" s="37"/>
+      <c r="L102" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="M102" s="47"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="R102" s="58"/>
-      <c r="S102" s="19" t="s">
+      <c r="R102" s="49"/>
+      <c r="S102" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="T102" s="21"/>
-      <c r="V102" s="38" t="s">
+      <c r="T102" s="37"/>
+      <c r="V102" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="W102" s="59"/>
-      <c r="X102" s="59"/>
-      <c r="Y102" s="59"/>
-      <c r="Z102" s="59"/>
-      <c r="AA102" s="37"/>
-      <c r="AB102" s="22" t="s">
+      <c r="W102" s="34"/>
+      <c r="X102" s="34"/>
+      <c r="Y102" s="34"/>
+      <c r="Z102" s="34"/>
+      <c r="AA102" s="35"/>
+      <c r="AB102" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AC102" s="21"/>
-      <c r="AD102" s="19" t="s">
+      <c r="AC102" s="37"/>
+      <c r="AD102" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AE102" s="21"/>
+      <c r="AE102" s="37"/>
       <c r="AF102" s="9"/>
     </row>
     <row r="103" spans="2:32" x14ac:dyDescent="0.25">
@@ -5716,41 +5716,41 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="36" t="s">
+      <c r="G103" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="37"/>
-      <c r="I103" s="22" t="s">
+      <c r="H103" s="35"/>
+      <c r="I103" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="21"/>
+      <c r="J103" s="37"/>
       <c r="L103" s="1"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="36" t="s">
+      <c r="Q103" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R103" s="37"/>
-      <c r="S103" s="22" t="s">
+      <c r="R103" s="35"/>
+      <c r="S103" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T103" s="21"/>
+      <c r="T103" s="37"/>
       <c r="V103" s="1"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
-      <c r="AB103" s="19" t="s">
+      <c r="AB103" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="22" t="s">
+      <c r="AC103" s="37"/>
+      <c r="AD103" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AE103" s="21"/>
+      <c r="AE103" s="37"/>
       <c r="AF103" s="9"/>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.25">
@@ -5759,35 +5759,35 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="41"/>
+      <c r="G104" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="40"/>
       <c r="L104" s="4"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
-      <c r="Q104" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R104" s="40"/>
-      <c r="S104" s="40"/>
-      <c r="T104" s="41"/>
+      <c r="Q104" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R104" s="39"/>
+      <c r="S104" s="39"/>
+      <c r="T104" s="40"/>
       <c r="V104" s="4"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
-      <c r="AB104" s="39" t="s">
+      <c r="AB104" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
-      <c r="AE104" s="25"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="20"/>
+      <c r="AE104" s="21"/>
       <c r="AF104" s="9"/>
     </row>
     <row r="105" spans="2:32" x14ac:dyDescent="0.25">
@@ -5796,29 +5796,29 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="44"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="43"/>
       <c r="L105" s="4"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
-      <c r="Q105" s="42"/>
-      <c r="R105" s="43"/>
-      <c r="S105" s="43"/>
-      <c r="T105" s="44"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="43"/>
       <c r="V105" s="4"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
-      <c r="AB105" s="26"/>
-      <c r="AC105" s="27"/>
-      <c r="AD105" s="27"/>
-      <c r="AE105" s="28"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="23"/>
+      <c r="AE105" s="24"/>
       <c r="AF105" s="9"/>
     </row>
     <row r="106" spans="2:32" x14ac:dyDescent="0.25">
@@ -5827,29 +5827,29 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="44"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="43"/>
       <c r="L106" s="4"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
-      <c r="Q106" s="42"/>
-      <c r="R106" s="43"/>
-      <c r="S106" s="43"/>
-      <c r="T106" s="44"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="43"/>
       <c r="V106" s="4"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="27"/>
-      <c r="AD106" s="27"/>
-      <c r="AE106" s="28"/>
+      <c r="AB106" s="22"/>
+      <c r="AC106" s="23"/>
+      <c r="AD106" s="23"/>
+      <c r="AE106" s="24"/>
       <c r="AF106" s="9"/>
     </row>
     <row r="107" spans="2:32" x14ac:dyDescent="0.25">
@@ -5858,29 +5858,29 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="44"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="43"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="43"/>
-      <c r="S107" s="43"/>
-      <c r="T107" s="44"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="43"/>
       <c r="V107" s="4"/>
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="27"/>
-      <c r="AD107" s="27"/>
-      <c r="AE107" s="28"/>
+      <c r="AB107" s="22"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="23"/>
+      <c r="AE107" s="24"/>
       <c r="AF107" s="9"/>
     </row>
     <row r="108" spans="2:32" x14ac:dyDescent="0.25">
@@ -5889,29 +5889,29 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="44"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="43"/>
       <c r="L108" s="4"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
-      <c r="Q108" s="42"/>
-      <c r="R108" s="43"/>
-      <c r="S108" s="43"/>
-      <c r="T108" s="44"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="43"/>
       <c r="V108" s="4"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="28"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23"/>
+      <c r="AE108" s="24"/>
       <c r="AF108" s="9"/>
     </row>
     <row r="109" spans="2:32" x14ac:dyDescent="0.25">
@@ -5920,29 +5920,29 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="44"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="43"/>
       <c r="L109" s="4"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
-      <c r="Q109" s="42"/>
-      <c r="R109" s="43"/>
-      <c r="S109" s="43"/>
-      <c r="T109" s="44"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="43"/>
       <c r="V109" s="4"/>
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-      <c r="AB109" s="26"/>
-      <c r="AC109" s="27"/>
-      <c r="AD109" s="27"/>
-      <c r="AE109" s="28"/>
+      <c r="AB109" s="22"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="24"/>
       <c r="AF109" s="9"/>
     </row>
     <row r="110" spans="2:32" x14ac:dyDescent="0.25">
@@ -5951,29 +5951,29 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="44"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="43"/>
       <c r="L110" s="4"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
-      <c r="Q110" s="42"/>
-      <c r="R110" s="43"/>
-      <c r="S110" s="43"/>
-      <c r="T110" s="44"/>
+      <c r="Q110" s="41"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="43"/>
       <c r="V110" s="4"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
-      <c r="AB110" s="26"/>
-      <c r="AC110" s="27"/>
-      <c r="AD110" s="27"/>
-      <c r="AE110" s="28"/>
+      <c r="AB110" s="22"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="23"/>
+      <c r="AE110" s="24"/>
       <c r="AF110" s="9"/>
     </row>
     <row r="111" spans="2:32" x14ac:dyDescent="0.25">
@@ -5982,29 +5982,29 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="47"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="46"/>
       <c r="L111" s="4"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
-      <c r="Q111" s="45"/>
-      <c r="R111" s="46"/>
-      <c r="S111" s="46"/>
-      <c r="T111" s="47"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="46"/>
       <c r="V111" s="4"/>
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="6"/>
-      <c r="AB111" s="29"/>
-      <c r="AC111" s="30"/>
-      <c r="AD111" s="30"/>
-      <c r="AE111" s="31"/>
+      <c r="AB111" s="25"/>
+      <c r="AC111" s="26"/>
+      <c r="AD111" s="26"/>
+      <c r="AE111" s="27"/>
       <c r="AF111" s="9"/>
     </row>
     <row r="112" spans="2:32" x14ac:dyDescent="0.25">
@@ -6013,35 +6013,35 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="41"/>
+      <c r="G112" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="40"/>
       <c r="L112" s="4"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
-      <c r="Q112" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="R112" s="40"/>
-      <c r="S112" s="40"/>
-      <c r="T112" s="41"/>
+      <c r="Q112" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+      <c r="T112" s="40"/>
       <c r="V112" s="4"/>
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC112" s="24"/>
-      <c r="AD112" s="24"/>
-      <c r="AE112" s="25"/>
+      <c r="AB112" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="21"/>
       <c r="AF112" s="9"/>
     </row>
     <row r="113" spans="2:32" x14ac:dyDescent="0.25">
@@ -6050,29 +6050,29 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="44"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="43"/>
       <c r="L113" s="4"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="43"/>
-      <c r="S113" s="43"/>
-      <c r="T113" s="44"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
+      <c r="T113" s="43"/>
       <c r="V113" s="4"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="27"/>
-      <c r="AE113" s="28"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="23"/>
+      <c r="AE113" s="24"/>
       <c r="AF113" s="9"/>
     </row>
     <row r="114" spans="2:32" x14ac:dyDescent="0.25">
@@ -6081,29 +6081,29 @@
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="44"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="43"/>
       <c r="L114" s="4"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
-      <c r="Q114" s="42"/>
-      <c r="R114" s="43"/>
-      <c r="S114" s="43"/>
-      <c r="T114" s="44"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="42"/>
+      <c r="S114" s="42"/>
+      <c r="T114" s="43"/>
       <c r="V114" s="4"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
-      <c r="AB114" s="26"/>
-      <c r="AC114" s="27"/>
-      <c r="AD114" s="27"/>
-      <c r="AE114" s="28"/>
+      <c r="AB114" s="22"/>
+      <c r="AC114" s="23"/>
+      <c r="AD114" s="23"/>
+      <c r="AE114" s="24"/>
       <c r="AF114" s="9"/>
     </row>
     <row r="115" spans="2:32" x14ac:dyDescent="0.25">
@@ -6112,29 +6112,29 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="44"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="43"/>
       <c r="L115" s="4"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
-      <c r="Q115" s="42"/>
-      <c r="R115" s="43"/>
-      <c r="S115" s="43"/>
-      <c r="T115" s="44"/>
+      <c r="Q115" s="41"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="42"/>
+      <c r="T115" s="43"/>
       <c r="V115" s="4"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="27"/>
-      <c r="AD115" s="27"/>
-      <c r="AE115" s="28"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="23"/>
+      <c r="AD115" s="23"/>
+      <c r="AE115" s="24"/>
       <c r="AF115" s="9"/>
     </row>
     <row r="116" spans="2:32" x14ac:dyDescent="0.25">
@@ -6143,29 +6143,29 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="44"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="43"/>
       <c r="L116" s="4"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="43"/>
-      <c r="S116" s="43"/>
-      <c r="T116" s="44"/>
+      <c r="Q116" s="41"/>
+      <c r="R116" s="42"/>
+      <c r="S116" s="42"/>
+      <c r="T116" s="43"/>
       <c r="V116" s="4"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
-      <c r="AB116" s="26"/>
-      <c r="AC116" s="27"/>
-      <c r="AD116" s="27"/>
-      <c r="AE116" s="28"/>
+      <c r="AB116" s="22"/>
+      <c r="AC116" s="23"/>
+      <c r="AD116" s="23"/>
+      <c r="AE116" s="24"/>
       <c r="AF116" s="9"/>
     </row>
     <row r="117" spans="2:32" x14ac:dyDescent="0.25">
@@ -6174,29 +6174,29 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="44"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="43"/>
       <c r="L117" s="4"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="43"/>
-      <c r="S117" s="43"/>
-      <c r="T117" s="44"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="42"/>
+      <c r="T117" s="43"/>
       <c r="V117" s="4"/>
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27"/>
-      <c r="AE117" s="28"/>
+      <c r="AB117" s="22"/>
+      <c r="AC117" s="23"/>
+      <c r="AD117" s="23"/>
+      <c r="AE117" s="24"/>
       <c r="AF117" s="9"/>
     </row>
     <row r="118" spans="2:32" x14ac:dyDescent="0.25">
@@ -6205,29 +6205,29 @@
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="44"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="43"/>
       <c r="L118" s="4"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
-      <c r="Q118" s="42"/>
-      <c r="R118" s="43"/>
-      <c r="S118" s="43"/>
-      <c r="T118" s="44"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="42"/>
+      <c r="T118" s="43"/>
       <c r="V118" s="4"/>
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
-      <c r="AB118" s="26"/>
-      <c r="AC118" s="27"/>
-      <c r="AD118" s="27"/>
-      <c r="AE118" s="28"/>
+      <c r="AB118" s="22"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="23"/>
+      <c r="AE118" s="24"/>
       <c r="AF118" s="9"/>
     </row>
     <row r="119" spans="2:32" x14ac:dyDescent="0.25">
@@ -6236,29 +6236,29 @@
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="44"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="43"/>
       <c r="L119" s="4"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="43"/>
-      <c r="S119" s="43"/>
-      <c r="T119" s="44"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="43"/>
       <c r="V119" s="4"/>
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
-      <c r="AB119" s="26"/>
-      <c r="AC119" s="27"/>
-      <c r="AD119" s="27"/>
-      <c r="AE119" s="28"/>
+      <c r="AB119" s="22"/>
+      <c r="AC119" s="23"/>
+      <c r="AD119" s="23"/>
+      <c r="AE119" s="24"/>
       <c r="AF119" s="9"/>
     </row>
     <row r="120" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6267,29 +6267,29 @@
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="44"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="43"/>
       <c r="L120" s="4"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
-      <c r="Q120" s="42"/>
-      <c r="R120" s="43"/>
-      <c r="S120" s="43"/>
-      <c r="T120" s="44"/>
+      <c r="Q120" s="41"/>
+      <c r="R120" s="42"/>
+      <c r="S120" s="42"/>
+      <c r="T120" s="43"/>
       <c r="V120" s="4"/>
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
-      <c r="AB120" s="26"/>
-      <c r="AC120" s="27"/>
-      <c r="AD120" s="27"/>
-      <c r="AE120" s="28"/>
+      <c r="AB120" s="22"/>
+      <c r="AC120" s="23"/>
+      <c r="AD120" s="23"/>
+      <c r="AE120" s="24"/>
       <c r="AF120" s="9"/>
     </row>
     <row r="121" spans="2:32" x14ac:dyDescent="0.25">
@@ -6298,29 +6298,29 @@
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="44"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="43"/>
       <c r="L121" s="4"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
-      <c r="Q121" s="42"/>
-      <c r="R121" s="43"/>
-      <c r="S121" s="43"/>
-      <c r="T121" s="44"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="42"/>
+      <c r="S121" s="42"/>
+      <c r="T121" s="43"/>
       <c r="V121" s="4"/>
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
-      <c r="AB121" s="26"/>
-      <c r="AC121" s="27"/>
-      <c r="AD121" s="27"/>
-      <c r="AE121" s="28"/>
+      <c r="AB121" s="22"/>
+      <c r="AC121" s="23"/>
+      <c r="AD121" s="23"/>
+      <c r="AE121" s="24"/>
       <c r="AF121" s="9"/>
     </row>
     <row r="122" spans="2:32" x14ac:dyDescent="0.25">
@@ -6329,29 +6329,29 @@
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="44"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="43"/>
       <c r="L122" s="4"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
-      <c r="Q122" s="42"/>
-      <c r="R122" s="43"/>
-      <c r="S122" s="43"/>
-      <c r="T122" s="44"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="42"/>
+      <c r="S122" s="42"/>
+      <c r="T122" s="43"/>
       <c r="V122" s="4"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
-      <c r="AB122" s="26"/>
-      <c r="AC122" s="27"/>
-      <c r="AD122" s="27"/>
-      <c r="AE122" s="28"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="23"/>
+      <c r="AE122" s="24"/>
       <c r="AF122" s="9"/>
     </row>
     <row r="123" spans="2:32" x14ac:dyDescent="0.25">
@@ -6360,29 +6360,29 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="44"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="43"/>
       <c r="L123" s="4"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="6"/>
-      <c r="Q123" s="42"/>
-      <c r="R123" s="43"/>
-      <c r="S123" s="43"/>
-      <c r="T123" s="44"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="42"/>
+      <c r="S123" s="42"/>
+      <c r="T123" s="43"/>
       <c r="V123" s="4"/>
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
-      <c r="AB123" s="26"/>
-      <c r="AC123" s="27"/>
-      <c r="AD123" s="27"/>
-      <c r="AE123" s="28"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="23"/>
+      <c r="AD123" s="23"/>
+      <c r="AE123" s="24"/>
       <c r="AF123" s="9"/>
     </row>
     <row r="124" spans="2:32" x14ac:dyDescent="0.25">
@@ -6391,29 +6391,29 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="44"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="43"/>
       <c r="L124" s="8"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="42"/>
-      <c r="R124" s="43"/>
-      <c r="S124" s="43"/>
-      <c r="T124" s="44"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="42"/>
+      <c r="S124" s="42"/>
+      <c r="T124" s="43"/>
       <c r="V124" s="4"/>
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
-      <c r="AB124" s="26"/>
-      <c r="AC124" s="27"/>
-      <c r="AD124" s="27"/>
-      <c r="AE124" s="28"/>
+      <c r="AB124" s="22"/>
+      <c r="AC124" s="23"/>
+      <c r="AD124" s="23"/>
+      <c r="AE124" s="24"/>
       <c r="AF124" s="9"/>
     </row>
     <row r="125" spans="2:32" x14ac:dyDescent="0.25">
@@ -6422,29 +6422,29 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="44"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="43"/>
       <c r="L125" s="8"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="42"/>
-      <c r="R125" s="43"/>
-      <c r="S125" s="43"/>
-      <c r="T125" s="44"/>
+      <c r="Q125" s="41"/>
+      <c r="R125" s="42"/>
+      <c r="S125" s="42"/>
+      <c r="T125" s="43"/>
       <c r="V125" s="4"/>
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
-      <c r="AB125" s="26"/>
-      <c r="AC125" s="27"/>
-      <c r="AD125" s="27"/>
-      <c r="AE125" s="28"/>
+      <c r="AB125" s="22"/>
+      <c r="AC125" s="23"/>
+      <c r="AD125" s="23"/>
+      <c r="AE125" s="24"/>
       <c r="AF125" s="9"/>
     </row>
     <row r="126" spans="2:32" x14ac:dyDescent="0.25">
@@ -6453,140 +6453,140 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="47"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="46"/>
       <c r="L126" s="11"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
       <c r="O126" s="12"/>
       <c r="P126" s="13"/>
-      <c r="Q126" s="45"/>
-      <c r="R126" s="46"/>
-      <c r="S126" s="46"/>
-      <c r="T126" s="47"/>
+      <c r="Q126" s="44"/>
+      <c r="R126" s="45"/>
+      <c r="S126" s="45"/>
+      <c r="T126" s="46"/>
       <c r="V126" s="18"/>
       <c r="W126" s="7"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
       <c r="AA126" s="7"/>
-      <c r="AB126" s="29"/>
-      <c r="AC126" s="30"/>
-      <c r="AD126" s="30"/>
-      <c r="AE126" s="31"/>
+      <c r="AB126" s="25"/>
+      <c r="AC126" s="26"/>
+      <c r="AD126" s="26"/>
+      <c r="AE126" s="27"/>
       <c r="AF126" s="9"/>
     </row>
     <row r="127" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="23" t="s">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="24"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="33" t="s">
+      <c r="H127" s="20"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L127" s="23" t="s">
+      <c r="L127" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
-      <c r="O127" s="24"/>
-      <c r="P127" s="25"/>
-      <c r="Q127" s="23" t="s">
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="21"/>
+      <c r="Q127" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R127" s="24"/>
-      <c r="S127" s="25"/>
-      <c r="T127" s="33" t="s">
+      <c r="R127" s="20"/>
+      <c r="S127" s="21"/>
+      <c r="T127" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V127" s="23" t="s">
+      <c r="V127" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="W127" s="24"/>
-      <c r="X127" s="24"/>
-      <c r="Y127" s="24"/>
-      <c r="Z127" s="24"/>
-      <c r="AA127" s="25"/>
-      <c r="AB127" s="23" t="s">
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="20"/>
+      <c r="AA127" s="21"/>
+      <c r="AB127" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AC127" s="24"/>
-      <c r="AD127" s="25"/>
-      <c r="AE127" s="33" t="s">
+      <c r="AC127" s="20"/>
+      <c r="AD127" s="21"/>
+      <c r="AE127" s="30" t="s">
         <v>4</v>
       </c>
       <c r="AF127" s="9"/>
     </row>
     <row r="128" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B128" s="26"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="34"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
-      <c r="P128" s="28"/>
-      <c r="Q128" s="26"/>
-      <c r="R128" s="32"/>
-      <c r="S128" s="28"/>
-      <c r="T128" s="34"/>
-      <c r="V128" s="26"/>
-      <c r="W128" s="27"/>
-      <c r="X128" s="27"/>
-      <c r="Y128" s="27"/>
-      <c r="Z128" s="27"/>
-      <c r="AA128" s="28"/>
-      <c r="AB128" s="26"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="28"/>
-      <c r="AE128" s="34"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="31"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="29"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="31"/>
+      <c r="V128" s="22"/>
+      <c r="W128" s="23"/>
+      <c r="X128" s="23"/>
+      <c r="Y128" s="23"/>
+      <c r="Z128" s="23"/>
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="29"/>
+      <c r="AD128" s="24"/>
+      <c r="AE128" s="31"/>
       <c r="AF128" s="9"/>
     </row>
     <row r="129" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B129" s="29"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="30"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="35"/>
-      <c r="L129" s="29"/>
-      <c r="M129" s="30"/>
-      <c r="N129" s="30"/>
-      <c r="O129" s="30"/>
-      <c r="P129" s="31"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="30"/>
-      <c r="S129" s="31"/>
-      <c r="T129" s="35"/>
-      <c r="V129" s="29"/>
-      <c r="W129" s="30"/>
-      <c r="X129" s="30"/>
-      <c r="Y129" s="30"/>
-      <c r="Z129" s="30"/>
-      <c r="AA129" s="31"/>
-      <c r="AB129" s="29"/>
-      <c r="AC129" s="30"/>
-      <c r="AD129" s="31"/>
-      <c r="AE129" s="35"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="32"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="26"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="32"/>
+      <c r="V129" s="25"/>
+      <c r="W129" s="26"/>
+      <c r="X129" s="26"/>
+      <c r="Y129" s="26"/>
+      <c r="Z129" s="26"/>
+      <c r="AA129" s="27"/>
+      <c r="AB129" s="25"/>
+      <c r="AC129" s="26"/>
+      <c r="AD129" s="27"/>
+      <c r="AE129" s="32"/>
       <c r="AF129" s="9"/>
     </row>
     <row r="130" spans="2:33" x14ac:dyDescent="0.25">
@@ -6622,54 +6622,54 @@
       <c r="AF135" s="5"/>
     </row>
     <row r="136" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="59"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="22" t="s">
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="19" t="s">
+      <c r="I136" s="37"/>
+      <c r="J136" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K136" s="21"/>
-      <c r="M136" s="38" t="s">
+      <c r="K136" s="37"/>
+      <c r="M136" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N136" s="59"/>
-      <c r="O136" s="59"/>
-      <c r="P136" s="59"/>
-      <c r="Q136" s="59"/>
-      <c r="R136" s="37"/>
-      <c r="S136" s="22" t="s">
+      <c r="N136" s="34"/>
+      <c r="O136" s="34"/>
+      <c r="P136" s="34"/>
+      <c r="Q136" s="34"/>
+      <c r="R136" s="35"/>
+      <c r="S136" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="T136" s="21"/>
-      <c r="U136" s="19" t="s">
+      <c r="T136" s="37"/>
+      <c r="U136" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="V136" s="21"/>
-      <c r="X136" s="38" t="s">
+      <c r="V136" s="37"/>
+      <c r="X136" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Y136" s="59"/>
-      <c r="Z136" s="59"/>
-      <c r="AA136" s="59"/>
-      <c r="AB136" s="59"/>
-      <c r="AC136" s="37"/>
-      <c r="AD136" s="22" t="s">
+      <c r="Y136" s="34"/>
+      <c r="Z136" s="34"/>
+      <c r="AA136" s="34"/>
+      <c r="AB136" s="34"/>
+      <c r="AC136" s="35"/>
+      <c r="AD136" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="19" t="s">
+      <c r="AE136" s="37"/>
+      <c r="AF136" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AG136" s="21"/>
+      <c r="AG136" s="37"/>
     </row>
     <row r="137" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
@@ -6678,42 +6678,42 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="19" t="s">
+      <c r="H137" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="22" t="s">
+      <c r="I137" s="37"/>
+      <c r="J137" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K137" s="21"/>
+      <c r="K137" s="37"/>
       <c r="M137" s="1"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
-      <c r="S137" s="19" t="s">
+      <c r="S137" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T137" s="21"/>
-      <c r="U137" s="22" t="s">
+      <c r="T137" s="37"/>
+      <c r="U137" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V137" s="21"/>
+      <c r="V137" s="37"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
-      <c r="AD137" s="19" t="s">
+      <c r="AD137" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AE137" s="21"/>
-      <c r="AF137" s="22" t="s">
+      <c r="AE137" s="37"/>
+      <c r="AF137" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AG137" s="21"/>
+      <c r="AG137" s="37"/>
     </row>
     <row r="138" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
@@ -6722,36 +6722,36 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="39" t="s">
+      <c r="H138" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="25"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="21"/>
       <c r="M138" s="4"/>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-      <c r="S138" s="39" t="s">
+      <c r="S138" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="T138" s="24"/>
-      <c r="U138" s="24"/>
-      <c r="V138" s="25"/>
+      <c r="T138" s="20"/>
+      <c r="U138" s="20"/>
+      <c r="V138" s="21"/>
       <c r="X138" s="4"/>
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
-      <c r="AD138" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE138" s="24"/>
-      <c r="AF138" s="24"/>
-      <c r="AG138" s="25"/>
+      <c r="AD138" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE138" s="20"/>
+      <c r="AF138" s="20"/>
+      <c r="AG138" s="21"/>
     </row>
     <row r="139" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
@@ -6760,30 +6760,30 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="28"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="24"/>
       <c r="M139" s="4"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-      <c r="S139" s="26"/>
-      <c r="T139" s="27"/>
-      <c r="U139" s="27"/>
-      <c r="V139" s="28"/>
+      <c r="S139" s="22"/>
+      <c r="T139" s="23"/>
+      <c r="U139" s="23"/>
+      <c r="V139" s="24"/>
       <c r="X139" s="4"/>
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
-      <c r="AD139" s="26"/>
-      <c r="AE139" s="27"/>
-      <c r="AF139" s="27"/>
-      <c r="AG139" s="28"/>
+      <c r="AD139" s="22"/>
+      <c r="AE139" s="23"/>
+      <c r="AF139" s="23"/>
+      <c r="AG139" s="24"/>
     </row>
     <row r="140" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
@@ -6792,30 +6792,30 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
-      <c r="K140" s="28"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="23"/>
+      <c r="K140" s="24"/>
       <c r="M140" s="4"/>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-      <c r="S140" s="26"/>
-      <c r="T140" s="27"/>
-      <c r="U140" s="27"/>
-      <c r="V140" s="28"/>
+      <c r="S140" s="22"/>
+      <c r="T140" s="23"/>
+      <c r="U140" s="23"/>
+      <c r="V140" s="24"/>
       <c r="X140" s="4"/>
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
-      <c r="AD140" s="26"/>
-      <c r="AE140" s="27"/>
-      <c r="AF140" s="27"/>
-      <c r="AG140" s="28"/>
+      <c r="AD140" s="22"/>
+      <c r="AE140" s="23"/>
+      <c r="AF140" s="23"/>
+      <c r="AG140" s="24"/>
     </row>
     <row r="141" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
@@ -6824,30 +6824,30 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="28"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="23"/>
+      <c r="J141" s="23"/>
+      <c r="K141" s="24"/>
       <c r="M141" s="4"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-      <c r="S141" s="26"/>
-      <c r="T141" s="27"/>
-      <c r="U141" s="27"/>
-      <c r="V141" s="28"/>
+      <c r="S141" s="22"/>
+      <c r="T141" s="23"/>
+      <c r="U141" s="23"/>
+      <c r="V141" s="24"/>
       <c r="X141" s="4"/>
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
-      <c r="AD141" s="26"/>
-      <c r="AE141" s="27"/>
-      <c r="AF141" s="27"/>
-      <c r="AG141" s="28"/>
+      <c r="AD141" s="22"/>
+      <c r="AE141" s="23"/>
+      <c r="AF141" s="23"/>
+      <c r="AG141" s="24"/>
     </row>
     <row r="142" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
@@ -6856,30 +6856,30 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="28"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="24"/>
       <c r="M142" s="4"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-      <c r="S142" s="26"/>
-      <c r="T142" s="27"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="28"/>
+      <c r="S142" s="22"/>
+      <c r="T142" s="23"/>
+      <c r="U142" s="23"/>
+      <c r="V142" s="24"/>
       <c r="X142" s="4"/>
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
-      <c r="AD142" s="26"/>
-      <c r="AE142" s="27"/>
-      <c r="AF142" s="27"/>
-      <c r="AG142" s="28"/>
+      <c r="AD142" s="22"/>
+      <c r="AE142" s="23"/>
+      <c r="AF142" s="23"/>
+      <c r="AG142" s="24"/>
     </row>
     <row r="143" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
@@ -6888,30 +6888,30 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="28"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="24"/>
       <c r="M143" s="4"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-      <c r="S143" s="26"/>
-      <c r="T143" s="27"/>
-      <c r="U143" s="27"/>
-      <c r="V143" s="28"/>
+      <c r="S143" s="22"/>
+      <c r="T143" s="23"/>
+      <c r="U143" s="23"/>
+      <c r="V143" s="24"/>
       <c r="X143" s="4"/>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
-      <c r="AD143" s="26"/>
-      <c r="AE143" s="27"/>
-      <c r="AF143" s="27"/>
-      <c r="AG143" s="28"/>
+      <c r="AD143" s="22"/>
+      <c r="AE143" s="23"/>
+      <c r="AF143" s="23"/>
+      <c r="AG143" s="24"/>
     </row>
     <row r="144" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
@@ -6920,30 +6920,30 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="28"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="24"/>
       <c r="M144" s="4"/>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-      <c r="S144" s="26"/>
-      <c r="T144" s="27"/>
-      <c r="U144" s="27"/>
-      <c r="V144" s="28"/>
+      <c r="S144" s="22"/>
+      <c r="T144" s="23"/>
+      <c r="U144" s="23"/>
+      <c r="V144" s="24"/>
       <c r="X144" s="4"/>
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
-      <c r="AD144" s="26"/>
-      <c r="AE144" s="27"/>
-      <c r="AF144" s="27"/>
-      <c r="AG144" s="28"/>
+      <c r="AD144" s="22"/>
+      <c r="AE144" s="23"/>
+      <c r="AF144" s="23"/>
+      <c r="AG144" s="24"/>
     </row>
     <row r="145" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
@@ -6952,30 +6952,30 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="31"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="27"/>
       <c r="M145" s="4"/>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="29"/>
-      <c r="T145" s="30"/>
-      <c r="U145" s="30"/>
-      <c r="V145" s="31"/>
+      <c r="S145" s="25"/>
+      <c r="T145" s="26"/>
+      <c r="U145" s="26"/>
+      <c r="V145" s="27"/>
       <c r="X145" s="4"/>
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
       <c r="AC145" s="6"/>
-      <c r="AD145" s="29"/>
-      <c r="AE145" s="30"/>
-      <c r="AF145" s="30"/>
-      <c r="AG145" s="31"/>
+      <c r="AD145" s="25"/>
+      <c r="AE145" s="26"/>
+      <c r="AF145" s="26"/>
+      <c r="AG145" s="27"/>
     </row>
     <row r="146" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
@@ -6984,36 +6984,36 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I146" s="24"/>
-      <c r="J146" s="24"/>
-      <c r="K146" s="25"/>
+      <c r="H146" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="21"/>
       <c r="M146" s="4"/>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-      <c r="S146" s="39" t="s">
+      <c r="S146" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="T146" s="24"/>
-      <c r="U146" s="24"/>
-      <c r="V146" s="25"/>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="21"/>
       <c r="X146" s="4"/>
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
-      <c r="AD146" s="39" t="s">
+      <c r="AD146" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AE146" s="24"/>
-      <c r="AF146" s="24"/>
-      <c r="AG146" s="25"/>
+      <c r="AE146" s="20"/>
+      <c r="AF146" s="20"/>
+      <c r="AG146" s="21"/>
     </row>
     <row r="147" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
@@ -7022,30 +7022,30 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="28"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="24"/>
       <c r="M147" s="4"/>
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-      <c r="S147" s="26"/>
-      <c r="T147" s="27"/>
-      <c r="U147" s="27"/>
-      <c r="V147" s="28"/>
+      <c r="S147" s="22"/>
+      <c r="T147" s="23"/>
+      <c r="U147" s="23"/>
+      <c r="V147" s="24"/>
       <c r="X147" s="4"/>
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
-      <c r="AD147" s="26"/>
-      <c r="AE147" s="27"/>
-      <c r="AF147" s="27"/>
-      <c r="AG147" s="28"/>
+      <c r="AD147" s="22"/>
+      <c r="AE147" s="23"/>
+      <c r="AF147" s="23"/>
+      <c r="AG147" s="24"/>
     </row>
     <row r="148" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
@@ -7054,30 +7054,30 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="28"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="24"/>
       <c r="M148" s="4"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-      <c r="S148" s="26"/>
-      <c r="T148" s="27"/>
-      <c r="U148" s="27"/>
-      <c r="V148" s="28"/>
+      <c r="S148" s="22"/>
+      <c r="T148" s="23"/>
+      <c r="U148" s="23"/>
+      <c r="V148" s="24"/>
       <c r="X148" s="4"/>
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
-      <c r="AD148" s="26"/>
-      <c r="AE148" s="27"/>
-      <c r="AF148" s="27"/>
-      <c r="AG148" s="28"/>
+      <c r="AD148" s="22"/>
+      <c r="AE148" s="23"/>
+      <c r="AF148" s="23"/>
+      <c r="AG148" s="24"/>
     </row>
     <row r="149" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
@@ -7086,30 +7086,30 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="28"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="24"/>
       <c r="M149" s="4"/>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="26"/>
-      <c r="T149" s="27"/>
-      <c r="U149" s="27"/>
-      <c r="V149" s="28"/>
+      <c r="S149" s="22"/>
+      <c r="T149" s="23"/>
+      <c r="U149" s="23"/>
+      <c r="V149" s="24"/>
       <c r="X149" s="4"/>
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5"/>
-      <c r="AD149" s="26"/>
-      <c r="AE149" s="27"/>
-      <c r="AF149" s="27"/>
-      <c r="AG149" s="28"/>
+      <c r="AD149" s="22"/>
+      <c r="AE149" s="23"/>
+      <c r="AF149" s="23"/>
+      <c r="AG149" s="24"/>
     </row>
     <row r="150" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
@@ -7118,30 +7118,30 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="28"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="23"/>
+      <c r="K150" s="24"/>
       <c r="M150" s="4"/>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-      <c r="S150" s="26"/>
-      <c r="T150" s="27"/>
-      <c r="U150" s="27"/>
-      <c r="V150" s="28"/>
+      <c r="S150" s="22"/>
+      <c r="T150" s="23"/>
+      <c r="U150" s="23"/>
+      <c r="V150" s="24"/>
       <c r="X150" s="4"/>
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
-      <c r="AD150" s="26"/>
-      <c r="AE150" s="27"/>
-      <c r="AF150" s="27"/>
-      <c r="AG150" s="28"/>
+      <c r="AD150" s="22"/>
+      <c r="AE150" s="23"/>
+      <c r="AF150" s="23"/>
+      <c r="AG150" s="24"/>
     </row>
     <row r="151" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
@@ -7150,30 +7150,30 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="28"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="23"/>
+      <c r="K151" s="24"/>
       <c r="M151" s="4"/>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-      <c r="S151" s="26"/>
-      <c r="T151" s="27"/>
-      <c r="U151" s="27"/>
-      <c r="V151" s="28"/>
+      <c r="S151" s="22"/>
+      <c r="T151" s="23"/>
+      <c r="U151" s="23"/>
+      <c r="V151" s="24"/>
       <c r="X151" s="4"/>
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
-      <c r="AD151" s="26"/>
-      <c r="AE151" s="27"/>
-      <c r="AF151" s="27"/>
-      <c r="AG151" s="28"/>
+      <c r="AD151" s="22"/>
+      <c r="AE151" s="23"/>
+      <c r="AF151" s="23"/>
+      <c r="AG151" s="24"/>
     </row>
     <row r="152" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
@@ -7182,30 +7182,30 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="28"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="23"/>
+      <c r="K152" s="24"/>
       <c r="M152" s="4"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-      <c r="S152" s="26"/>
-      <c r="T152" s="27"/>
-      <c r="U152" s="27"/>
-      <c r="V152" s="28"/>
+      <c r="S152" s="22"/>
+      <c r="T152" s="23"/>
+      <c r="U152" s="23"/>
+      <c r="V152" s="24"/>
       <c r="X152" s="4"/>
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
-      <c r="AD152" s="26"/>
-      <c r="AE152" s="27"/>
-      <c r="AF152" s="27"/>
-      <c r="AG152" s="28"/>
+      <c r="AD152" s="22"/>
+      <c r="AE152" s="23"/>
+      <c r="AF152" s="23"/>
+      <c r="AG152" s="24"/>
     </row>
     <row r="153" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
@@ -7214,30 +7214,30 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="28"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="24"/>
       <c r="M153" s="4"/>
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-      <c r="S153" s="26"/>
-      <c r="T153" s="27"/>
-      <c r="U153" s="27"/>
-      <c r="V153" s="28"/>
+      <c r="S153" s="22"/>
+      <c r="T153" s="23"/>
+      <c r="U153" s="23"/>
+      <c r="V153" s="24"/>
       <c r="X153" s="4"/>
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
-      <c r="AD153" s="26"/>
-      <c r="AE153" s="27"/>
-      <c r="AF153" s="27"/>
-      <c r="AG153" s="28"/>
+      <c r="AD153" s="22"/>
+      <c r="AE153" s="23"/>
+      <c r="AF153" s="23"/>
+      <c r="AG153" s="24"/>
     </row>
     <row r="154" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
@@ -7246,30 +7246,30 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="27"/>
-      <c r="K154" s="28"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="24"/>
       <c r="M154" s="4"/>
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-      <c r="S154" s="26"/>
-      <c r="T154" s="27"/>
-      <c r="U154" s="27"/>
-      <c r="V154" s="28"/>
+      <c r="S154" s="22"/>
+      <c r="T154" s="23"/>
+      <c r="U154" s="23"/>
+      <c r="V154" s="24"/>
       <c r="X154" s="4"/>
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
-      <c r="AD154" s="26"/>
-      <c r="AE154" s="27"/>
-      <c r="AF154" s="27"/>
-      <c r="AG154" s="28"/>
+      <c r="AD154" s="22"/>
+      <c r="AE154" s="23"/>
+      <c r="AF154" s="23"/>
+      <c r="AG154" s="24"/>
     </row>
     <row r="155" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
@@ -7278,30 +7278,30 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="28"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
+      <c r="K155" s="24"/>
       <c r="M155" s="4"/>
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-      <c r="S155" s="26"/>
-      <c r="T155" s="27"/>
-      <c r="U155" s="27"/>
-      <c r="V155" s="28"/>
+      <c r="S155" s="22"/>
+      <c r="T155" s="23"/>
+      <c r="U155" s="23"/>
+      <c r="V155" s="24"/>
       <c r="X155" s="4"/>
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
-      <c r="AD155" s="26"/>
-      <c r="AE155" s="27"/>
-      <c r="AF155" s="27"/>
-      <c r="AG155" s="28"/>
+      <c r="AD155" s="22"/>
+      <c r="AE155" s="23"/>
+      <c r="AF155" s="23"/>
+      <c r="AG155" s="24"/>
     </row>
     <row r="156" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
@@ -7310,30 +7310,30 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="28"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="24"/>
       <c r="M156" s="4"/>
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-      <c r="S156" s="26"/>
-      <c r="T156" s="27"/>
-      <c r="U156" s="27"/>
-      <c r="V156" s="28"/>
+      <c r="S156" s="22"/>
+      <c r="T156" s="23"/>
+      <c r="U156" s="23"/>
+      <c r="V156" s="24"/>
       <c r="X156" s="4"/>
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
-      <c r="AD156" s="26"/>
-      <c r="AE156" s="27"/>
-      <c r="AF156" s="27"/>
-      <c r="AG156" s="28"/>
+      <c r="AD156" s="22"/>
+      <c r="AE156" s="23"/>
+      <c r="AF156" s="23"/>
+      <c r="AG156" s="24"/>
     </row>
     <row r="157" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
@@ -7342,30 +7342,30 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="28"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="24"/>
       <c r="M157" s="4"/>
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-      <c r="S157" s="26"/>
-      <c r="T157" s="27"/>
-      <c r="U157" s="27"/>
-      <c r="V157" s="28"/>
+      <c r="S157" s="22"/>
+      <c r="T157" s="23"/>
+      <c r="U157" s="23"/>
+      <c r="V157" s="24"/>
       <c r="X157" s="4"/>
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
-      <c r="AD157" s="26"/>
-      <c r="AE157" s="27"/>
-      <c r="AF157" s="27"/>
-      <c r="AG157" s="28"/>
+      <c r="AD157" s="22"/>
+      <c r="AE157" s="23"/>
+      <c r="AF157" s="23"/>
+      <c r="AG157" s="24"/>
     </row>
     <row r="158" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
@@ -7374,30 +7374,30 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="28"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="24"/>
       <c r="M158" s="4"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-      <c r="S158" s="26"/>
-      <c r="T158" s="27"/>
-      <c r="U158" s="27"/>
-      <c r="V158" s="28"/>
+      <c r="S158" s="22"/>
+      <c r="T158" s="23"/>
+      <c r="U158" s="23"/>
+      <c r="V158" s="24"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
-      <c r="AD158" s="26"/>
-      <c r="AE158" s="27"/>
-      <c r="AF158" s="27"/>
-      <c r="AG158" s="28"/>
+      <c r="AD158" s="22"/>
+      <c r="AE158" s="23"/>
+      <c r="AF158" s="23"/>
+      <c r="AG158" s="24"/>
     </row>
     <row r="159" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
@@ -7406,30 +7406,30 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="28"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="23"/>
+      <c r="K159" s="24"/>
       <c r="M159" s="4"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-      <c r="S159" s="26"/>
-      <c r="T159" s="27"/>
-      <c r="U159" s="27"/>
-      <c r="V159" s="28"/>
+      <c r="S159" s="22"/>
+      <c r="T159" s="23"/>
+      <c r="U159" s="23"/>
+      <c r="V159" s="24"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
-      <c r="AD159" s="26"/>
-      <c r="AE159" s="27"/>
-      <c r="AF159" s="27"/>
-      <c r="AG159" s="28"/>
+      <c r="AD159" s="22"/>
+      <c r="AE159" s="23"/>
+      <c r="AF159" s="23"/>
+      <c r="AG159" s="24"/>
     </row>
     <row r="160" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B160" s="18"/>
@@ -7438,178 +7438,178 @@
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="31"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="27"/>
       <c r="M160" s="18"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
-      <c r="S160" s="29"/>
-      <c r="T160" s="30"/>
-      <c r="U160" s="30"/>
-      <c r="V160" s="31"/>
+      <c r="S160" s="25"/>
+      <c r="T160" s="26"/>
+      <c r="U160" s="26"/>
+      <c r="V160" s="27"/>
       <c r="X160" s="18"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
       <c r="AA160" s="7"/>
       <c r="AB160" s="7"/>
       <c r="AC160" s="7"/>
-      <c r="AD160" s="29"/>
-      <c r="AE160" s="30"/>
-      <c r="AF160" s="30"/>
-      <c r="AG160" s="31"/>
+      <c r="AD160" s="25"/>
+      <c r="AE160" s="26"/>
+      <c r="AF160" s="26"/>
+      <c r="AG160" s="27"/>
     </row>
     <row r="161" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="23" t="s">
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I161" s="24"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="33" t="s">
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M161" s="23" t="s">
+      <c r="M161" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N161" s="24"/>
-      <c r="O161" s="24"/>
-      <c r="P161" s="24"/>
-      <c r="Q161" s="24"/>
-      <c r="R161" s="25"/>
-      <c r="S161" s="23" t="s">
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="20"/>
+      <c r="R161" s="21"/>
+      <c r="S161" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T161" s="24"/>
-      <c r="U161" s="25"/>
-      <c r="V161" s="33" t="s">
+      <c r="T161" s="20"/>
+      <c r="U161" s="21"/>
+      <c r="V161" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X161" s="23" t="s">
+      <c r="X161" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y161" s="24"/>
-      <c r="Z161" s="24"/>
-      <c r="AA161" s="24"/>
-      <c r="AB161" s="24"/>
-      <c r="AC161" s="25"/>
-      <c r="AD161" s="23" t="s">
+      <c r="Y161" s="20"/>
+      <c r="Z161" s="20"/>
+      <c r="AA161" s="20"/>
+      <c r="AB161" s="20"/>
+      <c r="AC161" s="21"/>
+      <c r="AD161" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AE161" s="24"/>
-      <c r="AF161" s="25"/>
-      <c r="AG161" s="33" t="s">
+      <c r="AE161" s="20"/>
+      <c r="AF161" s="21"/>
+      <c r="AG161" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="162" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B162" s="26"/>
-      <c r="C162" s="27"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="26"/>
-      <c r="I162" s="32"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="34"/>
-      <c r="M162" s="26"/>
-      <c r="N162" s="27"/>
-      <c r="O162" s="27"/>
-      <c r="P162" s="27"/>
-      <c r="Q162" s="27"/>
-      <c r="R162" s="28"/>
-      <c r="S162" s="26"/>
-      <c r="T162" s="32"/>
-      <c r="U162" s="28"/>
-      <c r="V162" s="34"/>
-      <c r="X162" s="26"/>
-      <c r="Y162" s="27"/>
-      <c r="Z162" s="27"/>
-      <c r="AA162" s="27"/>
-      <c r="AB162" s="27"/>
-      <c r="AC162" s="28"/>
-      <c r="AD162" s="26"/>
-      <c r="AE162" s="32"/>
-      <c r="AF162" s="28"/>
-      <c r="AG162" s="34"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="29"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="31"/>
+      <c r="M162" s="22"/>
+      <c r="N162" s="23"/>
+      <c r="O162" s="23"/>
+      <c r="P162" s="23"/>
+      <c r="Q162" s="23"/>
+      <c r="R162" s="24"/>
+      <c r="S162" s="22"/>
+      <c r="T162" s="29"/>
+      <c r="U162" s="24"/>
+      <c r="V162" s="31"/>
+      <c r="X162" s="22"/>
+      <c r="Y162" s="23"/>
+      <c r="Z162" s="23"/>
+      <c r="AA162" s="23"/>
+      <c r="AB162" s="23"/>
+      <c r="AC162" s="24"/>
+      <c r="AD162" s="22"/>
+      <c r="AE162" s="29"/>
+      <c r="AF162" s="24"/>
+      <c r="AG162" s="31"/>
     </row>
     <row r="163" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B163" s="29"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="30"/>
-      <c r="J163" s="31"/>
-      <c r="K163" s="35"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="30"/>
-      <c r="O163" s="30"/>
-      <c r="P163" s="30"/>
-      <c r="Q163" s="30"/>
-      <c r="R163" s="31"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="30"/>
-      <c r="U163" s="31"/>
-      <c r="V163" s="35"/>
-      <c r="X163" s="29"/>
-      <c r="Y163" s="30"/>
-      <c r="Z163" s="30"/>
-      <c r="AA163" s="30"/>
-      <c r="AB163" s="30"/>
-      <c r="AC163" s="31"/>
-      <c r="AD163" s="29"/>
-      <c r="AE163" s="30"/>
-      <c r="AF163" s="31"/>
-      <c r="AG163" s="35"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="32"/>
+      <c r="M163" s="25"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="26"/>
+      <c r="P163" s="26"/>
+      <c r="Q163" s="26"/>
+      <c r="R163" s="27"/>
+      <c r="S163" s="25"/>
+      <c r="T163" s="26"/>
+      <c r="U163" s="27"/>
+      <c r="V163" s="32"/>
+      <c r="X163" s="25"/>
+      <c r="Y163" s="26"/>
+      <c r="Z163" s="26"/>
+      <c r="AA163" s="26"/>
+      <c r="AB163" s="26"/>
+      <c r="AC163" s="27"/>
+      <c r="AD163" s="25"/>
+      <c r="AE163" s="26"/>
+      <c r="AF163" s="27"/>
+      <c r="AG163" s="32"/>
     </row>
     <row r="169" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C169" s="59"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="22" t="s">
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I169" s="21"/>
-      <c r="J169" s="19" t="s">
+      <c r="I169" s="37"/>
+      <c r="J169" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="K169" s="21"/>
-      <c r="M169" s="38" t="s">
+      <c r="K169" s="37"/>
+      <c r="M169" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N169" s="59"/>
-      <c r="O169" s="59"/>
-      <c r="P169" s="59"/>
-      <c r="Q169" s="59"/>
-      <c r="R169" s="37"/>
-      <c r="S169" s="22" t="s">
+      <c r="N169" s="34"/>
+      <c r="O169" s="34"/>
+      <c r="P169" s="34"/>
+      <c r="Q169" s="34"/>
+      <c r="R169" s="35"/>
+      <c r="S169" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="T169" s="21"/>
-      <c r="U169" s="19" t="s">
+      <c r="T169" s="37"/>
+      <c r="U169" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="V169" s="21"/>
+      <c r="V169" s="37"/>
     </row>
     <row r="170" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
@@ -7618,28 +7618,28 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="19" t="s">
+      <c r="H170" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I170" s="21"/>
-      <c r="J170" s="22" t="s">
+      <c r="I170" s="37"/>
+      <c r="J170" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K170" s="21"/>
+      <c r="K170" s="37"/>
       <c r="M170" s="1"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
-      <c r="S170" s="19" t="s">
+      <c r="S170" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T170" s="21"/>
-      <c r="U170" s="22" t="s">
+      <c r="T170" s="37"/>
+      <c r="U170" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V170" s="21"/>
+      <c r="V170" s="37"/>
     </row>
     <row r="171" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
@@ -7648,24 +7648,24 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
-      <c r="H171" s="39" t="s">
+      <c r="H171" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="25"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="21"/>
       <c r="M171" s="4"/>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-      <c r="S171" s="39" t="s">
+      <c r="S171" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="T171" s="24"/>
-      <c r="U171" s="24"/>
-      <c r="V171" s="25"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="21"/>
     </row>
     <row r="172" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
@@ -7674,20 +7674,20 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="28"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="23"/>
+      <c r="J172" s="23"/>
+      <c r="K172" s="24"/>
       <c r="M172" s="4"/>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-      <c r="S172" s="26"/>
-      <c r="T172" s="27"/>
-      <c r="U172" s="27"/>
-      <c r="V172" s="28"/>
+      <c r="S172" s="22"/>
+      <c r="T172" s="23"/>
+      <c r="U172" s="23"/>
+      <c r="V172" s="24"/>
     </row>
     <row r="173" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
@@ -7696,20 +7696,20 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="28"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="23"/>
+      <c r="J173" s="23"/>
+      <c r="K173" s="24"/>
       <c r="M173" s="4"/>
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-      <c r="S173" s="26"/>
-      <c r="T173" s="27"/>
-      <c r="U173" s="27"/>
-      <c r="V173" s="28"/>
+      <c r="S173" s="22"/>
+      <c r="T173" s="23"/>
+      <c r="U173" s="23"/>
+      <c r="V173" s="24"/>
     </row>
     <row r="174" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
@@ -7718,20 +7718,20 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="28"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="23"/>
+      <c r="J174" s="23"/>
+      <c r="K174" s="24"/>
       <c r="M174" s="4"/>
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-      <c r="S174" s="26"/>
-      <c r="T174" s="27"/>
-      <c r="U174" s="27"/>
-      <c r="V174" s="28"/>
+      <c r="S174" s="22"/>
+      <c r="T174" s="23"/>
+      <c r="U174" s="23"/>
+      <c r="V174" s="24"/>
     </row>
     <row r="175" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
@@ -7740,20 +7740,20 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="27"/>
-      <c r="K175" s="28"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="23"/>
+      <c r="K175" s="24"/>
       <c r="M175" s="4"/>
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-      <c r="S175" s="26"/>
-      <c r="T175" s="27"/>
-      <c r="U175" s="27"/>
-      <c r="V175" s="28"/>
+      <c r="S175" s="22"/>
+      <c r="T175" s="23"/>
+      <c r="U175" s="23"/>
+      <c r="V175" s="24"/>
     </row>
     <row r="176" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
@@ -7762,20 +7762,20 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="28"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="23"/>
+      <c r="J176" s="23"/>
+      <c r="K176" s="24"/>
       <c r="M176" s="4"/>
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-      <c r="S176" s="26"/>
-      <c r="T176" s="27"/>
-      <c r="U176" s="27"/>
-      <c r="V176" s="28"/>
+      <c r="S176" s="22"/>
+      <c r="T176" s="23"/>
+      <c r="U176" s="23"/>
+      <c r="V176" s="24"/>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
@@ -7784,20 +7784,20 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="28"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="23"/>
+      <c r="J177" s="23"/>
+      <c r="K177" s="24"/>
       <c r="M177" s="4"/>
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-      <c r="S177" s="26"/>
-      <c r="T177" s="27"/>
-      <c r="U177" s="27"/>
-      <c r="V177" s="28"/>
+      <c r="S177" s="22"/>
+      <c r="T177" s="23"/>
+      <c r="U177" s="23"/>
+      <c r="V177" s="24"/>
     </row>
     <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
@@ -7806,20 +7806,20 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="30"/>
-      <c r="J178" s="30"/>
-      <c r="K178" s="31"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="27"/>
       <c r="M178" s="4"/>
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="6"/>
-      <c r="S178" s="29"/>
-      <c r="T178" s="30"/>
-      <c r="U178" s="30"/>
-      <c r="V178" s="31"/>
+      <c r="S178" s="25"/>
+      <c r="T178" s="26"/>
+      <c r="U178" s="26"/>
+      <c r="V178" s="27"/>
     </row>
     <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
@@ -7828,24 +7828,24 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
-      <c r="H179" s="39" t="s">
+      <c r="H179" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="25"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="21"/>
       <c r="M179" s="4"/>
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-      <c r="S179" s="39" t="s">
+      <c r="S179" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T179" s="24"/>
-      <c r="U179" s="24"/>
-      <c r="V179" s="25"/>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="21"/>
     </row>
     <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
@@ -7854,20 +7854,20 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="28"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="23"/>
+      <c r="K180" s="24"/>
       <c r="M180" s="4"/>
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-      <c r="S180" s="26"/>
-      <c r="T180" s="27"/>
-      <c r="U180" s="27"/>
-      <c r="V180" s="28"/>
+      <c r="S180" s="22"/>
+      <c r="T180" s="23"/>
+      <c r="U180" s="23"/>
+      <c r="V180" s="24"/>
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
@@ -7876,20 +7876,20 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
-      <c r="H181" s="26"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="28"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="24"/>
       <c r="M181" s="4"/>
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-      <c r="S181" s="26"/>
-      <c r="T181" s="27"/>
-      <c r="U181" s="27"/>
-      <c r="V181" s="28"/>
+      <c r="S181" s="22"/>
+      <c r="T181" s="23"/>
+      <c r="U181" s="23"/>
+      <c r="V181" s="24"/>
     </row>
     <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
@@ -7898,20 +7898,20 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="28"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="23"/>
+      <c r="K182" s="24"/>
       <c r="M182" s="4"/>
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-      <c r="S182" s="26"/>
-      <c r="T182" s="27"/>
-      <c r="U182" s="27"/>
-      <c r="V182" s="28"/>
+      <c r="S182" s="22"/>
+      <c r="T182" s="23"/>
+      <c r="U182" s="23"/>
+      <c r="V182" s="24"/>
     </row>
     <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
@@ -7920,20 +7920,20 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="28"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="23"/>
+      <c r="J183" s="23"/>
+      <c r="K183" s="24"/>
       <c r="M183" s="4"/>
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-      <c r="S183" s="26"/>
-      <c r="T183" s="27"/>
-      <c r="U183" s="27"/>
-      <c r="V183" s="28"/>
+      <c r="S183" s="22"/>
+      <c r="T183" s="23"/>
+      <c r="U183" s="23"/>
+      <c r="V183" s="24"/>
     </row>
     <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
@@ -7942,20 +7942,20 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="28"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="24"/>
       <c r="M184" s="4"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="26"/>
-      <c r="T184" s="27"/>
-      <c r="U184" s="27"/>
-      <c r="V184" s="28"/>
+      <c r="S184" s="22"/>
+      <c r="T184" s="23"/>
+      <c r="U184" s="23"/>
+      <c r="V184" s="24"/>
     </row>
     <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
@@ -7964,20 +7964,20 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="28"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="23"/>
+      <c r="K185" s="24"/>
       <c r="M185" s="4"/>
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-      <c r="S185" s="26"/>
-      <c r="T185" s="27"/>
-      <c r="U185" s="27"/>
-      <c r="V185" s="28"/>
+      <c r="S185" s="22"/>
+      <c r="T185" s="23"/>
+      <c r="U185" s="23"/>
+      <c r="V185" s="24"/>
     </row>
     <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
@@ -7986,20 +7986,20 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="28"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="24"/>
       <c r="M186" s="4"/>
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-      <c r="S186" s="26"/>
-      <c r="T186" s="27"/>
-      <c r="U186" s="27"/>
-      <c r="V186" s="28"/>
+      <c r="S186" s="22"/>
+      <c r="T186" s="23"/>
+      <c r="U186" s="23"/>
+      <c r="V186" s="24"/>
     </row>
     <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
@@ -8008,20 +8008,20 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="28"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="23"/>
+      <c r="K187" s="24"/>
       <c r="M187" s="4"/>
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-      <c r="S187" s="26"/>
-      <c r="T187" s="27"/>
-      <c r="U187" s="27"/>
-      <c r="V187" s="28"/>
+      <c r="S187" s="22"/>
+      <c r="T187" s="23"/>
+      <c r="U187" s="23"/>
+      <c r="V187" s="24"/>
     </row>
     <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
@@ -8030,20 +8030,20 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="28"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="23"/>
+      <c r="J188" s="23"/>
+      <c r="K188" s="24"/>
       <c r="M188" s="4"/>
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-      <c r="S188" s="26"/>
-      <c r="T188" s="27"/>
-      <c r="U188" s="27"/>
-      <c r="V188" s="28"/>
+      <c r="S188" s="22"/>
+      <c r="T188" s="23"/>
+      <c r="U188" s="23"/>
+      <c r="V188" s="24"/>
     </row>
     <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
@@ -8052,20 +8052,20 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
-      <c r="H189" s="26"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="28"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="23"/>
+      <c r="J189" s="23"/>
+      <c r="K189" s="24"/>
       <c r="M189" s="4"/>
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-      <c r="S189" s="26"/>
-      <c r="T189" s="27"/>
-      <c r="U189" s="27"/>
-      <c r="V189" s="28"/>
+      <c r="S189" s="22"/>
+      <c r="T189" s="23"/>
+      <c r="U189" s="23"/>
+      <c r="V189" s="24"/>
     </row>
     <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
@@ -8074,20 +8074,20 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
-      <c r="H190" s="26"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="28"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="24"/>
       <c r="M190" s="4"/>
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-      <c r="S190" s="26"/>
-      <c r="T190" s="27"/>
-      <c r="U190" s="27"/>
-      <c r="V190" s="28"/>
+      <c r="S190" s="22"/>
+      <c r="T190" s="23"/>
+      <c r="U190" s="23"/>
+      <c r="V190" s="24"/>
     </row>
     <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
@@ -8096,20 +8096,20 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="26"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="28"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="23"/>
+      <c r="J191" s="23"/>
+      <c r="K191" s="24"/>
       <c r="M191" s="4"/>
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-      <c r="S191" s="26"/>
-      <c r="T191" s="27"/>
-      <c r="U191" s="27"/>
-      <c r="V191" s="28"/>
+      <c r="S191" s="22"/>
+      <c r="T191" s="23"/>
+      <c r="U191" s="23"/>
+      <c r="V191" s="24"/>
     </row>
     <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
@@ -8118,20 +8118,20 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
-      <c r="H192" s="26"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="27"/>
-      <c r="K192" s="28"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="23"/>
+      <c r="J192" s="23"/>
+      <c r="K192" s="24"/>
       <c r="M192" s="4"/>
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-      <c r="S192" s="26"/>
-      <c r="T192" s="27"/>
-      <c r="U192" s="27"/>
-      <c r="V192" s="28"/>
+      <c r="S192" s="22"/>
+      <c r="T192" s="23"/>
+      <c r="U192" s="23"/>
+      <c r="V192" s="24"/>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="18"/>
@@ -8140,223 +8140,125 @@
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="29"/>
-      <c r="I193" s="30"/>
-      <c r="J193" s="30"/>
-      <c r="K193" s="31"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="26"/>
+      <c r="J193" s="26"/>
+      <c r="K193" s="27"/>
       <c r="M193" s="18"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7"/>
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
       <c r="R193" s="7"/>
-      <c r="S193" s="29"/>
-      <c r="T193" s="30"/>
-      <c r="U193" s="30"/>
-      <c r="V193" s="31"/>
+      <c r="S193" s="25"/>
+      <c r="T193" s="26"/>
+      <c r="U193" s="26"/>
+      <c r="V193" s="27"/>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="23" t="s">
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I194" s="24"/>
-      <c r="J194" s="25"/>
-      <c r="K194" s="33" t="s">
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
+      <c r="K194" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M194" s="23" t="s">
+      <c r="M194" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N194" s="24"/>
-      <c r="O194" s="24"/>
-      <c r="P194" s="24"/>
-      <c r="Q194" s="24"/>
-      <c r="R194" s="25"/>
-      <c r="S194" s="23" t="s">
+      <c r="N194" s="20"/>
+      <c r="O194" s="20"/>
+      <c r="P194" s="20"/>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="21"/>
+      <c r="S194" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T194" s="24"/>
-      <c r="U194" s="25"/>
-      <c r="V194" s="33" t="s">
+      <c r="T194" s="20"/>
+      <c r="U194" s="21"/>
+      <c r="V194" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B195" s="26"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="32"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="34"/>
-      <c r="M195" s="26"/>
-      <c r="N195" s="27"/>
-      <c r="O195" s="27"/>
-      <c r="P195" s="27"/>
-      <c r="Q195" s="27"/>
-      <c r="R195" s="28"/>
-      <c r="S195" s="26"/>
-      <c r="T195" s="32"/>
-      <c r="U195" s="28"/>
-      <c r="V195" s="34"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="22"/>
+      <c r="I195" s="29"/>
+      <c r="J195" s="24"/>
+      <c r="K195" s="31"/>
+      <c r="M195" s="22"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="24"/>
+      <c r="S195" s="22"/>
+      <c r="T195" s="29"/>
+      <c r="U195" s="24"/>
+      <c r="V195" s="31"/>
     </row>
     <row r="196" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B196" s="29"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="30"/>
-      <c r="F196" s="30"/>
-      <c r="G196" s="31"/>
-      <c r="H196" s="29"/>
-      <c r="I196" s="30"/>
-      <c r="J196" s="31"/>
-      <c r="K196" s="35"/>
-      <c r="M196" s="29"/>
-      <c r="N196" s="30"/>
-      <c r="O196" s="30"/>
-      <c r="P196" s="30"/>
-      <c r="Q196" s="30"/>
-      <c r="R196" s="31"/>
-      <c r="S196" s="29"/>
-      <c r="T196" s="30"/>
-      <c r="U196" s="31"/>
-      <c r="V196" s="35"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="27"/>
+      <c r="K196" s="32"/>
+      <c r="M196" s="25"/>
+      <c r="N196" s="26"/>
+      <c r="O196" s="26"/>
+      <c r="P196" s="26"/>
+      <c r="Q196" s="26"/>
+      <c r="R196" s="27"/>
+      <c r="S196" s="25"/>
+      <c r="T196" s="26"/>
+      <c r="U196" s="27"/>
+      <c r="V196" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="S171:V178"/>
-    <mergeCell ref="S179:V193"/>
-    <mergeCell ref="M194:R196"/>
-    <mergeCell ref="S194:U196"/>
-    <mergeCell ref="V194:V196"/>
-    <mergeCell ref="M169:R169"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="U169:V169"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="U170:V170"/>
-    <mergeCell ref="H171:K178"/>
-    <mergeCell ref="H179:K193"/>
-    <mergeCell ref="B194:G196"/>
-    <mergeCell ref="H194:J196"/>
-    <mergeCell ref="K194:K196"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="AD138:AG145"/>
-    <mergeCell ref="AD146:AG160"/>
-    <mergeCell ref="X161:AC163"/>
-    <mergeCell ref="AD161:AF163"/>
-    <mergeCell ref="AG161:AG163"/>
-    <mergeCell ref="X136:AC136"/>
-    <mergeCell ref="AD136:AE136"/>
-    <mergeCell ref="AF136:AG136"/>
-    <mergeCell ref="AD137:AE137"/>
-    <mergeCell ref="AF137:AG137"/>
-    <mergeCell ref="B161:G163"/>
-    <mergeCell ref="H161:J163"/>
-    <mergeCell ref="K161:K163"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="M136:R136"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="S138:V145"/>
-    <mergeCell ref="S146:V160"/>
-    <mergeCell ref="M161:R163"/>
-    <mergeCell ref="S161:U163"/>
-    <mergeCell ref="V161:V163"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="H138:K145"/>
-    <mergeCell ref="H146:K160"/>
-    <mergeCell ref="AB103:AC103"/>
-    <mergeCell ref="AD103:AE103"/>
-    <mergeCell ref="AB104:AE111"/>
-    <mergeCell ref="AB112:AE126"/>
-    <mergeCell ref="V127:AA129"/>
-    <mergeCell ref="AB127:AD129"/>
-    <mergeCell ref="AE127:AE129"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="AD102:AE102"/>
-    <mergeCell ref="V102:AA102"/>
-    <mergeCell ref="Q104:T111"/>
-    <mergeCell ref="Q112:T126"/>
-    <mergeCell ref="L127:P129"/>
-    <mergeCell ref="Q127:S129"/>
-    <mergeCell ref="T127:T129"/>
-    <mergeCell ref="L102:P102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="G104:J111"/>
-    <mergeCell ref="G112:J126"/>
-    <mergeCell ref="B127:F129"/>
-    <mergeCell ref="G127:I129"/>
-    <mergeCell ref="J127:J129"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="AA71:AD78"/>
-    <mergeCell ref="AA79:AD93"/>
-    <mergeCell ref="V94:Z96"/>
-    <mergeCell ref="AA94:AC96"/>
-    <mergeCell ref="AD94:AD96"/>
-    <mergeCell ref="V69:Z69"/>
-    <mergeCell ref="AA69:AB69"/>
-    <mergeCell ref="AC69:AD69"/>
-    <mergeCell ref="AA70:AB70"/>
-    <mergeCell ref="AC70:AD70"/>
-    <mergeCell ref="Q71:T78"/>
-    <mergeCell ref="Q79:T93"/>
-    <mergeCell ref="L94:P96"/>
-    <mergeCell ref="Q94:S96"/>
-    <mergeCell ref="T94:T96"/>
-    <mergeCell ref="L69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="G71:J78"/>
-    <mergeCell ref="G79:J93"/>
-    <mergeCell ref="B94:F96"/>
-    <mergeCell ref="G94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="Q13:T27"/>
-    <mergeCell ref="AA13:AD27"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="AA28:AC30"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="V28:Z30"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="L28:P30"/>
-    <mergeCell ref="Q28:S30"/>
-    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B61:F63"/>
+    <mergeCell ref="G61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:S63"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="V36:Z36"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B28:F30"/>
@@ -8381,30 +8283,128 @@
     <mergeCell ref="Q5:T12"/>
     <mergeCell ref="AA5:AD12"/>
     <mergeCell ref="G13:J27"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B61:F63"/>
-    <mergeCell ref="G61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:S63"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="Q13:T27"/>
+    <mergeCell ref="AA13:AD27"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="AA28:AC30"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="V28:Z30"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L28:P30"/>
+    <mergeCell ref="Q28:S30"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="G71:J78"/>
+    <mergeCell ref="G79:J93"/>
+    <mergeCell ref="B94:F96"/>
+    <mergeCell ref="G94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="Q71:T78"/>
+    <mergeCell ref="Q79:T93"/>
+    <mergeCell ref="L94:P96"/>
+    <mergeCell ref="Q94:S96"/>
+    <mergeCell ref="T94:T96"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="AA71:AD78"/>
+    <mergeCell ref="AA79:AD93"/>
+    <mergeCell ref="V94:Z96"/>
+    <mergeCell ref="AA94:AC96"/>
+    <mergeCell ref="AD94:AD96"/>
+    <mergeCell ref="V69:Z69"/>
+    <mergeCell ref="AA69:AB69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="AA70:AB70"/>
+    <mergeCell ref="AC70:AD70"/>
+    <mergeCell ref="G104:J111"/>
+    <mergeCell ref="G112:J126"/>
+    <mergeCell ref="B127:F129"/>
+    <mergeCell ref="G127:I129"/>
+    <mergeCell ref="J127:J129"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="Q104:T111"/>
+    <mergeCell ref="Q112:T126"/>
+    <mergeCell ref="L127:P129"/>
+    <mergeCell ref="Q127:S129"/>
+    <mergeCell ref="T127:T129"/>
+    <mergeCell ref="L102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="AB103:AC103"/>
+    <mergeCell ref="AD103:AE103"/>
+    <mergeCell ref="AB104:AE111"/>
+    <mergeCell ref="AB112:AE126"/>
+    <mergeCell ref="V127:AA129"/>
+    <mergeCell ref="AB127:AD129"/>
+    <mergeCell ref="AE127:AE129"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="AD102:AE102"/>
+    <mergeCell ref="V102:AA102"/>
+    <mergeCell ref="B161:G163"/>
+    <mergeCell ref="H161:J163"/>
+    <mergeCell ref="K161:K163"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="M136:R136"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="S138:V145"/>
+    <mergeCell ref="S146:V160"/>
+    <mergeCell ref="M161:R163"/>
+    <mergeCell ref="S161:U163"/>
+    <mergeCell ref="V161:V163"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="H138:K145"/>
+    <mergeCell ref="H146:K160"/>
+    <mergeCell ref="AD138:AG145"/>
+    <mergeCell ref="AD146:AG160"/>
+    <mergeCell ref="X161:AC163"/>
+    <mergeCell ref="AD161:AF163"/>
+    <mergeCell ref="AG161:AG163"/>
+    <mergeCell ref="X136:AC136"/>
+    <mergeCell ref="AD136:AE136"/>
+    <mergeCell ref="AF136:AG136"/>
+    <mergeCell ref="AD137:AE137"/>
+    <mergeCell ref="AF137:AG137"/>
+    <mergeCell ref="H171:K178"/>
+    <mergeCell ref="H179:K193"/>
+    <mergeCell ref="B194:G196"/>
+    <mergeCell ref="H194:J196"/>
+    <mergeCell ref="K194:K196"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="S171:V178"/>
+    <mergeCell ref="S179:V193"/>
+    <mergeCell ref="M194:R196"/>
+    <mergeCell ref="S194:U196"/>
+    <mergeCell ref="V194:V196"/>
+    <mergeCell ref="M169:R169"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="U169:V169"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="U170:V170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
